--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Bracket" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="51">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -175,12 +175,18 @@
   </si>
   <si>
     <t>NHL Finals</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -425,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -436,89 +442,176 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,2055 +893,2260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV49"/>
+  <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AT40" sqref="AT40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AU26" sqref="AU26:BA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="19.140625" style="1" customWidth="1"/>
-    <col min="7" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="21.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="21.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="18.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" style="1" customWidth="1"/>
-    <col min="19" max="21" width="9.140625" style="1"/>
-    <col min="22" max="22" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="21.42578125" style="1" customWidth="1"/>
-    <col min="26" max="29" width="9.140625" style="1"/>
-    <col min="30" max="30" width="23.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12" style="1" customWidth="1"/>
-    <col min="32" max="32" width="21.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="19" style="1" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="1"/>
-    <col min="35" max="35" width="22.140625" style="1" customWidth="1"/>
-    <col min="36" max="43" width="9.140625" style="1"/>
-    <col min="44" max="44" width="21.28515625" style="1" customWidth="1"/>
-    <col min="45" max="45" width="9.140625" style="1"/>
-    <col min="46" max="46" width="20.42578125" style="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="8" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="26" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="18.85546875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.42578125" style="1" customWidth="1"/>
+    <col min="21" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="28" width="21.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="1"/>
+    <col min="30" max="30" width="20.42578125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" style="1"/>
+    <col min="33" max="33" width="23.7109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="22.85546875" style="1" customWidth="1"/>
+    <col min="35" max="36" width="21.7109375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="19" style="1" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" style="1"/>
+    <col min="39" max="39" width="22.140625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="9.140625" style="1"/>
+    <col min="41" max="41" width="22.140625" style="1" customWidth="1"/>
+    <col min="42" max="48" width="9.140625" style="1"/>
+    <col min="49" max="49" width="21.28515625" style="1" customWidth="1"/>
+    <col min="50" max="50" width="9.140625" style="1"/>
+    <col min="51" max="51" width="20.42578125" style="1" customWidth="1"/>
+    <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
       <c r="T1" s="27"/>
-      <c r="W1" s="25" t="s">
+      <c r="U1" s="28"/>
+      <c r="Z1" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="27"/>
-      <c r="AC1" s="25" t="s">
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="28"/>
+      <c r="AF1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
+      <c r="AG1" s="27"/>
+      <c r="AH1" s="27"/>
+      <c r="AI1" s="27"/>
+      <c r="AJ1" s="27"/>
+      <c r="AK1" s="27"/>
+      <c r="AL1" s="27"/>
+      <c r="AM1" s="27"/>
+      <c r="AN1" s="27"/>
+      <c r="AO1" s="27"/>
+      <c r="AP1" s="27"/>
+      <c r="AQ1" s="27"/>
+      <c r="AR1" s="27"/>
+      <c r="AS1" s="27"/>
+      <c r="AT1" s="27"/>
+      <c r="AU1" s="27"/>
       <c r="AV1" s="27"/>
-    </row>
-    <row r="2" spans="1:48" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="AW1" s="27"/>
+      <c r="AX1" s="27"/>
+      <c r="AY1" s="27"/>
+      <c r="AZ1" s="27"/>
+      <c r="BA1" s="28"/>
+    </row>
+    <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="24"/>
-      <c r="L2" s="23" t="s">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="M2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="M2" s="21"/>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="24"/>
-      <c r="AF2" s="23" t="s">
+      <c r="Q2" s="21"/>
+      <c r="R2" s="22"/>
+      <c r="AI2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="AG2" s="21"/>
-      <c r="AH2" s="21"/>
-      <c r="AI2" s="21"/>
       <c r="AJ2" s="21"/>
-      <c r="AK2" s="24"/>
-      <c r="AQ2" s="23" t="s">
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="22"/>
+      <c r="AU2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="24"/>
-    </row>
-    <row r="3" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="AV2" s="21"/>
+      <c r="AW2" s="21"/>
+      <c r="AX2" s="21"/>
+      <c r="AY2" s="21"/>
+      <c r="AZ2" s="21"/>
+      <c r="BA2" s="22"/>
+    </row>
+    <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="AF3" s="3" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="AI3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AQ3" s="3" t="s">
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19"/>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19"/>
+      <c r="AO3" s="19"/>
+      <c r="AU3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-    </row>
-    <row r="4" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="AV3" s="19"/>
+      <c r="AW3" s="19"/>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+    </row>
+    <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="AF4" s="4" t="s">
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41"/>
+      <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="4" t="s">
+      <c r="AJ4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" s="4" t="s">
+      <c r="AL4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AM4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AJ4" s="4" t="s">
+      <c r="AN4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AK4" s="4" t="s">
+      <c r="AO4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AQ4" s="4" t="s">
+      <c r="AU4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AR4" s="4" t="s">
+      <c r="AV4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AS4" s="4" t="s">
+      <c r="AX4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AT4" s="4" t="s">
+      <c r="AY4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AU4" s="4" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AV4" s="4" t="s">
+      <c r="BA4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="9"/>
-      <c r="L5" s="4" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="5"/>
+      <c r="M5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="P5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="R5" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="S5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="AF5" s="11">
+      <c r="AI5" s="7">
         <v>1</v>
       </c>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="14"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="9"/>
-      <c r="AQ5" s="11">
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="5"/>
+      <c r="AU5" s="7">
         <v>1</v>
       </c>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="14" t="s">
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AU5" s="15"/>
-      <c r="AV5" s="9"/>
-    </row>
-    <row r="6" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="5"/>
+    </row>
+    <row r="6" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="20"/>
-      <c r="L6" s="11">
+      <c r="F6" s="13"/>
+      <c r="G6" s="16"/>
+      <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="9"/>
-      <c r="AF6" s="12">
+      <c r="N6" s="36"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="5"/>
+      <c r="AI6" s="8">
         <v>2</v>
       </c>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="20"/>
-      <c r="AQ6" s="12">
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="13"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="13"/>
+      <c r="AO6" s="16"/>
+      <c r="AU6" s="8">
         <v>2</v>
       </c>
-      <c r="AR6" s="16"/>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="16" t="s">
+      <c r="AV6" s="50"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="13"/>
+      <c r="AY6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AU6" s="17"/>
-      <c r="AV6" s="20"/>
-    </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="AZ6" s="13"/>
+      <c r="BA6" s="16"/>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="20"/>
-      <c r="H7" s="22"/>
-      <c r="L7" s="12">
+      <c r="F7" s="13"/>
+      <c r="G7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="20"/>
-      <c r="AF7" s="12">
+      <c r="N7" s="37"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="16"/>
+      <c r="AI7" s="8">
         <v>3</v>
       </c>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="17"/>
-      <c r="AK7" s="20"/>
-      <c r="AQ7" s="12">
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="13"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="13"/>
+      <c r="AO7" s="16"/>
+      <c r="AU7" s="8">
         <v>3</v>
       </c>
-      <c r="AR7" s="16" t="s">
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AS7" s="17"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="17"/>
-      <c r="AV7" s="20"/>
-    </row>
-    <row r="8" spans="1:48" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12">
+      <c r="AX7" s="13"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="13"/>
+      <c r="BA7" s="16"/>
+    </row>
+    <row r="8" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="20"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="L8" s="12">
+      <c r="F8" s="13"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="20"/>
-      <c r="AF8" s="12">
+      <c r="N8" s="37"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="16"/>
+      <c r="AI8" s="8">
         <v>4</v>
       </c>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="16"/>
-      <c r="AJ8" s="17"/>
-      <c r="AK8" s="20"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AQ8" s="12">
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="55"/>
+      <c r="AQ8" s="23"/>
+      <c r="AR8" s="23"/>
+      <c r="AS8" s="23"/>
+      <c r="AU8" s="8">
         <v>4</v>
       </c>
-      <c r="AR8" s="16" t="s">
+      <c r="AV8" s="50"/>
+      <c r="AW8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AS8" s="17"/>
-      <c r="AT8" s="16"/>
-      <c r="AU8" s="17"/>
-      <c r="AV8" s="20"/>
-    </row>
-    <row r="9" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="12"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="16"/>
+    </row>
+    <row r="9" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="50"/>
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="20"/>
-      <c r="H9" s="22"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="12">
+      <c r="F9" s="13"/>
+      <c r="G9" s="16"/>
+      <c r="I9" s="17"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="8">
         <v>4</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="20"/>
-      <c r="AF9" s="12" t="s">
+      <c r="N9" s="37"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="16"/>
+      <c r="AI9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="20"/>
-      <c r="AM9" s="14"/>
-      <c r="AN9" s="28"/>
-      <c r="AO9" s="28"/>
-      <c r="AQ9" s="12" t="s">
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="13"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="16"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AU9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="16" t="s">
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="13"/>
+      <c r="AY9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="20"/>
-    </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="16"/>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="20"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="12" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="16"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="20"/>
-      <c r="AF10" s="12" t="s">
+      <c r="N10" s="37"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="16"/>
+      <c r="AI10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="17"/>
-      <c r="AK10" s="20"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AQ10" s="12" t="s">
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="13"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="13"/>
+      <c r="AO10" s="16"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
+      <c r="AU10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AR10" s="16" t="s">
+      <c r="AV10" s="50"/>
+      <c r="AW10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AS10" s="17"/>
-      <c r="AT10" s="16"/>
-      <c r="AU10" s="17"/>
-      <c r="AV10" s="20"/>
-    </row>
-    <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="AX10" s="13"/>
+      <c r="AY10" s="12"/>
+      <c r="AZ10" s="13"/>
+      <c r="BA10" s="16"/>
+    </row>
+    <row r="11" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="10"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="12" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="6"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="20"/>
-      <c r="AF11" s="13" t="s">
+      <c r="N11" s="37"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="16"/>
+      <c r="AI11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AG11" s="18"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="18"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="10"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="22"/>
-      <c r="AO11" s="22"/>
-      <c r="AQ11" s="13" t="s">
+      <c r="AJ11" s="51"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="6"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
+      <c r="AU11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AR11" s="18"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="18" t="s">
+      <c r="AV11" s="51"/>
+      <c r="AW11" s="14"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="10"/>
-    </row>
-    <row r="12" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="6"/>
+    </row>
+    <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="13" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="10"/>
-      <c r="AF12" s="3" t="s">
+      <c r="N12" s="37"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="16"/>
+      <c r="AI12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="22"/>
-      <c r="AO12" s="22"/>
-      <c r="AQ12" s="3" t="s">
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
+      <c r="AU12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-    </row>
-    <row r="13" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K13" s="16"/>
-      <c r="L13" s="3" t="s">
+      <c r="AV12" s="19"/>
+      <c r="AW12" s="19"/>
+      <c r="AX12" s="19"/>
+      <c r="AY12" s="19"/>
+      <c r="AZ12" s="19"/>
+      <c r="BA12" s="19"/>
+    </row>
+    <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="12"/>
+      <c r="M13" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22"/>
-    </row>
-    <row r="14" spans="1:48" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="41"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
+    </row>
+    <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="AJ14" s="29"/>
-      <c r="AK14" s="29"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="22"/>
-      <c r="AO14" s="22"/>
-      <c r="AQ14" s="3" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="AN14" s="23"/>
+      <c r="AO14" s="23"/>
+      <c r="AP14" s="23"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="17"/>
+      <c r="AU14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-    </row>
-    <row r="15" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="AV14" s="19"/>
+      <c r="AW14" s="19"/>
+      <c r="AX14" s="19"/>
+      <c r="AY14" s="19"/>
+      <c r="AZ14" s="19"/>
+      <c r="BA14" s="19"/>
+    </row>
+    <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="22"/>
-      <c r="AO15" s="22"/>
-      <c r="AQ15" s="4" t="s">
+      <c r="L15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="17"/>
+      <c r="AU15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AR15" s="4" t="s">
+      <c r="AV15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AS15" s="4" t="s">
+      <c r="AX15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AT15" s="4" t="s">
+      <c r="AY15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AU15" s="4" t="s">
+      <c r="AZ15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AV15" s="4" t="s">
+      <c r="BA15" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+    <row r="16" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="9"/>
-      <c r="K16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="22"/>
-      <c r="AO16" s="22"/>
-      <c r="AQ16" s="11">
+      <c r="F16" s="11"/>
+      <c r="G16" s="5"/>
+      <c r="L16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
+      <c r="AU16" s="7">
         <v>1</v>
       </c>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="14" t="s">
+      <c r="AV16" s="49"/>
+      <c r="AW16" s="10"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="9"/>
-    </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="5"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="50"/>
+      <c r="C17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="20"/>
-      <c r="K17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="AJ17" s="16"/>
-      <c r="AM17" s="16"/>
-      <c r="AN17" s="22"/>
-      <c r="AO17" s="22"/>
-      <c r="AQ17" s="12">
+      <c r="F17" s="13"/>
+      <c r="G17" s="16"/>
+      <c r="L17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="17"/>
+      <c r="AU17" s="8">
         <v>2</v>
       </c>
-      <c r="AR17" s="16"/>
-      <c r="AS17" s="17"/>
-      <c r="AT17" s="16" t="s">
+      <c r="AV17" s="50"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="13"/>
+      <c r="AY17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AU17" s="17"/>
-      <c r="AV17" s="20"/>
-    </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="AZ17" s="13"/>
+      <c r="BA17" s="16"/>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="20"/>
-      <c r="H18" s="22"/>
-      <c r="K18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="AJ18" s="16"/>
-      <c r="AM18" s="16"/>
-      <c r="AN18" s="22"/>
-      <c r="AO18" s="22"/>
-      <c r="AQ18" s="12">
+      <c r="F18" s="13"/>
+      <c r="G18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="L18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
+      <c r="AU18" s="8">
         <v>3</v>
       </c>
-      <c r="AR18" s="16" t="s">
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="16"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="20"/>
-    </row>
-    <row r="19" spans="1:48" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12">
+      <c r="AX18" s="13"/>
+      <c r="AY18" s="12"/>
+      <c r="AZ18" s="13"/>
+      <c r="BA18" s="16"/>
+    </row>
+    <row r="19" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="50"/>
+      <c r="C19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13"/>
+      <c r="E19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="20"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="AJ19" s="16"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="29"/>
-      <c r="AO19" s="29"/>
-      <c r="AQ19" s="12">
+      <c r="F19" s="13"/>
+      <c r="G19" s="16"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AQ19" s="24"/>
+      <c r="AR19" s="23"/>
+      <c r="AS19" s="23"/>
+      <c r="AU19" s="8">
         <v>4</v>
       </c>
-      <c r="AR19" s="16" t="s">
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AS19" s="17"/>
-      <c r="AT19" s="16"/>
-      <c r="AU19" s="17"/>
-      <c r="AV19" s="20"/>
-    </row>
-    <row r="20" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="AX19" s="13"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="13"/>
+      <c r="BA19" s="16"/>
+    </row>
+    <row r="20" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="50"/>
+      <c r="C20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="20"/>
-      <c r="H20" s="22"/>
-      <c r="N20" s="16"/>
-      <c r="AJ20" s="16"/>
-      <c r="AM20" s="22"/>
-      <c r="AQ20" s="12" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="O20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AQ20" s="17"/>
+      <c r="AU20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AR20" s="16"/>
-      <c r="AS20" s="17"/>
-      <c r="AT20" s="16" t="s">
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="12"/>
+      <c r="AX20" s="13"/>
+      <c r="AY20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AU20" s="17"/>
-      <c r="AV20" s="20"/>
-    </row>
-    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="AZ20" s="13"/>
+      <c r="BA20" s="16"/>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="50"/>
+      <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="20"/>
-      <c r="N21" s="16"/>
-      <c r="AJ21" s="16"/>
-      <c r="AQ21" s="12" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="16"/>
+      <c r="O21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AU21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AR21" s="16" t="s">
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AS21" s="17"/>
-      <c r="AT21" s="16"/>
-      <c r="AU21" s="17"/>
-      <c r="AV21" s="20"/>
-    </row>
-    <row r="22" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
+      <c r="AX21" s="13"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="13"/>
+      <c r="BA21" s="16"/>
+    </row>
+    <row r="22" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="10"/>
-      <c r="N22" s="16"/>
-      <c r="AJ22" s="16"/>
-      <c r="AQ22" s="13" t="s">
+      <c r="F22" s="15"/>
+      <c r="G22" s="6"/>
+      <c r="O22" s="12"/>
+      <c r="AN22" s="12"/>
+      <c r="AU22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AR22" s="18"/>
-      <c r="AS22" s="19"/>
-      <c r="AT22" s="18" t="s">
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="14"/>
+      <c r="AX22" s="15"/>
+      <c r="AY22" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AU22" s="19"/>
-      <c r="AV22" s="10"/>
-    </row>
-    <row r="23" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="AZ22" s="15"/>
+      <c r="BA22" s="6"/>
+    </row>
+    <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="N23" s="16"/>
-      <c r="AJ23" s="16"/>
-      <c r="AQ23" s="3" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="O23" s="12"/>
+      <c r="AN23" s="12"/>
+      <c r="AU23" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-    </row>
-    <row r="24" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N24" s="16"/>
-      <c r="AJ24" s="16"/>
-    </row>
-    <row r="25" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="AV23" s="19"/>
+      <c r="AW23" s="19"/>
+      <c r="AX23" s="19"/>
+      <c r="AY23" s="19"/>
+      <c r="AZ23" s="19"/>
+      <c r="BA23" s="19"/>
+    </row>
+    <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="12"/>
+      <c r="AN24" s="12"/>
+    </row>
+    <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="N25" s="16"/>
-      <c r="AJ25" s="16"/>
-      <c r="AQ25" s="3" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="O25" s="12"/>
+      <c r="AN25" s="12"/>
+      <c r="AU25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-    </row>
-    <row r="26" spans="1:48" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="4" t="s">
+      <c r="AV25" s="19"/>
+      <c r="AW25" s="19"/>
+      <c r="AX25" s="19"/>
+      <c r="AY25" s="19"/>
+      <c r="AZ25" s="19"/>
+      <c r="BA25" s="19"/>
+    </row>
+    <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="30"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="29"/>
-      <c r="AE26" s="29"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="29"/>
-      <c r="AH26" s="29"/>
-      <c r="AI26" s="31"/>
-      <c r="AQ26" s="4" t="s">
+      <c r="O26" s="24"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="AE26" s="23"/>
+      <c r="AF26" s="23"/>
+      <c r="AG26" s="23"/>
+      <c r="AH26" s="23"/>
+      <c r="AI26" s="23"/>
+      <c r="AJ26" s="23"/>
+      <c r="AK26" s="23"/>
+      <c r="AL26" s="23"/>
+      <c r="AM26" s="25"/>
+      <c r="AU26" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="AR26" s="4" t="s">
+      <c r="AV26" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW26" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AS26" s="4" t="s">
+      <c r="AX26" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AT26" s="4" t="s">
+      <c r="AY26" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="AU26" s="4" t="s">
+      <c r="AZ26" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="AV26" s="4" t="s">
+      <c r="BA26" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+    <row r="27" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>1</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="9"/>
-      <c r="N27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="5"/>
+      <c r="O27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
-      <c r="AJ27" s="16"/>
-      <c r="AQ27" s="11">
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="13"/>
+      <c r="AN27" s="12"/>
+      <c r="AU27" s="7">
         <v>1</v>
       </c>
-      <c r="AR27" s="14" t="s">
+      <c r="AV27" s="49"/>
+      <c r="AW27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AS27" s="15"/>
-      <c r="AT27" s="14" t="s">
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AU27" s="15"/>
-      <c r="AV27" s="9"/>
-    </row>
-    <row r="28" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12">
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="5"/>
+    </row>
+    <row r="28" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
         <v>2</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="20"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="3" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="16"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="41"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
       <c r="AA28" s="17"/>
-      <c r="AC28" s="3" t="s">
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="13"/>
+      <c r="AF28" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AJ28" s="16"/>
-      <c r="AQ28" s="12">
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AN28" s="12"/>
+      <c r="AU28" s="8">
         <v>2</v>
       </c>
-      <c r="AR28" s="16" t="s">
+      <c r="AV28" s="50"/>
+      <c r="AW28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AS28" s="17"/>
-      <c r="AT28" s="16" t="s">
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AU28" s="17"/>
-      <c r="AV28" s="20"/>
-    </row>
-    <row r="29" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12">
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="16"/>
+    </row>
+    <row r="29" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
         <v>3</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13"/>
+      <c r="E29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="20"/>
-      <c r="H29" s="22"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="4" t="s">
+      <c r="F29" s="13"/>
+      <c r="G29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="P29" s="4" t="s">
+      <c r="Q29" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="4" t="s">
+      <c r="S29" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="T29" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="U29" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="T29" s="4" t="s">
+      <c r="V29" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="V29" s="16"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
-      <c r="AC29" s="4" t="s">
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="13"/>
+      <c r="AF29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD29" s="4" t="s">
+      <c r="AG29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AE29" s="4" t="s">
+      <c r="AI29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AF29" s="4" t="s">
+      <c r="AJ29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AG29" s="4" t="s">
+      <c r="AK29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AH29" s="4" t="s">
+      <c r="AL29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AJ29" s="16"/>
-      <c r="AM29" s="22"/>
-      <c r="AQ29" s="12">
+      <c r="AN29" s="12"/>
+      <c r="AQ29" s="17"/>
+      <c r="AU29" s="8">
         <v>3</v>
       </c>
-      <c r="AR29" s="16" t="s">
+      <c r="AV29" s="50"/>
+      <c r="AW29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AS29" s="17"/>
-      <c r="AT29" s="16" t="s">
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AU29" s="17"/>
-      <c r="AV29" s="20"/>
-    </row>
-    <row r="30" spans="1:48" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="12">
+      <c r="AZ29" s="13"/>
+      <c r="BA29" s="16"/>
+    </row>
+    <row r="30" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="8">
         <v>4</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="50"/>
+      <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="20"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="11">
+      <c r="F30" s="13"/>
+      <c r="G30" s="16"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="7">
         <v>1</v>
       </c>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="9"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
+      <c r="Q30" s="45"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="44"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
       <c r="AA30" s="17"/>
-      <c r="AC30" s="11">
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="13"/>
+      <c r="AF30" s="7">
         <v>1</v>
       </c>
-      <c r="AD30" s="14"/>
-      <c r="AE30" s="15"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="15"/>
-      <c r="AH30" s="9"/>
-      <c r="AJ30" s="16"/>
-      <c r="AM30" s="29"/>
-      <c r="AN30" s="29"/>
-      <c r="AO30" s="29"/>
-      <c r="AQ30" s="12">
+      <c r="AG30" s="52"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="43"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="43"/>
+      <c r="AL30" s="44"/>
+      <c r="AN30" s="12"/>
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="23"/>
+      <c r="AS30" s="23"/>
+      <c r="AU30" s="8">
         <v>4</v>
       </c>
-      <c r="AR30" s="16" t="s">
+      <c r="AV30" s="50"/>
+      <c r="AW30" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AS30" s="17"/>
-      <c r="AT30" s="16" t="s">
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AU30" s="17"/>
-      <c r="AV30" s="20"/>
-    </row>
-    <row r="31" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="16"/>
+    </row>
+    <row r="31" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="50"/>
+      <c r="C31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="20"/>
-      <c r="H31" s="22"/>
-      <c r="K31" s="16"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="12">
+      <c r="F31" s="13"/>
+      <c r="G31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="L31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="8">
         <v>2</v>
       </c>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="20"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="13"/>
       <c r="V31" s="16"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
       <c r="AA31" s="17"/>
-      <c r="AC31" s="12">
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="13"/>
+      <c r="AF31" s="8">
         <v>2</v>
       </c>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="20"/>
-      <c r="AJ31" s="16"/>
-      <c r="AM31" s="14"/>
-      <c r="AN31" s="28"/>
-      <c r="AO31" s="28"/>
-      <c r="AQ31" s="12" t="s">
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="12"/>
+      <c r="AI31" s="13"/>
+      <c r="AJ31" s="12"/>
+      <c r="AK31" s="13"/>
+      <c r="AL31" s="16"/>
+      <c r="AN31" s="12"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="18"/>
+      <c r="AS31" s="18"/>
+      <c r="AU31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AR31" s="16" t="s">
+      <c r="AV31" s="50"/>
+      <c r="AW31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AS31" s="17"/>
-      <c r="AT31" s="16" t="s">
+      <c r="AX31" s="13"/>
+      <c r="AY31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AU31" s="17"/>
-      <c r="AV31" s="20"/>
-    </row>
-    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="AZ31" s="13"/>
+      <c r="BA31" s="16"/>
+    </row>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="50"/>
+      <c r="C32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="13"/>
+      <c r="E32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="20"/>
-      <c r="K32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="12">
+      <c r="F32" s="13"/>
+      <c r="G32" s="16"/>
+      <c r="L32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="8">
         <v>3</v>
       </c>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="20"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="13"/>
       <c r="V32" s="16"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
-      <c r="AC32" s="12">
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="13"/>
+      <c r="AF32" s="8">
         <v>3</v>
       </c>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="20"/>
-      <c r="AJ32" s="16"/>
-      <c r="AM32" s="16"/>
-      <c r="AN32" s="22"/>
-      <c r="AO32" s="22"/>
-      <c r="AQ32" s="12" t="s">
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="12"/>
+      <c r="AI32" s="13"/>
+      <c r="AJ32" s="12"/>
+      <c r="AK32" s="13"/>
+      <c r="AL32" s="16"/>
+      <c r="AN32" s="12"/>
+      <c r="AQ32" s="12"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="17"/>
+      <c r="AU32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AR32" s="16" t="s">
+      <c r="AV32" s="50"/>
+      <c r="AW32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AS32" s="17"/>
-      <c r="AT32" s="16" t="s">
+      <c r="AX32" s="13"/>
+      <c r="AY32" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AU32" s="17"/>
-      <c r="AV32" s="20"/>
-    </row>
-    <row r="33" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13" t="s">
+      <c r="AZ32" s="13"/>
+      <c r="BA32" s="16"/>
+    </row>
+    <row r="33" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="51"/>
+      <c r="C33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15"/>
+      <c r="E33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="10"/>
-      <c r="K33" s="16"/>
-      <c r="N33" s="16"/>
-      <c r="O33" s="12">
+      <c r="F33" s="15"/>
+      <c r="G33" s="6"/>
+      <c r="L33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="8">
         <v>4</v>
       </c>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="20"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="13"/>
       <c r="V33" s="16"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
       <c r="AA33" s="17"/>
-      <c r="AC33" s="12">
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="13"/>
+      <c r="AF33" s="8">
         <v>4</v>
       </c>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="20"/>
-      <c r="AJ33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="22"/>
-      <c r="AQ33" s="13" t="s">
+      <c r="AG33" s="56"/>
+      <c r="AH33" s="12"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="12"/>
+      <c r="AK33" s="13"/>
+      <c r="AL33" s="16"/>
+      <c r="AN33" s="12"/>
+      <c r="AQ33" s="12"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
+      <c r="AU33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AR33" s="18" t="s">
+      <c r="AV33" s="51"/>
+      <c r="AW33" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AS33" s="19"/>
-      <c r="AT33" s="18" t="s">
+      <c r="AX33" s="15"/>
+      <c r="AY33" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AU33" s="19"/>
-      <c r="AV33" s="10"/>
-    </row>
-    <row r="34" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="AZ33" s="15"/>
+      <c r="BA33" s="6"/>
+    </row>
+    <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="K34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="12" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="L34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="20"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="13"/>
       <c r="V34" s="16"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
-      <c r="AC34" s="12" t="s">
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="13"/>
+      <c r="AF34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="17"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="17"/>
-      <c r="AH34" s="20"/>
-      <c r="AJ34" s="16"/>
-      <c r="AM34" s="16"/>
-      <c r="AN34" s="22"/>
-      <c r="AO34" s="22"/>
-      <c r="AQ34" s="3" t="s">
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="12"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="12"/>
+      <c r="AK34" s="13"/>
+      <c r="AL34" s="16"/>
+      <c r="AN34" s="12"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
+      <c r="AU34" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-    </row>
-    <row r="35" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="12" t="s">
+      <c r="AV34" s="19"/>
+      <c r="AW34" s="19"/>
+      <c r="AX34" s="19"/>
+      <c r="AY34" s="19"/>
+      <c r="AZ34" s="19"/>
+      <c r="BA34" s="19"/>
+    </row>
+    <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="20"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="13"/>
       <c r="V35" s="16"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
-      <c r="AC35" s="12" t="s">
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="13"/>
+      <c r="AF35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="17"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="17"/>
-      <c r="AH35" s="20"/>
-      <c r="AJ35" s="16"/>
-      <c r="AM35" s="16"/>
-      <c r="AN35" s="22"/>
-      <c r="AO35" s="22"/>
-    </row>
-    <row r="36" spans="1:48" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="3" t="s">
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="12"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="12"/>
+      <c r="AK35" s="13"/>
+      <c r="AL35" s="16"/>
+      <c r="AN35" s="12"/>
+      <c r="AQ35" s="12"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
+    </row>
+    <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="29"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="13" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="10"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="13"/>
       <c r="V36" s="16"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
       <c r="AA36" s="17"/>
-      <c r="AC36" s="13" t="s">
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="13"/>
+      <c r="AF36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AD36" s="18"/>
-      <c r="AE36" s="19"/>
-      <c r="AF36" s="18"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="10"/>
-      <c r="AJ36" s="30"/>
-      <c r="AK36" s="29"/>
-      <c r="AL36" s="29"/>
-      <c r="AM36" s="16"/>
-      <c r="AN36" s="22"/>
-      <c r="AO36" s="22"/>
-      <c r="AQ36" s="3" t="s">
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="58"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="60"/>
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="23"/>
+      <c r="AP36" s="23"/>
+      <c r="AQ36" s="12"/>
+      <c r="AR36" s="17"/>
+      <c r="AS36" s="17"/>
+      <c r="AU36" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="AR36" s="3"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
-      <c r="AU36" s="3"/>
-      <c r="AV36" s="3"/>
-    </row>
-    <row r="37" spans="1:48" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
+      <c r="AV36" s="19"/>
+      <c r="AW36" s="19"/>
+      <c r="AX36" s="19"/>
+      <c r="AY36" s="19"/>
+      <c r="AZ36" s="19"/>
+      <c r="BA36" s="19"/>
+    </row>
+    <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="G37" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K37" s="16"/>
-      <c r="O37" s="3" t="s">
+      <c r="L37" s="12"/>
+      <c r="P37" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="29"/>
-      <c r="X37" s="29"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="29"/>
-      <c r="AA37" s="31"/>
-      <c r="AC37" s="3" t="s">
+      <c r="Q37" s="47"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="47"/>
+      <c r="T37" s="47"/>
+      <c r="U37" s="47"/>
+      <c r="V37" s="48"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="23"/>
+      <c r="Z37" s="23"/>
+      <c r="AA37" s="23"/>
+      <c r="AB37" s="23"/>
+      <c r="AC37" s="23"/>
+      <c r="AD37" s="25"/>
+      <c r="AF37" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AM37" s="16"/>
-      <c r="AN37" s="22"/>
-      <c r="AO37" s="22"/>
-      <c r="AQ37" s="4" t="s">
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="19"/>
+      <c r="AQ37" s="12"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
+      <c r="AU37" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AR37" s="4" t="s">
+      <c r="AV37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AS37" s="4" t="s">
+      <c r="AX37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AT37" s="4" t="s">
+      <c r="AY37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AU37" s="4" t="s">
+      <c r="AZ37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AV37" s="4" t="s">
+      <c r="BA37" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
+    <row r="38" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
         <v>1</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="9"/>
-      <c r="K38" s="16"/>
-      <c r="AM38" s="16"/>
-      <c r="AN38" s="22"/>
-      <c r="AO38" s="22"/>
-      <c r="AQ38" s="11">
+      <c r="F38" s="11"/>
+      <c r="G38" s="5"/>
+      <c r="L38" s="12"/>
+      <c r="AQ38" s="12"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="17"/>
+      <c r="AU38" s="7">
         <v>1</v>
       </c>
-      <c r="AR38" s="14"/>
-      <c r="AS38" s="15"/>
-      <c r="AT38" s="14" t="s">
+      <c r="AV38" s="49"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="11"/>
+      <c r="AY38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AU38" s="15"/>
-      <c r="AV38" s="9"/>
-    </row>
-    <row r="39" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12">
+      <c r="AZ38" s="11"/>
+      <c r="BA38" s="5"/>
+    </row>
+    <row r="39" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
         <v>2</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="50"/>
+      <c r="C39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13"/>
+      <c r="E39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="20"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="3" t="s">
+      <c r="F39" s="13"/>
+      <c r="G39" s="16"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="V39" s="3" t="s">
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="41"/>
+      <c r="X39" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AF39" s="3" t="s">
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AI39" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AM39" s="16"/>
-      <c r="AN39" s="22"/>
-      <c r="AO39" s="22"/>
-      <c r="AQ39" s="12">
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="19"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="19"/>
+      <c r="AQ39" s="12"/>
+      <c r="AR39" s="17"/>
+      <c r="AS39" s="17"/>
+      <c r="AU39" s="8">
         <v>2</v>
       </c>
-      <c r="AR39" s="16"/>
-      <c r="AS39" s="17"/>
-      <c r="AT39" s="16" t="s">
+      <c r="AV39" s="50"/>
+      <c r="AW39" s="12"/>
+      <c r="AX39" s="13"/>
+      <c r="AY39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AU39" s="17"/>
-      <c r="AV39" s="20"/>
-    </row>
-    <row r="40" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12">
+      <c r="AZ39" s="13"/>
+      <c r="BA39" s="16"/>
+    </row>
+    <row r="40" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
         <v>3</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="50"/>
+      <c r="C40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13"/>
+      <c r="E40" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="20"/>
-      <c r="H40" s="22"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="4" t="s">
+      <c r="F40" s="13"/>
+      <c r="G40" s="16"/>
+      <c r="I40" s="17"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="M40" s="4" t="s">
+      <c r="N40" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="O40" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="N40" s="4" t="s">
+      <c r="P40" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="O40" s="4" t="s">
+      <c r="Q40" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="P40" s="4" t="s">
+      <c r="R40" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="Q40" s="4" t="s">
+      <c r="S40" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="V40" s="4" t="s">
+      <c r="X40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="W40" s="4" t="s">
+      <c r="Y40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="X40" s="4" t="s">
+      <c r="AA40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y40" s="4" t="s">
+      <c r="AB40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z40" s="4" t="s">
+      <c r="AC40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AA40" s="4" t="s">
+      <c r="AD40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AF40" s="4" t="s">
+      <c r="AI40" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG40" s="4" t="s">
+      <c r="AJ40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AH40" s="4" t="s">
+      <c r="AL40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AI40" s="4" t="s">
+      <c r="AM40" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AJ40" s="4" t="s">
+      <c r="AN40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AK40" s="4" t="s">
+      <c r="AO40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AM40" s="16"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-      <c r="AQ40" s="12">
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="17"/>
+      <c r="AS40" s="17"/>
+      <c r="AU40" s="8">
         <v>3</v>
       </c>
-      <c r="AR40" s="16" t="s">
+      <c r="AV40" s="50"/>
+      <c r="AW40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AS40" s="17"/>
-      <c r="AT40" s="16"/>
-      <c r="AU40" s="17"/>
-      <c r="AV40" s="20"/>
-    </row>
-    <row r="41" spans="1:48" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="12">
+      <c r="AX40" s="13"/>
+      <c r="AY40" s="12"/>
+      <c r="AZ40" s="13"/>
+      <c r="BA40" s="16"/>
+    </row>
+    <row r="41" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="8">
         <v>4</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="50"/>
+      <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="13"/>
+      <c r="E41" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="20"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="11">
+      <c r="F41" s="13"/>
+      <c r="G41" s="16"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="7">
         <v>1</v>
       </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="9"/>
-      <c r="V41" s="11">
+      <c r="N41" s="45"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="44"/>
+      <c r="X41" s="7">
         <v>1</v>
       </c>
-      <c r="W41" s="14"/>
-      <c r="X41" s="15"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="15"/>
-      <c r="AA41" s="9"/>
-      <c r="AF41" s="11">
+      <c r="Y41" s="52"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="42"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="44"/>
+      <c r="AI41" s="7">
         <v>1</v>
       </c>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="15"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="15"/>
-      <c r="AK41" s="9"/>
-      <c r="AM41" s="30"/>
-      <c r="AN41" s="29"/>
-      <c r="AO41" s="29"/>
-      <c r="AQ41" s="12">
+      <c r="AJ41" s="49"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="11"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="5"/>
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="23"/>
+      <c r="AS41" s="23"/>
+      <c r="AU41" s="8">
         <v>4</v>
       </c>
-      <c r="AR41" s="16" t="s">
+      <c r="AV41" s="50"/>
+      <c r="AW41" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AS41" s="17"/>
-      <c r="AT41" s="16"/>
-      <c r="AU41" s="17"/>
-      <c r="AV41" s="20"/>
-    </row>
-    <row r="42" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="AX41" s="13"/>
+      <c r="AY41" s="12"/>
+      <c r="AZ41" s="13"/>
+      <c r="BA41" s="16"/>
+    </row>
+    <row r="42" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="50"/>
+      <c r="C42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13"/>
+      <c r="E42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="20"/>
-      <c r="H42" s="22"/>
-      <c r="L42" s="12">
+      <c r="F42" s="13"/>
+      <c r="G42" s="16"/>
+      <c r="I42" s="17"/>
+      <c r="M42" s="8">
         <v>2</v>
       </c>
-      <c r="M42" s="16"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="20"/>
-      <c r="V42" s="12">
+      <c r="N42" s="37"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="16"/>
+      <c r="X42" s="8">
         <v>2</v>
       </c>
-      <c r="W42" s="16"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="16"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="20"/>
-      <c r="AF42" s="12">
+      <c r="Y42" s="50"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="16"/>
+      <c r="AI42" s="8">
         <v>2</v>
       </c>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="16"/>
-      <c r="AJ42" s="17"/>
-      <c r="AK42" s="20"/>
-      <c r="AQ42" s="12" t="s">
+      <c r="AJ42" s="50"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="13"/>
+      <c r="AM42" s="12"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="16"/>
+      <c r="AU42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AR42" s="16"/>
-      <c r="AS42" s="17"/>
-      <c r="AT42" s="16" t="s">
+      <c r="AV42" s="50"/>
+      <c r="AW42" s="12"/>
+      <c r="AX42" s="13"/>
+      <c r="AY42" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AU42" s="17"/>
-      <c r="AV42" s="20"/>
-    </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="AZ42" s="13"/>
+      <c r="BA42" s="16"/>
+    </row>
+    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="50"/>
+      <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13"/>
+      <c r="E43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="20"/>
-      <c r="L43" s="12">
+      <c r="F43" s="13"/>
+      <c r="G43" s="16"/>
+      <c r="M43" s="8">
         <v>3</v>
       </c>
-      <c r="M43" s="16"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="20"/>
-      <c r="V43" s="12">
+      <c r="N43" s="37"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="16"/>
+      <c r="X43" s="8">
         <v>3</v>
       </c>
-      <c r="W43" s="16"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="16"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="20"/>
-      <c r="AF43" s="12">
+      <c r="Y43" s="50"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="16"/>
+      <c r="AI43" s="8">
         <v>3</v>
       </c>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="17"/>
-      <c r="AI43" s="16"/>
-      <c r="AJ43" s="17"/>
-      <c r="AK43" s="20"/>
-      <c r="AQ43" s="12" t="s">
+      <c r="AJ43" s="50"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="13"/>
+      <c r="AM43" s="12"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="16"/>
+      <c r="AU43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AR43" s="16"/>
-      <c r="AS43" s="17"/>
-      <c r="AT43" s="16"/>
-      <c r="AU43" s="17"/>
-      <c r="AV43" s="20"/>
-    </row>
-    <row r="44" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13" t="s">
+      <c r="AV43" s="50"/>
+      <c r="AW43" s="12"/>
+      <c r="AX43" s="13"/>
+      <c r="AY43" s="12"/>
+      <c r="AZ43" s="13"/>
+      <c r="BA43" s="16"/>
+    </row>
+    <row r="44" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="51"/>
+      <c r="C44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="15"/>
+      <c r="E44" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="19"/>
-      <c r="F44" s="10"/>
-      <c r="L44" s="12">
+      <c r="F44" s="15"/>
+      <c r="G44" s="6"/>
+      <c r="M44" s="8">
         <v>4</v>
       </c>
-      <c r="M44" s="16"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="20"/>
-      <c r="V44" s="12">
+      <c r="N44" s="37"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="16"/>
+      <c r="X44" s="8">
         <v>4</v>
       </c>
-      <c r="W44" s="16"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="16"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="20"/>
-      <c r="AF44" s="12">
+      <c r="Y44" s="50"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="16"/>
+      <c r="AI44" s="8">
         <v>4</v>
       </c>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="17"/>
-      <c r="AI44" s="16"/>
-      <c r="AJ44" s="17"/>
-      <c r="AK44" s="20"/>
-      <c r="AQ44" s="13" t="s">
+      <c r="AJ44" s="56"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="13"/>
+      <c r="AM44" s="12"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="16"/>
+      <c r="AU44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AR44" s="18"/>
-      <c r="AS44" s="19"/>
-      <c r="AT44" s="18" t="s">
+      <c r="AV44" s="51"/>
+      <c r="AW44" s="14"/>
+      <c r="AX44" s="15"/>
+      <c r="AY44" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AU44" s="19"/>
-      <c r="AV44" s="10"/>
-    </row>
-    <row r="45" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="AZ44" s="15"/>
+      <c r="BA44" s="6"/>
+    </row>
+    <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="L45" s="12" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
+      <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M45" s="16"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="20"/>
-      <c r="V45" s="12" t="s">
+      <c r="N45" s="37"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="16"/>
+      <c r="X45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="W45" s="16"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="16"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="20"/>
-      <c r="AF45" s="12" t="s">
+      <c r="Y45" s="50"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="13"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="13"/>
+      <c r="AD45" s="16"/>
+      <c r="AI45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="17"/>
-      <c r="AI45" s="16"/>
-      <c r="AJ45" s="17"/>
-      <c r="AK45" s="20"/>
-      <c r="AQ45" s="3" t="s">
+      <c r="AJ45" s="50"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="13"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="16"/>
+      <c r="AU45" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AR45" s="3"/>
-      <c r="AS45" s="3"/>
-      <c r="AT45" s="3"/>
-      <c r="AU45" s="3"/>
-      <c r="AV45" s="3"/>
-    </row>
-    <row r="46" spans="1:48" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L46" s="12" t="s">
+      <c r="AV45" s="19"/>
+      <c r="AW45" s="19"/>
+      <c r="AX45" s="19"/>
+      <c r="AY45" s="19"/>
+      <c r="AZ45" s="19"/>
+      <c r="BA45" s="19"/>
+    </row>
+    <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M46" s="16"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="20"/>
-      <c r="V46" s="12" t="s">
+      <c r="N46" s="37"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="16"/>
+      <c r="X46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="W46" s="16"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="16"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="20"/>
-      <c r="AF46" s="12" t="s">
+      <c r="Y46" s="50"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="13"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="16"/>
+      <c r="AI46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="17"/>
-      <c r="AI46" s="16"/>
-      <c r="AJ46" s="17"/>
-      <c r="AK46" s="20"/>
-    </row>
-    <row r="47" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L47" s="13" t="s">
+      <c r="AJ46" s="50"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="13"/>
+      <c r="AM46" s="12"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="16"/>
+    </row>
+    <row r="47" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M47" s="18"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="19"/>
-      <c r="Q47" s="10"/>
-      <c r="V47" s="13" t="s">
+      <c r="N47" s="37"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="16"/>
+      <c r="X47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="W47" s="18"/>
-      <c r="X47" s="19"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="19"/>
-      <c r="AA47" s="10"/>
-      <c r="AF47" s="13" t="s">
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="6"/>
+      <c r="AI47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AG47" s="18"/>
-      <c r="AH47" s="19"/>
-      <c r="AI47" s="18"/>
-      <c r="AJ47" s="19"/>
-      <c r="AK47" s="10"/>
-    </row>
-    <row r="48" spans="1:48" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L48" s="3" t="s">
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="14"/>
+      <c r="AL47" s="15"/>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="15"/>
+      <c r="AO47" s="6"/>
+    </row>
+    <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M48" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="V48" s="3" t="s">
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="41"/>
+      <c r="X48" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AF48" s="3" t="s">
+      <c r="Y48" s="19"/>
+      <c r="Z48" s="19"/>
+      <c r="AA48" s="19"/>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
+      <c r="AI48" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
+      <c r="AJ48" s="19"/>
+      <c r="AK48" s="19"/>
+      <c r="AL48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AN48" s="19"/>
+      <c r="AO48" s="19"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AQ34:AV34"/>
-    <mergeCell ref="AQ36:AV36"/>
-    <mergeCell ref="AQ45:AV45"/>
-    <mergeCell ref="AC28:AH28"/>
-    <mergeCell ref="AC37:AH37"/>
-    <mergeCell ref="AQ2:AV2"/>
-    <mergeCell ref="AQ3:AV3"/>
-    <mergeCell ref="AQ12:AV12"/>
-    <mergeCell ref="AQ14:AV14"/>
-    <mergeCell ref="AQ23:AV23"/>
-    <mergeCell ref="AQ25:AV25"/>
-    <mergeCell ref="AF48:AK48"/>
-    <mergeCell ref="AJ14:AL14"/>
-    <mergeCell ref="AJ36:AL36"/>
-    <mergeCell ref="AM8:AO8"/>
-    <mergeCell ref="AM19:AO19"/>
-    <mergeCell ref="AM30:AO30"/>
-    <mergeCell ref="AM41:AO41"/>
-    <mergeCell ref="V37:AA37"/>
-    <mergeCell ref="AB26:AI26"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="V39:AA39"/>
-    <mergeCell ref="V48:AA48"/>
-    <mergeCell ref="AC1:AV1"/>
-    <mergeCell ref="AF2:AK2"/>
-    <mergeCell ref="AF3:AK3"/>
-    <mergeCell ref="AF12:AK12"/>
-    <mergeCell ref="AF39:AK39"/>
-    <mergeCell ref="O28:T28"/>
-    <mergeCell ref="O37:T37"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="N26:U26"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="L2:Q2"/>
-    <mergeCell ref="L4:Q4"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="L39:Q39"/>
-    <mergeCell ref="L48:Q48"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2859,91 +3157,91 @@
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B11 D5:D11 H8:J8</xm:sqref>
+          <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
-          <xm:sqref>B16:B22 D16:D22 H19:J19</xm:sqref>
+          <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
-          <xm:sqref>B27:B33 D27:D33 H30:J30</xm:sqref>
+          <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
-          <xm:sqref>B38:B44 D38:D44 H41:J41</xm:sqref>
+          <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>K14:M14 M6:M12 O6:O12</xm:sqref>
+          <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>K36:M36 M41:M47 O41:O47</xm:sqref>
+          <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
-          <xm:sqref>R30:R36 P30:P36 N26</xm:sqref>
+          <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AB26:AI26 AD30:AD36 AF30:AF36</xm:sqref>
+          <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
-          <xm:sqref>V37:AA37 W41:W47 Y41:Y47</xm:sqref>
+          <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AR5:AR11 AT5:AT11 AM8:AO8</xm:sqref>
+          <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>AR16:AR22 AT16:AT22 AM19:AO19</xm:sqref>
+          <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
-          <xm:sqref>AR27:AR33 AT27:AT33 AM30:AO30</xm:sqref>
+          <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
-          <xm:sqref>AR38:AR44 AT38:AT44 AM41:AO41</xm:sqref>
+          <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ14:AL14 AG5:AG11 AI5:AI11</xm:sqref>
+          <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>
-          <xm:sqref>AJ36:AL36 AG41:AG47 AI41:AI47</xm:sqref>
+          <xm:sqref>AN36:AP36 AK41:AK47 AM41:AM47</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2955,7 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -3045,178 +3343,178 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="29"/>
+      <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7" t="s">
+      <c r="D13" s="31"/>
+      <c r="E13" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="10"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="31"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3284,16 +3582,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -12,8 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Bracket" sheetId="2" r:id="rId1"/>
-    <sheet name="Matchups" sheetId="3" r:id="rId2"/>
+    <sheet name="Matchups" sheetId="3" r:id="rId1"/>
+    <sheet name="Bracket" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="51">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -185,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -487,73 +487,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,8 +517,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,41 +580,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,16 +893,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="60"/>
+      <c r="G11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="59"/>
+      <c r="E13" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="59"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="59"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="59"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="L46" s="2"/>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G51" s="2"/>
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="L55" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AU26" sqref="AU26:BA26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="20" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
@@ -930,138 +1257,139 @@
     <col min="39" max="39" width="22.140625" style="1" customWidth="1"/>
     <col min="40" max="40" width="9.140625" style="1"/>
     <col min="41" max="41" width="22.140625" style="1" customWidth="1"/>
-    <col min="42" max="48" width="9.140625" style="1"/>
-    <col min="49" max="49" width="21.28515625" style="1" customWidth="1"/>
+    <col min="42" max="47" width="9.140625" style="1"/>
+    <col min="48" max="48" width="10.28515625" style="1" customWidth="1"/>
+    <col min="49" max="49" width="23.140625" style="1" customWidth="1"/>
     <col min="50" max="50" width="9.140625" style="1"/>
-    <col min="51" max="51" width="20.42578125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="23.140625" style="1" customWidth="1"/>
     <col min="52" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="28"/>
-      <c r="Z1" s="26" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="52"/>
+      <c r="Z1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="27"/>
-      <c r="AB1" s="28"/>
-      <c r="AF1" s="26" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AF1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="27"/>
-      <c r="AH1" s="27"/>
-      <c r="AI1" s="27"/>
-      <c r="AJ1" s="27"/>
-      <c r="AK1" s="27"/>
-      <c r="AL1" s="27"/>
-      <c r="AM1" s="27"/>
-      <c r="AN1" s="27"/>
-      <c r="AO1" s="27"/>
-      <c r="AP1" s="27"/>
-      <c r="AQ1" s="27"/>
-      <c r="AR1" s="27"/>
-      <c r="AS1" s="27"/>
-      <c r="AT1" s="27"/>
-      <c r="AU1" s="27"/>
-      <c r="AV1" s="27"/>
-      <c r="AW1" s="27"/>
-      <c r="AX1" s="27"/>
-      <c r="AY1" s="27"/>
-      <c r="AZ1" s="27"/>
-      <c r="BA1" s="28"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="52"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="22"/>
-      <c r="M2" s="20" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="M2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="AI2" s="20" t="s">
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
+      <c r="AI2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="21"/>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="22"/>
-      <c r="AU2" s="20" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="56"/>
+      <c r="AU2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="21"/>
-      <c r="AX2" s="21"/>
-      <c r="AY2" s="21"/>
-      <c r="AZ2" s="21"/>
-      <c r="BA2" s="22"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="56"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="AI3" s="19" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="AI3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="19"/>
-      <c r="AK3" s="19"/>
-      <c r="AL3" s="19"/>
-      <c r="AM3" s="19"/>
-      <c r="AN3" s="19"/>
-      <c r="AO3" s="19"/>
-      <c r="AU3" s="19" t="s">
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AU3" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="19"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="19"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1079,15 +1407,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="41"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1135,7 +1463,9 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="49"/>
+      <c r="B5" s="30">
+        <v>45403</v>
+      </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
@@ -1145,31 +1475,31 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="5"/>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="38" t="s">
+      <c r="N5" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="38" t="s">
+      <c r="O5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="38" t="s">
+      <c r="P5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="38" t="s">
+      <c r="Q5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="38" t="s">
+      <c r="R5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="25" t="s">
         <v>25</v>
       </c>
       <c r="AI5" s="7">
         <v>1</v>
       </c>
-      <c r="AJ5" s="49"/>
+      <c r="AJ5" s="30"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="10"/>
@@ -1178,8 +1508,12 @@
       <c r="AU5" s="7">
         <v>1</v>
       </c>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="10"/>
+      <c r="AV5" s="30">
+        <v>45403</v>
+      </c>
+      <c r="AW5" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="AX5" s="11"/>
       <c r="AY5" s="10" t="s">
         <v>13</v>
@@ -1191,7 +1525,9 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="50"/>
+      <c r="B6" s="31">
+        <v>45405</v>
+      </c>
       <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1540,7 @@
       <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="36"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="10"/>
@@ -1213,7 +1549,7 @@
       <c r="AI6" s="8">
         <v>2</v>
       </c>
-      <c r="AJ6" s="50"/>
+      <c r="AJ6" s="31"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="13"/>
       <c r="AM6" s="12"/>
@@ -1222,8 +1558,12 @@
       <c r="AU6" s="8">
         <v>2</v>
       </c>
-      <c r="AV6" s="50"/>
-      <c r="AW6" s="12"/>
+      <c r="AV6" s="31">
+        <v>45405</v>
+      </c>
+      <c r="AW6" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="AX6" s="13"/>
       <c r="AY6" s="12" t="s">
         <v>13</v>
@@ -1235,7 +1575,9 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
+      <c r="B7" s="31">
+        <v>45408</v>
+      </c>
       <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1591,7 @@
       <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="37"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="12"/>
@@ -1258,7 +1600,7 @@
       <c r="AI7" s="8">
         <v>3</v>
       </c>
-      <c r="AJ7" s="50"/>
+      <c r="AJ7" s="31"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="12"/>
@@ -1267,12 +1609,16 @@
       <c r="AU7" s="8">
         <v>3</v>
       </c>
-      <c r="AV7" s="50"/>
+      <c r="AV7" s="31">
+        <v>45408</v>
+      </c>
       <c r="AW7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="AX7" s="13"/>
-      <c r="AY7" s="12"/>
+      <c r="AY7" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="AZ7" s="13"/>
       <c r="BA7" s="16"/>
     </row>
@@ -1280,7 +1626,9 @@
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="50"/>
+      <c r="B8" s="31">
+        <v>45410</v>
+      </c>
       <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
@@ -1290,13 +1638,13 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="N8" s="37"/>
+      <c r="N8" s="24"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="12"/>
@@ -1305,24 +1653,28 @@
       <c r="AI8" s="8">
         <v>4</v>
       </c>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="54"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="54"/>
-      <c r="AO8" s="55"/>
-      <c r="AQ8" s="23"/>
-      <c r="AR8" s="23"/>
-      <c r="AS8" s="23"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="36"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="42"/>
+      <c r="AS8" s="42"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
-      <c r="AV8" s="50"/>
+      <c r="AV8" s="31">
+        <v>45410</v>
+      </c>
       <c r="AW8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="AX8" s="13"/>
-      <c r="AY8" s="12"/>
+      <c r="AY8" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="AZ8" s="13"/>
       <c r="BA8" s="16"/>
     </row>
@@ -1330,7 +1682,7 @@
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="50"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -1345,7 +1697,7 @@
       <c r="M9" s="8">
         <v>4</v>
       </c>
-      <c r="N9" s="37"/>
+      <c r="N9" s="24"/>
       <c r="O9" s="12"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="12"/>
@@ -1354,7 +1706,7 @@
       <c r="AI9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ9" s="50"/>
+      <c r="AJ9" s="31"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="13"/>
       <c r="AM9" s="12"/>
@@ -1366,8 +1718,10 @@
       <c r="AU9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="12"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="AX9" s="13"/>
       <c r="AY9" s="12" t="s">
         <v>13</v>
@@ -1379,7 +1733,7 @@
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="50"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1747,7 @@
       <c r="M10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="37"/>
+      <c r="N10" s="24"/>
       <c r="O10" s="12"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="12"/>
@@ -1402,7 +1756,7 @@
       <c r="AI10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ10" s="50"/>
+      <c r="AJ10" s="31"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="13"/>
       <c r="AM10" s="12"/>
@@ -1414,12 +1768,14 @@
       <c r="AU10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV10" s="50"/>
+      <c r="AV10" s="31"/>
       <c r="AW10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="AX10" s="13"/>
-      <c r="AY10" s="12"/>
+      <c r="AY10" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="AZ10" s="13"/>
       <c r="BA10" s="16"/>
     </row>
@@ -1427,7 +1783,7 @@
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -1441,7 +1797,7 @@
       <c r="M11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="37"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="12"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="12"/>
@@ -1450,7 +1806,7 @@
       <c r="AI11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ11" s="51"/>
+      <c r="AJ11" s="32"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="15"/>
       <c r="AM11" s="14"/>
@@ -1462,8 +1818,10 @@
       <c r="AU11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV11" s="51"/>
-      <c r="AW11" s="14"/>
+      <c r="AV11" s="32"/>
+      <c r="AW11" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AX11" s="15"/>
       <c r="AY11" s="14" t="s">
         <v>13</v>
@@ -1472,96 +1830,96 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="37"/>
+      <c r="N12" s="24"/>
       <c r="O12" s="12"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="19" t="s">
+      <c r="AI12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="19"/>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="19"/>
-      <c r="AO12" s="19"/>
+      <c r="AJ12" s="43"/>
+      <c r="AK12" s="43"/>
+      <c r="AL12" s="43"/>
+      <c r="AM12" s="43"/>
+      <c r="AN12" s="43"/>
+      <c r="AO12" s="43"/>
       <c r="AQ12" s="12"/>
       <c r="AR12" s="17"/>
       <c r="AS12" s="17"/>
-      <c r="AU12" s="19" t="s">
+      <c r="AU12" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="19"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="19"/>
-      <c r="BA12" s="19"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="43"/>
+      <c r="AX12" s="43"/>
+      <c r="AY12" s="43"/>
+      <c r="AZ12" s="43"/>
+      <c r="BA12" s="43"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
       <c r="AR13" s="17"/>
       <c r="AS13" s="17"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="AN14" s="23"/>
-      <c r="AO14" s="23"/>
-      <c r="AP14" s="23"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+      <c r="AP14" s="42"/>
       <c r="AQ14" s="12"/>
       <c r="AR14" s="17"/>
       <c r="AS14" s="17"/>
-      <c r="AU14" s="19" t="s">
+      <c r="AU14" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="19"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="19"/>
-      <c r="BA14" s="19"/>
+      <c r="AV14" s="43"/>
+      <c r="AW14" s="43"/>
+      <c r="AX14" s="43"/>
+      <c r="AY14" s="43"/>
+      <c r="AZ14" s="43"/>
+      <c r="BA14" s="43"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1611,7 +1969,9 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="30">
+        <v>45402</v>
+      </c>
       <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
@@ -1630,8 +1990,12 @@
       <c r="AU16" s="7">
         <v>1</v>
       </c>
-      <c r="AV16" s="49"/>
-      <c r="AW16" s="10"/>
+      <c r="AV16" s="30">
+        <v>45404</v>
+      </c>
+      <c r="AW16" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="AX16" s="11"/>
       <c r="AY16" s="10" t="s">
         <v>7</v>
@@ -1643,7 +2007,9 @@
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="50"/>
+      <c r="B17" s="31">
+        <v>45404</v>
+      </c>
       <c r="C17" s="12" t="s">
         <v>8</v>
       </c>
@@ -1662,8 +2028,12 @@
       <c r="AU17" s="8">
         <v>2</v>
       </c>
-      <c r="AV17" s="50"/>
-      <c r="AW17" s="12"/>
+      <c r="AV17" s="31">
+        <v>45406</v>
+      </c>
+      <c r="AW17" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="AX17" s="13"/>
       <c r="AY17" s="12" t="s">
         <v>7</v>
@@ -1675,7 +2045,9 @@
       <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="50"/>
+      <c r="B18" s="31">
+        <v>45407</v>
+      </c>
       <c r="C18" s="12" t="s">
         <v>4</v>
       </c>
@@ -1695,12 +2067,16 @@
       <c r="AU18" s="8">
         <v>3</v>
       </c>
-      <c r="AV18" s="50"/>
+      <c r="AV18" s="31">
+        <v>45408</v>
+      </c>
       <c r="AW18" s="12" t="s">
         <v>7</v>
       </c>
       <c r="AX18" s="13"/>
-      <c r="AY18" s="12"/>
+      <c r="AY18" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="AZ18" s="13"/>
       <c r="BA18" s="16"/>
     </row>
@@ -1708,7 +2084,9 @@
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="50"/>
+      <c r="B19" s="31">
+        <v>45409</v>
+      </c>
       <c r="C19" s="12" t="s">
         <v>4</v>
       </c>
@@ -1718,24 +2096,28 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="23"/>
-      <c r="AS19" s="23"/>
+      <c r="AQ19" s="53"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
-      <c r="AV19" s="50"/>
+      <c r="AV19" s="31">
+        <v>45410</v>
+      </c>
       <c r="AW19" s="12" t="s">
         <v>7</v>
       </c>
       <c r="AX19" s="13"/>
-      <c r="AY19" s="12"/>
+      <c r="AY19" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="AZ19" s="13"/>
       <c r="BA19" s="16"/>
     </row>
@@ -1743,7 +2125,7 @@
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="50"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="12" t="s">
         <v>8</v>
       </c>
@@ -1760,8 +2142,10 @@
       <c r="AU20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV20" s="50"/>
-      <c r="AW20" s="12"/>
+      <c r="AV20" s="31"/>
+      <c r="AW20" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="AX20" s="13"/>
       <c r="AY20" s="12" t="s">
         <v>7</v>
@@ -1773,7 +2157,7 @@
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
@@ -1788,12 +2172,14 @@
       <c r="AU21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV21" s="50"/>
+      <c r="AV21" s="31"/>
       <c r="AW21" s="12" t="s">
         <v>7</v>
       </c>
       <c r="AX21" s="13"/>
-      <c r="AY21" s="12"/>
+      <c r="AY21" s="12" t="s">
+        <v>9</v>
+      </c>
       <c r="AZ21" s="13"/>
       <c r="BA21" s="16"/>
     </row>
@@ -1801,7 +2187,7 @@
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="51"/>
+      <c r="B22" s="32"/>
       <c r="C22" s="14" t="s">
         <v>8</v>
       </c>
@@ -1816,8 +2202,10 @@
       <c r="AU22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="14"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="AX22" s="15"/>
       <c r="AY22" s="14" t="s">
         <v>7</v>
@@ -1826,112 +2214,112 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="19" t="s">
+      <c r="AU23" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="19"/>
-      <c r="AW23" s="19"/>
-      <c r="AX23" s="19"/>
-      <c r="AY23" s="19"/>
-      <c r="AZ23" s="19"/>
-      <c r="BA23" s="19"/>
+      <c r="AV23" s="43"/>
+      <c r="AW23" s="43"/>
+      <c r="AX23" s="43"/>
+      <c r="AY23" s="43"/>
+      <c r="AZ23" s="43"/>
+      <c r="BA23" s="43"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="19" t="s">
+      <c r="AU25" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="19"/>
-      <c r="AW25" s="19"/>
-      <c r="AX25" s="19"/>
-      <c r="AY25" s="19"/>
-      <c r="AZ25" s="19"/>
-      <c r="BA25" s="19"/>
+      <c r="AV25" s="43"/>
+      <c r="AW25" s="43"/>
+      <c r="AX25" s="43"/>
+      <c r="AY25" s="43"/>
+      <c r="AZ25" s="43"/>
+      <c r="BA25" s="43"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="34" t="s">
+      <c r="E26" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="34" t="s">
+      <c r="F26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="24"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="23"/>
-      <c r="AI26" s="23"/>
-      <c r="AJ26" s="23"/>
-      <c r="AK26" s="23"/>
-      <c r="AL26" s="23"/>
-      <c r="AM26" s="25"/>
-      <c r="AU26" s="34" t="s">
+      <c r="O26" s="53"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
+      <c r="W26" s="42"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="42"/>
+      <c r="AI26" s="42"/>
+      <c r="AJ26" s="42"/>
+      <c r="AK26" s="42"/>
+      <c r="AL26" s="42"/>
+      <c r="AM26" s="57"/>
+      <c r="AU26" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AV26" s="34" t="s">
+      <c r="AV26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="AW26" s="34" t="s">
+      <c r="AW26" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="AX26" s="34" t="s">
+      <c r="AX26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="AY26" s="34" t="s">
+      <c r="AY26" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AZ26" s="34" t="s">
+      <c r="AZ26" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="BA26" s="34" t="s">
+      <c r="BA26" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1939,7 +2327,9 @@
       <c r="A27" s="7">
         <v>1</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="30">
+        <v>45402</v>
+      </c>
       <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
@@ -1961,7 +2351,9 @@
       <c r="AU27" s="7">
         <v>1</v>
       </c>
-      <c r="AV27" s="49"/>
+      <c r="AV27" s="30">
+        <v>45403</v>
+      </c>
       <c r="AW27" s="10" t="s">
         <v>3</v>
       </c>
@@ -1976,7 +2368,9 @@
       <c r="A28" s="8">
         <v>2</v>
       </c>
-      <c r="B28" s="50"/>
+      <c r="B28" s="31">
+        <v>45404</v>
+      </c>
       <c r="C28" s="12" t="s">
         <v>14</v>
       </c>
@@ -1987,15 +2381,15 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="39" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="40"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="40"/>
-      <c r="V28" s="41"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="17"/>
       <c r="Z28" s="17"/>
@@ -2003,20 +2397,22 @@
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="19" t="s">
+      <c r="AF28" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="19"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="19"/>
+      <c r="AG28" s="43"/>
+      <c r="AH28" s="43"/>
+      <c r="AI28" s="43"/>
+      <c r="AJ28" s="43"/>
+      <c r="AK28" s="43"/>
+      <c r="AL28" s="43"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
       </c>
-      <c r="AV28" s="50"/>
+      <c r="AV28" s="31">
+        <v>45405</v>
+      </c>
       <c r="AW28" s="12" t="s">
         <v>3</v>
       </c>
@@ -2031,7 +2427,9 @@
       <c r="A29" s="8">
         <v>3</v>
       </c>
-      <c r="B29" s="50"/>
+      <c r="B29" s="31">
+        <v>45406</v>
+      </c>
       <c r="C29" s="12" t="s">
         <v>2</v>
       </c>
@@ -2043,25 +2441,25 @@
       <c r="G29" s="16"/>
       <c r="I29" s="17"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="38" t="s">
+      <c r="P29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="38" t="s">
+      <c r="Q29" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="R29" s="38" t="s">
+      <c r="R29" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="S29" s="38" t="s">
+      <c r="S29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="T29" s="38" t="s">
+      <c r="T29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="38" t="s">
+      <c r="U29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="38" t="s">
+      <c r="V29" s="25" t="s">
         <v>25</v>
       </c>
       <c r="X29" s="12"/>
@@ -2097,7 +2495,9 @@
       <c r="AU29" s="8">
         <v>3</v>
       </c>
-      <c r="AV29" s="50"/>
+      <c r="AV29" s="31">
+        <v>45408</v>
+      </c>
       <c r="AW29" s="12" t="s">
         <v>17</v>
       </c>
@@ -2112,7 +2512,9 @@
       <c r="A30" s="8">
         <v>4</v>
       </c>
-      <c r="B30" s="50"/>
+      <c r="B30" s="31">
+        <v>45409</v>
+      </c>
       <c r="C30" s="12" t="s">
         <v>2</v>
       </c>
@@ -2122,19 +2524,19 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="16"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
       </c>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="44"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="28"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="17"/>
       <c r="Z30" s="17"/>
@@ -2145,20 +2547,22 @@
       <c r="AF30" s="7">
         <v>1</v>
       </c>
-      <c r="AG30" s="52"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="43"/>
-      <c r="AJ30" s="42"/>
-      <c r="AK30" s="43"/>
-      <c r="AL30" s="44"/>
+      <c r="AG30" s="33"/>
+      <c r="AH30" s="26"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="26"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="28"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="23"/>
-      <c r="AR30" s="23"/>
-      <c r="AS30" s="23"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
-      <c r="AV30" s="50"/>
+      <c r="AV30" s="31">
+        <v>45410</v>
+      </c>
       <c r="AW30" s="12" t="s">
         <v>17</v>
       </c>
@@ -2173,7 +2577,7 @@
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="50"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="12" t="s">
         <v>14</v>
       </c>
@@ -2189,7 +2593,7 @@
       <c r="P31" s="8">
         <v>2</v>
       </c>
-      <c r="Q31" s="37"/>
+      <c r="Q31" s="24"/>
       <c r="R31" s="12"/>
       <c r="S31" s="13"/>
       <c r="T31" s="12"/>
@@ -2205,7 +2609,7 @@
       <c r="AF31" s="8">
         <v>2</v>
       </c>
-      <c r="AG31" s="50"/>
+      <c r="AG31" s="31"/>
       <c r="AH31" s="12"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="12"/>
@@ -2218,7 +2622,7 @@
       <c r="AU31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV31" s="50"/>
+      <c r="AV31" s="31"/>
       <c r="AW31" s="12" t="s">
         <v>3</v>
       </c>
@@ -2233,7 +2637,7 @@
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="50"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="12" t="s">
         <v>2</v>
       </c>
@@ -2248,7 +2652,7 @@
       <c r="P32" s="8">
         <v>3</v>
       </c>
-      <c r="Q32" s="37"/>
+      <c r="Q32" s="24"/>
       <c r="R32" s="12"/>
       <c r="S32" s="13"/>
       <c r="T32" s="12"/>
@@ -2264,7 +2668,7 @@
       <c r="AF32" s="8">
         <v>3</v>
       </c>
-      <c r="AG32" s="50"/>
+      <c r="AG32" s="31"/>
       <c r="AH32" s="12"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="12"/>
@@ -2277,7 +2681,7 @@
       <c r="AU32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV32" s="50"/>
+      <c r="AV32" s="31"/>
       <c r="AW32" s="12" t="s">
         <v>17</v>
       </c>
@@ -2292,7 +2696,7 @@
       <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="32"/>
       <c r="C33" s="14" t="s">
         <v>14</v>
       </c>
@@ -2307,7 +2711,7 @@
       <c r="P33" s="8">
         <v>4</v>
       </c>
-      <c r="Q33" s="37"/>
+      <c r="Q33" s="24"/>
       <c r="R33" s="12"/>
       <c r="S33" s="13"/>
       <c r="T33" s="12"/>
@@ -2323,7 +2727,7 @@
       <c r="AF33" s="8">
         <v>4</v>
       </c>
-      <c r="AG33" s="56"/>
+      <c r="AG33" s="37"/>
       <c r="AH33" s="12"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="12"/>
@@ -2336,7 +2740,7 @@
       <c r="AU33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV33" s="51"/>
+      <c r="AV33" s="32"/>
       <c r="AW33" s="14" t="s">
         <v>3</v>
       </c>
@@ -2348,21 +2752,21 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="37"/>
+      <c r="Q34" s="24"/>
       <c r="R34" s="12"/>
       <c r="S34" s="13"/>
       <c r="T34" s="12"/>
@@ -2378,7 +2782,7 @@
       <c r="AF34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG34" s="50"/>
+      <c r="AG34" s="31"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="12"/>
@@ -2388,15 +2792,15 @@
       <c r="AQ34" s="12"/>
       <c r="AR34" s="17"/>
       <c r="AS34" s="17"/>
-      <c r="AU34" s="19" t="s">
+      <c r="AU34" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="19"/>
-      <c r="AW34" s="19"/>
-      <c r="AX34" s="19"/>
-      <c r="AY34" s="19"/>
-      <c r="AZ34" s="19"/>
-      <c r="BA34" s="19"/>
+      <c r="AV34" s="43"/>
+      <c r="AW34" s="43"/>
+      <c r="AX34" s="43"/>
+      <c r="AY34" s="43"/>
+      <c r="AZ34" s="43"/>
+      <c r="BA34" s="43"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2404,7 +2808,7 @@
       <c r="P35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="37"/>
+      <c r="Q35" s="24"/>
       <c r="R35" s="12"/>
       <c r="S35" s="13"/>
       <c r="T35" s="12"/>
@@ -2420,7 +2824,7 @@
       <c r="AF35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AG35" s="50"/>
+      <c r="AG35" s="31"/>
       <c r="AH35" s="12"/>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="12"/>
@@ -2432,23 +2836,23 @@
       <c r="AS35" s="17"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q36" s="37"/>
+      <c r="Q36" s="24"/>
       <c r="R36" s="12"/>
       <c r="S36" s="13"/>
       <c r="T36" s="12"/>
@@ -2464,76 +2868,76 @@
       <c r="AF36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="59"/>
-      <c r="AJ36" s="58"/>
-      <c r="AK36" s="59"/>
-      <c r="AL36" s="60"/>
-      <c r="AN36" s="24"/>
-      <c r="AO36" s="23"/>
-      <c r="AP36" s="23"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="39"/>
+      <c r="AI36" s="40"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="40"/>
+      <c r="AL36" s="41"/>
+      <c r="AN36" s="53"/>
+      <c r="AO36" s="42"/>
+      <c r="AP36" s="42"/>
       <c r="AQ36" s="12"/>
       <c r="AR36" s="17"/>
       <c r="AS36" s="17"/>
-      <c r="AU36" s="19" t="s">
+      <c r="AU36" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="19"/>
-      <c r="AW36" s="19"/>
-      <c r="AX36" s="19"/>
-      <c r="AY36" s="19"/>
-      <c r="AZ36" s="19"/>
-      <c r="BA36" s="19"/>
+      <c r="AV36" s="43"/>
+      <c r="AW36" s="43"/>
+      <c r="AX36" s="43"/>
+      <c r="AY36" s="43"/>
+      <c r="AZ36" s="43"/>
+      <c r="BA36" s="43"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="34" t="s">
+      <c r="A37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="34" t="s">
+      <c r="E37" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="34" t="s">
+      <c r="F37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="34" t="s">
+      <c r="G37" s="21" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="46" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="48"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="23"/>
-      <c r="Z37" s="23"/>
-      <c r="AA37" s="23"/>
-      <c r="AB37" s="23"/>
-      <c r="AC37" s="23"/>
-      <c r="AD37" s="25"/>
-      <c r="AF37" s="19" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="42"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="42"/>
+      <c r="AB37" s="42"/>
+      <c r="AC37" s="42"/>
+      <c r="AD37" s="57"/>
+      <c r="AF37" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="19"/>
-      <c r="AH37" s="19"/>
-      <c r="AI37" s="19"/>
-      <c r="AJ37" s="19"/>
-      <c r="AK37" s="19"/>
-      <c r="AL37" s="19"/>
+      <c r="AG37" s="43"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="43"/>
       <c r="AQ37" s="12"/>
       <c r="AR37" s="17"/>
       <c r="AS37" s="17"/>
@@ -2563,7 +2967,9 @@
       <c r="A38" s="7">
         <v>1</v>
       </c>
-      <c r="B38" s="49"/>
+      <c r="B38" s="30">
+        <v>45403</v>
+      </c>
       <c r="C38" s="10" t="s">
         <v>12</v>
       </c>
@@ -2580,8 +2986,12 @@
       <c r="AU38" s="7">
         <v>1</v>
       </c>
-      <c r="AV38" s="49"/>
-      <c r="AW38" s="10"/>
+      <c r="AV38" s="30">
+        <v>45404</v>
+      </c>
+      <c r="AW38" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="AX38" s="11"/>
       <c r="AY38" s="10" t="s">
         <v>5</v>
@@ -2593,7 +3003,9 @@
       <c r="A39" s="8">
         <v>2</v>
       </c>
-      <c r="B39" s="50"/>
+      <c r="B39" s="31">
+        <v>45405</v>
+      </c>
       <c r="C39" s="12" t="s">
         <v>12</v>
       </c>
@@ -2604,41 +3016,45 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="39" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="41"/>
-      <c r="X39" s="19" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="19"/>
-      <c r="Z39" s="19"/>
-      <c r="AA39" s="19"/>
-      <c r="AB39" s="19"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="19"/>
-      <c r="AI39" s="19" t="s">
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AI39" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="19"/>
-      <c r="AL39" s="19"/>
-      <c r="AM39" s="19"/>
-      <c r="AN39" s="19"/>
-      <c r="AO39" s="19"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="43"/>
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="43"/>
+      <c r="AN39" s="43"/>
+      <c r="AO39" s="43"/>
       <c r="AQ39" s="12"/>
       <c r="AR39" s="17"/>
       <c r="AS39" s="17"/>
       <c r="AU39" s="8">
         <v>2</v>
       </c>
-      <c r="AV39" s="50"/>
-      <c r="AW39" s="12"/>
+      <c r="AV39" s="31">
+        <v>45406</v>
+      </c>
+      <c r="AW39" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AX39" s="13"/>
       <c r="AY39" s="12" t="s">
         <v>5</v>
@@ -2650,7 +3066,9 @@
       <c r="A40" s="8">
         <v>3</v>
       </c>
-      <c r="B40" s="50"/>
+      <c r="B40" s="31">
+        <v>45407</v>
+      </c>
       <c r="C40" s="12" t="s">
         <v>6</v>
       </c>
@@ -2662,25 +3080,25 @@
       <c r="G40" s="16"/>
       <c r="I40" s="17"/>
       <c r="L40" s="12"/>
-      <c r="M40" s="38" t="s">
+      <c r="M40" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="38" t="s">
+      <c r="N40" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O40" s="38" t="s">
+      <c r="O40" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="38" t="s">
+      <c r="P40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="Q40" s="38" t="s">
+      <c r="Q40" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="R40" s="38" t="s">
+      <c r="R40" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="S40" s="38" t="s">
+      <c r="S40" s="25" t="s">
         <v>25</v>
       </c>
       <c r="X40" s="3" t="s">
@@ -2731,12 +3149,16 @@
       <c r="AU40" s="8">
         <v>3</v>
       </c>
-      <c r="AV40" s="50"/>
+      <c r="AV40" s="31">
+        <v>45409</v>
+      </c>
       <c r="AW40" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AX40" s="13"/>
-      <c r="AY40" s="12"/>
+      <c r="AY40" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AZ40" s="13"/>
       <c r="BA40" s="16"/>
     </row>
@@ -2744,7 +3166,9 @@
       <c r="A41" s="8">
         <v>4</v>
       </c>
-      <c r="B41" s="50"/>
+      <c r="B41" s="31">
+        <v>45409</v>
+      </c>
       <c r="C41" s="12" t="s">
         <v>6</v>
       </c>
@@ -2754,49 +3178,53 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
       </c>
-      <c r="N41" s="45"/>
-      <c r="O41" s="42"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="42"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="44"/>
+      <c r="N41" s="29"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
+      <c r="S41" s="28"/>
       <c r="X41" s="7">
         <v>1</v>
       </c>
-      <c r="Y41" s="52"/>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="42"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="44"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="27"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="28"/>
       <c r="AI41" s="7">
         <v>1</v>
       </c>
-      <c r="AJ41" s="49"/>
+      <c r="AJ41" s="30"/>
       <c r="AK41" s="10"/>
       <c r="AL41" s="11"/>
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="24"/>
-      <c r="AR41" s="23"/>
-      <c r="AS41" s="23"/>
+      <c r="AQ41" s="53"/>
+      <c r="AR41" s="42"/>
+      <c r="AS41" s="42"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
-      <c r="AV41" s="50"/>
+      <c r="AV41" s="31">
+        <v>45411</v>
+      </c>
       <c r="AW41" s="12" t="s">
         <v>5</v>
       </c>
       <c r="AX41" s="13"/>
-      <c r="AY41" s="12"/>
+      <c r="AY41" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AZ41" s="13"/>
       <c r="BA41" s="16"/>
     </row>
@@ -2804,7 +3232,7 @@
       <c r="A42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="50"/>
+      <c r="B42" s="31"/>
       <c r="C42" s="12" t="s">
         <v>12</v>
       </c>
@@ -2818,7 +3246,7 @@
       <c r="M42" s="8">
         <v>2</v>
       </c>
-      <c r="N42" s="37"/>
+      <c r="N42" s="24"/>
       <c r="O42" s="12"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="12"/>
@@ -2827,7 +3255,7 @@
       <c r="X42" s="8">
         <v>2</v>
       </c>
-      <c r="Y42" s="50"/>
+      <c r="Y42" s="31"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="12"/>
@@ -2836,7 +3264,7 @@
       <c r="AI42" s="8">
         <v>2</v>
       </c>
-      <c r="AJ42" s="50"/>
+      <c r="AJ42" s="31"/>
       <c r="AK42" s="12"/>
       <c r="AL42" s="13"/>
       <c r="AM42" s="12"/>
@@ -2845,8 +3273,10 @@
       <c r="AU42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV42" s="50"/>
-      <c r="AW42" s="12"/>
+      <c r="AV42" s="31"/>
+      <c r="AW42" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AX42" s="13"/>
       <c r="AY42" s="12" t="s">
         <v>5</v>
@@ -2858,7 +3288,7 @@
       <c r="A43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="31"/>
       <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
@@ -2871,7 +3301,7 @@
       <c r="M43" s="8">
         <v>3</v>
       </c>
-      <c r="N43" s="37"/>
+      <c r="N43" s="24"/>
       <c r="O43" s="12"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="12"/>
@@ -2880,7 +3310,7 @@
       <c r="X43" s="8">
         <v>3</v>
       </c>
-      <c r="Y43" s="50"/>
+      <c r="Y43" s="31"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="13"/>
       <c r="AB43" s="12"/>
@@ -2889,7 +3319,7 @@
       <c r="AI43" s="8">
         <v>3</v>
       </c>
-      <c r="AJ43" s="50"/>
+      <c r="AJ43" s="31"/>
       <c r="AK43" s="12"/>
       <c r="AL43" s="13"/>
       <c r="AM43" s="12"/>
@@ -2898,10 +3328,14 @@
       <c r="AU43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV43" s="50"/>
-      <c r="AW43" s="12"/>
+      <c r="AV43" s="31"/>
+      <c r="AW43" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="AX43" s="13"/>
-      <c r="AY43" s="12"/>
+      <c r="AY43" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="AZ43" s="13"/>
       <c r="BA43" s="16"/>
     </row>
@@ -2909,7 +3343,7 @@
       <c r="A44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="14" t="s">
         <v>12</v>
       </c>
@@ -2922,7 +3356,7 @@
       <c r="M44" s="8">
         <v>4</v>
       </c>
-      <c r="N44" s="37"/>
+      <c r="N44" s="24"/>
       <c r="O44" s="12"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="12"/>
@@ -2931,7 +3365,7 @@
       <c r="X44" s="8">
         <v>4</v>
       </c>
-      <c r="Y44" s="50"/>
+      <c r="Y44" s="31"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="12"/>
@@ -2940,7 +3374,7 @@
       <c r="AI44" s="8">
         <v>4</v>
       </c>
-      <c r="AJ44" s="56"/>
+      <c r="AJ44" s="37"/>
       <c r="AK44" s="12"/>
       <c r="AL44" s="13"/>
       <c r="AM44" s="12"/>
@@ -2949,8 +3383,10 @@
       <c r="AU44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV44" s="51"/>
-      <c r="AW44" s="14"/>
+      <c r="AV44" s="32"/>
+      <c r="AW44" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="AX44" s="15"/>
       <c r="AY44" s="14" t="s">
         <v>5</v>
@@ -2959,19 +3395,19 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="37"/>
+      <c r="N45" s="24"/>
       <c r="O45" s="12"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="12"/>
@@ -2980,7 +3416,7 @@
       <c r="X45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y45" s="50"/>
+      <c r="Y45" s="31"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="12"/>
@@ -2989,27 +3425,27 @@
       <c r="AI45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ45" s="50"/>
+      <c r="AJ45" s="31"/>
       <c r="AK45" s="12"/>
       <c r="AL45" s="13"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="19" t="s">
+      <c r="AU45" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="19"/>
-      <c r="AW45" s="19"/>
-      <c r="AX45" s="19"/>
-      <c r="AY45" s="19"/>
-      <c r="AZ45" s="19"/>
-      <c r="BA45" s="19"/>
+      <c r="AV45" s="43"/>
+      <c r="AW45" s="43"/>
+      <c r="AX45" s="43"/>
+      <c r="AY45" s="43"/>
+      <c r="AZ45" s="43"/>
+      <c r="BA45" s="43"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="37"/>
+      <c r="N46" s="24"/>
       <c r="O46" s="12"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="12"/>
@@ -3018,7 +3454,7 @@
       <c r="X46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y46" s="50"/>
+      <c r="Y46" s="31"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="12"/>
@@ -3027,7 +3463,7 @@
       <c r="AI46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ46" s="50"/>
+      <c r="AJ46" s="31"/>
       <c r="AK46" s="12"/>
       <c r="AL46" s="13"/>
       <c r="AM46" s="12"/>
@@ -3038,7 +3474,7 @@
       <c r="M47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N47" s="37"/>
+      <c r="N47" s="24"/>
       <c r="O47" s="12"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="12"/>
@@ -3047,7 +3483,7 @@
       <c r="X47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y47" s="51"/>
+      <c r="Y47" s="32"/>
       <c r="Z47" s="14"/>
       <c r="AA47" s="15"/>
       <c r="AB47" s="14"/>
@@ -3056,7 +3492,7 @@
       <c r="AI47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ47" s="51"/>
+      <c r="AJ47" s="32"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="15"/>
       <c r="AM47" s="14"/>
@@ -3064,61 +3500,49 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="39" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="41"/>
-      <c r="X48" s="19" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="19"/>
-      <c r="Z48" s="19"/>
-      <c r="AA48" s="19"/>
-      <c r="AB48" s="19"/>
-      <c r="AC48" s="19"/>
-      <c r="AD48" s="19"/>
-      <c r="AI48" s="19" t="s">
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="43"/>
+      <c r="AB48" s="43"/>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="43"/>
+      <c r="AI48" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="19"/>
-      <c r="AK48" s="19"/>
-      <c r="AL48" s="19"/>
-      <c r="AM48" s="19"/>
-      <c r="AN48" s="19"/>
-      <c r="AO48" s="19"/>
+      <c r="AJ48" s="43"/>
+      <c r="AK48" s="43"/>
+      <c r="AL48" s="43"/>
+      <c r="AM48" s="43"/>
+      <c r="AN48" s="43"/>
+      <c r="AO48" s="43"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3135,18 +3559,30 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3247,353 +3683,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="31"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="31"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L39" s="2"/>
-    </row>
-    <row r="40" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L40" s="2"/>
-    </row>
-    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L41" s="2"/>
-    </row>
-    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L42" s="2"/>
-    </row>
-    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L43" s="2"/>
-    </row>
-    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="H44" s="2"/>
-      <c r="L44" s="2"/>
-    </row>
-    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="H45" s="2"/>
-      <c r="L45" s="2"/>
-    </row>
-    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="L46" s="2"/>
-    </row>
-    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L48" s="2"/>
-    </row>
-    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="H49" s="2"/>
-      <c r="L49" s="2"/>
-    </row>
-    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="L50" s="2"/>
-    </row>
-    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G51" s="2"/>
-      <c r="L51" s="2"/>
-    </row>
-    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="L52" s="2"/>
-    </row>
-    <row r="53" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G53" s="2"/>
-      <c r="L53" s="2"/>
-    </row>
-    <row r="54" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="L54" s="2"/>
-    </row>
-    <row r="55" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="L55" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5577F5C-DEC5-42BE-BE31-B844A1962F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="53">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -178,12 +179,18 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Hurricanes Lead 1-0</t>
+  </si>
+  <si>
+    <t>Bruins Lead 1-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -431,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -481,9 +488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,16 +524,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -541,10 +545,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -556,10 +560,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -579,39 +616,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -985,18 +989,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1025,18 +1029,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="58" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="58" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="59"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,14 +1069,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1095,10 +1099,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1117,10 +1121,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="59"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1202,16 +1206,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1219,22 +1223,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="19" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="19.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
     <col min="8" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="26" style="1" customWidth="1"/>
@@ -1266,130 +1270,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
-      <c r="Z1" s="50" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="52"/>
-      <c r="AF1" s="50" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="52"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="M2" s="54" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="56"/>
-      <c r="AI2" s="54" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="56"/>
-      <c r="AU2" s="54" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="56"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="AI3" s="43" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AU3" s="43" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1407,15 +1411,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1463,7 +1467,7 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="29">
         <v>45403</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1475,31 +1479,31 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="5"/>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="25" t="s">
+      <c r="N5" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="25" t="s">
+      <c r="O5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="25" t="s">
+      <c r="P5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="25" t="s">
+      <c r="S5" s="24" t="s">
         <v>25</v>
       </c>
       <c r="AI5" s="7">
         <v>1</v>
       </c>
-      <c r="AJ5" s="30"/>
+      <c r="AJ5" s="29"/>
       <c r="AK5" s="10"/>
       <c r="AL5" s="11"/>
       <c r="AM5" s="10"/>
@@ -1508,7 +1512,7 @@
       <c r="AU5" s="7">
         <v>1</v>
       </c>
-      <c r="AV5" s="30">
+      <c r="AV5" s="29">
         <v>45403</v>
       </c>
       <c r="AW5" s="10" t="s">
@@ -1525,7 +1529,7 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>45405</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1540,7 +1544,7 @@
       <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="23"/>
+      <c r="N6" s="22"/>
       <c r="O6" s="10"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="10"/>
@@ -1549,7 +1553,7 @@
       <c r="AI6" s="8">
         <v>2</v>
       </c>
-      <c r="AJ6" s="31"/>
+      <c r="AJ6" s="30"/>
       <c r="AK6" s="12"/>
       <c r="AL6" s="13"/>
       <c r="AM6" s="12"/>
@@ -1558,7 +1562,7 @@
       <c r="AU6" s="8">
         <v>2</v>
       </c>
-      <c r="AV6" s="31">
+      <c r="AV6" s="30">
         <v>45405</v>
       </c>
       <c r="AW6" s="12" t="s">
@@ -1575,7 +1579,7 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="30">
         <v>45408</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1587,11 +1591,10 @@
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="16"/>
-      <c r="I7" s="17"/>
       <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="24"/>
+      <c r="N7" s="23"/>
       <c r="O7" s="12"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="12"/>
@@ -1600,7 +1603,7 @@
       <c r="AI7" s="8">
         <v>3</v>
       </c>
-      <c r="AJ7" s="31"/>
+      <c r="AJ7" s="30"/>
       <c r="AK7" s="12"/>
       <c r="AL7" s="13"/>
       <c r="AM7" s="12"/>
@@ -1609,7 +1612,7 @@
       <c r="AU7" s="8">
         <v>3</v>
       </c>
-      <c r="AV7" s="31">
+      <c r="AV7" s="30">
         <v>45408</v>
       </c>
       <c r="AW7" s="12" t="s">
@@ -1626,7 +1629,7 @@
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="30">
         <v>45410</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1638,13 +1641,13 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="N8" s="24"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="12"/>
       <c r="P8" s="13"/>
       <c r="Q8" s="12"/>
@@ -1653,19 +1656,19 @@
       <c r="AI8" s="8">
         <v>4</v>
       </c>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="34"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="34"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="36"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
+      <c r="AJ8" s="36"/>
+      <c r="AK8" s="33"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="33"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="35"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
-      <c r="AV8" s="31">
+      <c r="AV8" s="30">
         <v>45410</v>
       </c>
       <c r="AW8" s="12" t="s">
@@ -1682,7 +1685,7 @@
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -1692,12 +1695,11 @@
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="16"/>
-      <c r="I9" s="17"/>
       <c r="L9" s="12"/>
       <c r="M9" s="8">
         <v>4</v>
       </c>
-      <c r="N9" s="24"/>
+      <c r="N9" s="23"/>
       <c r="O9" s="12"/>
       <c r="P9" s="13"/>
       <c r="Q9" s="12"/>
@@ -1706,19 +1708,19 @@
       <c r="AI9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ9" s="31"/>
+      <c r="AJ9" s="30"/>
       <c r="AK9" s="12"/>
       <c r="AL9" s="13"/>
       <c r="AM9" s="12"/>
       <c r="AN9" s="13"/>
       <c r="AO9" s="16"/>
       <c r="AQ9" s="10"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
       <c r="AU9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV9" s="31"/>
+      <c r="AV9" s="30"/>
       <c r="AW9" s="12" t="s">
         <v>11</v>
       </c>
@@ -1733,7 +1735,7 @@
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
@@ -1747,7 +1749,7 @@
       <c r="M10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="24"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="12"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="12"/>
@@ -1756,19 +1758,17 @@
       <c r="AI10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ10" s="31"/>
+      <c r="AJ10" s="30"/>
       <c r="AK10" s="12"/>
       <c r="AL10" s="13"/>
       <c r="AM10" s="12"/>
       <c r="AN10" s="13"/>
       <c r="AO10" s="16"/>
       <c r="AQ10" s="12"/>
-      <c r="AR10" s="17"/>
-      <c r="AS10" s="17"/>
       <c r="AU10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV10" s="31"/>
+      <c r="AV10" s="30"/>
       <c r="AW10" s="12" t="s">
         <v>13</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="M11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="24"/>
+      <c r="N11" s="23"/>
       <c r="O11" s="12"/>
       <c r="P11" s="13"/>
       <c r="Q11" s="12"/>
@@ -1806,19 +1806,17 @@
       <c r="AI11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ11" s="32"/>
+      <c r="AJ11" s="31"/>
       <c r="AK11" s="14"/>
       <c r="AL11" s="15"/>
       <c r="AM11" s="14"/>
       <c r="AN11" s="15"/>
       <c r="AO11" s="6"/>
       <c r="AQ11" s="12"/>
-      <c r="AR11" s="17"/>
-      <c r="AS11" s="17"/>
       <c r="AU11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV11" s="32"/>
+      <c r="AV11" s="31"/>
       <c r="AW11" s="14" t="s">
         <v>11</v>
       </c>
@@ -1830,96 +1828,90 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="24"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="12"/>
       <c r="P12" s="13"/>
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="43" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="43"/>
-      <c r="AK12" s="43"/>
-      <c r="AL12" s="43"/>
-      <c r="AM12" s="43"/>
-      <c r="AN12" s="43"/>
-      <c r="AO12" s="43"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AR12" s="17"/>
-      <c r="AS12" s="17"/>
-      <c r="AU12" s="43" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="43"/>
-      <c r="AW12" s="43"/>
-      <c r="AX12" s="43"/>
-      <c r="AY12" s="43"/>
-      <c r="AZ12" s="43"/>
-      <c r="BA12" s="43"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
-      <c r="AR13" s="17"/>
-      <c r="AS13" s="17"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="AN14" s="42"/>
-      <c r="AO14" s="42"/>
-      <c r="AP14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AR14" s="17"/>
-      <c r="AS14" s="17"/>
-      <c r="AU14" s="43" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="43"/>
-      <c r="AW14" s="43"/>
-      <c r="AX14" s="43"/>
-      <c r="AY14" s="43"/>
-      <c r="AZ14" s="43"/>
-      <c r="BA14" s="43"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -1941,8 +1933,6 @@
       <c r="O15" s="12"/>
       <c r="AN15" s="12"/>
       <c r="AQ15" s="12"/>
-      <c r="AR15" s="17"/>
-      <c r="AS15" s="17"/>
       <c r="AU15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1969,28 +1959,32 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <v>45402</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
       <c r="E16" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="11">
+        <v>3</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="L16" s="12"/>
       <c r="O16" s="12"/>
       <c r="AN16" s="12"/>
       <c r="AQ16" s="12"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
       <c r="AU16" s="7">
         <v>1</v>
       </c>
-      <c r="AV16" s="30">
+      <c r="AV16" s="29">
         <v>45404</v>
       </c>
       <c r="AW16" s="10" t="s">
@@ -2007,7 +2001,7 @@
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="30">
         <v>45404</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2023,12 +2017,10 @@
       <c r="O17" s="12"/>
       <c r="AN17" s="12"/>
       <c r="AQ17" s="12"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="17"/>
       <c r="AU17" s="8">
         <v>2</v>
       </c>
-      <c r="AV17" s="31">
+      <c r="AV17" s="30">
         <v>45406</v>
       </c>
       <c r="AW17" s="12" t="s">
@@ -2045,7 +2037,7 @@
       <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="30">
         <v>45407</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2057,17 +2049,14 @@
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="16"/>
-      <c r="I18" s="17"/>
       <c r="L18" s="12"/>
       <c r="O18" s="12"/>
       <c r="AN18" s="12"/>
       <c r="AQ18" s="12"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
       <c r="AU18" s="8">
         <v>3</v>
       </c>
-      <c r="AV18" s="31">
+      <c r="AV18" s="30">
         <v>45408</v>
       </c>
       <c r="AW18" s="12" t="s">
@@ -2084,7 +2073,7 @@
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="30">
         <v>45409</v>
       </c>
       <c r="C19" s="12" t="s">
@@ -2096,19 +2085,19 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="53"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
-      <c r="AV19" s="31">
+      <c r="AV19" s="30">
         <v>45410</v>
       </c>
       <c r="AW19" s="12" t="s">
@@ -2125,7 +2114,7 @@
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="12" t="s">
         <v>8</v>
       </c>
@@ -2135,14 +2124,12 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="16"/>
-      <c r="I20" s="17"/>
       <c r="O20" s="12"/>
       <c r="AN20" s="12"/>
-      <c r="AQ20" s="17"/>
       <c r="AU20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV20" s="31"/>
+      <c r="AV20" s="30"/>
       <c r="AW20" s="12" t="s">
         <v>9</v>
       </c>
@@ -2157,7 +2144,7 @@
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="31"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
@@ -2172,7 +2159,7 @@
       <c r="AU21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV21" s="31"/>
+      <c r="AV21" s="30"/>
       <c r="AW21" s="12" t="s">
         <v>7</v>
       </c>
@@ -2187,7 +2174,7 @@
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="14" t="s">
         <v>8</v>
       </c>
@@ -2202,7 +2189,7 @@
       <c r="AU22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV22" s="32"/>
+      <c r="AV22" s="31"/>
       <c r="AW22" s="14" t="s">
         <v>9</v>
       </c>
@@ -2214,112 +2201,112 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="43" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="43"/>
-      <c r="AW23" s="43"/>
-      <c r="AX23" s="43"/>
-      <c r="AY23" s="43"/>
-      <c r="AZ23" s="43"/>
-      <c r="BA23" s="43"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="43" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="43"/>
-      <c r="AW25" s="43"/>
-      <c r="AX25" s="43"/>
-      <c r="AY25" s="43"/>
-      <c r="AZ25" s="43"/>
-      <c r="BA25" s="43"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="53"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
-      <c r="R26" s="42"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="AE26" s="42"/>
-      <c r="AF26" s="42"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="42"/>
-      <c r="AJ26" s="42"/>
-      <c r="AK26" s="42"/>
-      <c r="AL26" s="42"/>
-      <c r="AM26" s="57"/>
-      <c r="AU26" s="21" t="s">
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
+      <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AV26" s="21" t="s">
+      <c r="AV26" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="AW26" s="21" t="s">
+      <c r="AW26" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AX26" s="21" t="s">
+      <c r="AX26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AY26" s="21" t="s">
+      <c r="AY26" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AZ26" s="21" t="s">
+      <c r="AZ26" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="BA26" s="21" t="s">
+      <c r="BA26" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2327,31 +2314,32 @@
       <c r="A27" s="7">
         <v>1</v>
       </c>
-      <c r="B27" s="30">
+      <c r="B27" s="29">
         <v>45402</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11">
+        <v>1</v>
+      </c>
       <c r="E27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="5"/>
+      <c r="F27" s="11">
+        <v>5</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="O27" s="12"/>
       <c r="X27" s="12"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
       <c r="AD27" s="13"/>
       <c r="AN27" s="12"/>
       <c r="AU27" s="7">
         <v>1</v>
       </c>
-      <c r="AV27" s="30">
+      <c r="AV27" s="29">
         <v>45403</v>
       </c>
       <c r="AW27" s="10" t="s">
@@ -2368,7 +2356,7 @@
       <c r="A28" s="8">
         <v>2</v>
       </c>
-      <c r="B28" s="31">
+      <c r="B28" s="30">
         <v>45404</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -2381,36 +2369,31 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="43" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="43"/>
-      <c r="AH28" s="43"/>
-      <c r="AI28" s="43"/>
-      <c r="AJ28" s="43"/>
-      <c r="AK28" s="43"/>
-      <c r="AL28" s="43"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
       </c>
-      <c r="AV28" s="31">
+      <c r="AV28" s="30">
         <v>45405</v>
       </c>
       <c r="AW28" s="12" t="s">
@@ -2427,7 +2410,7 @@
       <c r="A29" s="8">
         <v>3</v>
       </c>
-      <c r="B29" s="31">
+      <c r="B29" s="30">
         <v>45406</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -2439,35 +2422,29 @@
       </c>
       <c r="F29" s="13"/>
       <c r="G29" s="16"/>
-      <c r="I29" s="17"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="25" t="s">
+      <c r="P29" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="25" t="s">
+      <c r="Q29" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="R29" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="S29" s="25" t="s">
+      <c r="S29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="T29" s="25" t="s">
+      <c r="T29" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="25" t="s">
+      <c r="U29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="25" t="s">
+      <c r="V29" s="24" t="s">
         <v>25</v>
       </c>
       <c r="X29" s="12"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
       <c r="AD29" s="13"/>
       <c r="AF29" s="3" t="s">
         <v>18</v>
@@ -2491,11 +2468,10 @@
         <v>25</v>
       </c>
       <c r="AN29" s="12"/>
-      <c r="AQ29" s="17"/>
       <c r="AU29" s="8">
         <v>3</v>
       </c>
-      <c r="AV29" s="31">
+      <c r="AV29" s="30">
         <v>45408</v>
       </c>
       <c r="AW29" s="12" t="s">
@@ -2512,7 +2488,7 @@
       <c r="A30" s="8">
         <v>4</v>
       </c>
-      <c r="B30" s="31">
+      <c r="B30" s="30">
         <v>45409</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -2524,43 +2500,38 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="16"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
       </c>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="27"/>
       <c r="X30" s="12"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
       <c r="AD30" s="13"/>
       <c r="AF30" s="7">
         <v>1</v>
       </c>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="27"/>
-      <c r="AJ30" s="26"/>
-      <c r="AK30" s="27"/>
-      <c r="AL30" s="28"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="26"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="26"/>
+      <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
-      <c r="AV30" s="31">
+      <c r="AV30" s="30">
         <v>45410</v>
       </c>
       <c r="AW30" s="12" t="s">
@@ -2577,7 +2548,7 @@
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="12" t="s">
         <v>14</v>
       </c>
@@ -2587,29 +2558,23 @@
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="16"/>
-      <c r="I31" s="17"/>
       <c r="L31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="8">
         <v>2</v>
       </c>
-      <c r="Q31" s="24"/>
+      <c r="Q31" s="23"/>
       <c r="R31" s="12"/>
       <c r="S31" s="13"/>
       <c r="T31" s="12"/>
       <c r="U31" s="13"/>
       <c r="V31" s="16"/>
       <c r="X31" s="12"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
       <c r="AD31" s="13"/>
       <c r="AF31" s="8">
         <v>2</v>
       </c>
-      <c r="AG31" s="31"/>
+      <c r="AG31" s="30"/>
       <c r="AH31" s="12"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="12"/>
@@ -2617,12 +2582,12 @@
       <c r="AL31" s="16"/>
       <c r="AN31" s="12"/>
       <c r="AQ31" s="10"/>
-      <c r="AR31" s="18"/>
-      <c r="AS31" s="18"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="17"/>
       <c r="AU31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV31" s="31"/>
+      <c r="AV31" s="30"/>
       <c r="AW31" s="12" t="s">
         <v>3</v>
       </c>
@@ -2637,7 +2602,7 @@
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="31"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="12" t="s">
         <v>2</v>
       </c>
@@ -2652,23 +2617,18 @@
       <c r="P32" s="8">
         <v>3</v>
       </c>
-      <c r="Q32" s="24"/>
+      <c r="Q32" s="23"/>
       <c r="R32" s="12"/>
       <c r="S32" s="13"/>
       <c r="T32" s="12"/>
       <c r="U32" s="13"/>
       <c r="V32" s="16"/>
       <c r="X32" s="12"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
       <c r="AD32" s="13"/>
       <c r="AF32" s="8">
         <v>3</v>
       </c>
-      <c r="AG32" s="31"/>
+      <c r="AG32" s="30"/>
       <c r="AH32" s="12"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="12"/>
@@ -2676,12 +2636,10 @@
       <c r="AL32" s="16"/>
       <c r="AN32" s="12"/>
       <c r="AQ32" s="12"/>
-      <c r="AR32" s="17"/>
-      <c r="AS32" s="17"/>
       <c r="AU32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV32" s="31"/>
+      <c r="AV32" s="30"/>
       <c r="AW32" s="12" t="s">
         <v>17</v>
       </c>
@@ -2696,7 +2654,7 @@
       <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="32"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="14" t="s">
         <v>14</v>
       </c>
@@ -2711,23 +2669,18 @@
       <c r="P33" s="8">
         <v>4</v>
       </c>
-      <c r="Q33" s="24"/>
+      <c r="Q33" s="23"/>
       <c r="R33" s="12"/>
       <c r="S33" s="13"/>
       <c r="T33" s="12"/>
       <c r="U33" s="13"/>
       <c r="V33" s="16"/>
       <c r="X33" s="12"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
       <c r="AD33" s="13"/>
       <c r="AF33" s="8">
         <v>4</v>
       </c>
-      <c r="AG33" s="37"/>
+      <c r="AG33" s="36"/>
       <c r="AH33" s="12"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="12"/>
@@ -2735,12 +2688,10 @@
       <c r="AL33" s="16"/>
       <c r="AN33" s="12"/>
       <c r="AQ33" s="12"/>
-      <c r="AR33" s="17"/>
-      <c r="AS33" s="17"/>
       <c r="AU33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV33" s="32"/>
+      <c r="AV33" s="31"/>
       <c r="AW33" s="14" t="s">
         <v>3</v>
       </c>
@@ -2752,37 +2703,32 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="24"/>
+      <c r="Q34" s="23"/>
       <c r="R34" s="12"/>
       <c r="S34" s="13"/>
       <c r="T34" s="12"/>
       <c r="U34" s="13"/>
       <c r="V34" s="16"/>
       <c r="X34" s="12"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
       <c r="AD34" s="13"/>
       <c r="AF34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG34" s="31"/>
+      <c r="AG34" s="30"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="12"/>
@@ -2790,17 +2736,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AR34" s="17"/>
-      <c r="AS34" s="17"/>
-      <c r="AU34" s="43" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="43"/>
-      <c r="AW34" s="43"/>
-      <c r="AX34" s="43"/>
-      <c r="AY34" s="43"/>
-      <c r="AZ34" s="43"/>
-      <c r="BA34" s="43"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2808,23 +2752,18 @@
       <c r="P35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="24"/>
+      <c r="Q35" s="23"/>
       <c r="R35" s="12"/>
       <c r="S35" s="13"/>
       <c r="T35" s="12"/>
       <c r="U35" s="13"/>
       <c r="V35" s="16"/>
       <c r="X35" s="12"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
       <c r="AD35" s="13"/>
       <c r="AF35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AG35" s="31"/>
+      <c r="AG35" s="30"/>
       <c r="AH35" s="12"/>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="12"/>
@@ -2832,115 +2771,104 @@
       <c r="AL35" s="16"/>
       <c r="AN35" s="12"/>
       <c r="AQ35" s="12"/>
-      <c r="AR35" s="17"/>
-      <c r="AS35" s="17"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="L36" s="53"/>
-      <c r="M36" s="42"/>
-      <c r="N36" s="42"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q36" s="24"/>
+      <c r="Q36" s="23"/>
       <c r="R36" s="12"/>
       <c r="S36" s="13"/>
       <c r="T36" s="12"/>
       <c r="U36" s="13"/>
       <c r="V36" s="16"/>
       <c r="X36" s="12"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
       <c r="AD36" s="13"/>
       <c r="AF36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AG36" s="38"/>
-      <c r="AH36" s="39"/>
-      <c r="AI36" s="40"/>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="40"/>
-      <c r="AL36" s="41"/>
-      <c r="AN36" s="53"/>
-      <c r="AO36" s="42"/>
-      <c r="AP36" s="42"/>
+      <c r="AG36" s="37"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="39"/>
+      <c r="AJ36" s="38"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="40"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AR36" s="17"/>
-      <c r="AS36" s="17"/>
-      <c r="AU36" s="43" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="43"/>
-      <c r="AW36" s="43"/>
-      <c r="AX36" s="43"/>
-      <c r="AY36" s="43"/>
-      <c r="AZ36" s="43"/>
-      <c r="BA36" s="43"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F37" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="20" t="s">
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="42"/>
-      <c r="AC37" s="42"/>
-      <c r="AD37" s="57"/>
-      <c r="AF37" s="43" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="43"/>
-      <c r="AH37" s="43"/>
-      <c r="AI37" s="43"/>
-      <c r="AJ37" s="43"/>
-      <c r="AK37" s="43"/>
-      <c r="AL37" s="43"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
-      <c r="AR37" s="17"/>
-      <c r="AS37" s="17"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
       </c>
@@ -2967,7 +2895,7 @@
       <c r="A38" s="7">
         <v>1</v>
       </c>
-      <c r="B38" s="30">
+      <c r="B38" s="29">
         <v>45403</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -2981,12 +2909,10 @@
       <c r="G38" s="5"/>
       <c r="L38" s="12"/>
       <c r="AQ38" s="12"/>
-      <c r="AR38" s="17"/>
-      <c r="AS38" s="17"/>
       <c r="AU38" s="7">
         <v>1</v>
       </c>
-      <c r="AV38" s="30">
+      <c r="AV38" s="29">
         <v>45404</v>
       </c>
       <c r="AW38" s="10" t="s">
@@ -3003,7 +2929,7 @@
       <c r="A39" s="8">
         <v>2</v>
       </c>
-      <c r="B39" s="31">
+      <c r="B39" s="30">
         <v>45405</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -3016,40 +2942,38 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="43" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AI39" s="43" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="43"/>
-      <c r="AL39" s="43"/>
-      <c r="AM39" s="43"/>
-      <c r="AN39" s="43"/>
-      <c r="AO39" s="43"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
-      <c r="AR39" s="17"/>
-      <c r="AS39" s="17"/>
       <c r="AU39" s="8">
         <v>2</v>
       </c>
-      <c r="AV39" s="31">
+      <c r="AV39" s="30">
         <v>45406</v>
       </c>
       <c r="AW39" s="12" t="s">
@@ -3066,7 +2990,7 @@
       <c r="A40" s="8">
         <v>3</v>
       </c>
-      <c r="B40" s="31">
+      <c r="B40" s="30">
         <v>45407</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -3078,27 +3002,26 @@
       </c>
       <c r="F40" s="13"/>
       <c r="G40" s="16"/>
-      <c r="I40" s="17"/>
       <c r="L40" s="12"/>
-      <c r="M40" s="25" t="s">
+      <c r="M40" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="25" t="s">
+      <c r="N40" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="O40" s="25" t="s">
+      <c r="O40" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="25" t="s">
+      <c r="P40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="Q40" s="25" t="s">
+      <c r="Q40" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="R40" s="25" t="s">
+      <c r="R40" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="S40" s="25" t="s">
+      <c r="S40" s="24" t="s">
         <v>25</v>
       </c>
       <c r="X40" s="3" t="s">
@@ -3144,12 +3067,10 @@
         <v>25</v>
       </c>
       <c r="AQ40" s="12"/>
-      <c r="AR40" s="17"/>
-      <c r="AS40" s="17"/>
       <c r="AU40" s="8">
         <v>3</v>
       </c>
-      <c r="AV40" s="31">
+      <c r="AV40" s="30">
         <v>45409</v>
       </c>
       <c r="AW40" s="12" t="s">
@@ -3166,7 +3087,7 @@
       <c r="A41" s="8">
         <v>4</v>
       </c>
-      <c r="B41" s="31">
+      <c r="B41" s="30">
         <v>45409</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -3178,44 +3099,44 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
       </c>
-      <c r="N41" s="29"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="27"/>
       <c r="X41" s="7">
         <v>1</v>
       </c>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="26"/>
-      <c r="AA41" s="27"/>
-      <c r="AB41" s="26"/>
-      <c r="AC41" s="27"/>
-      <c r="AD41" s="28"/>
+      <c r="Y41" s="32"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="27"/>
       <c r="AI41" s="7">
         <v>1</v>
       </c>
-      <c r="AJ41" s="30"/>
+      <c r="AJ41" s="29"/>
       <c r="AK41" s="10"/>
       <c r="AL41" s="11"/>
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="53"/>
-      <c r="AR41" s="42"/>
-      <c r="AS41" s="42"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
-      <c r="AV41" s="31">
+      <c r="AV41" s="30">
         <v>45411</v>
       </c>
       <c r="AW41" s="12" t="s">
@@ -3232,7 +3153,7 @@
       <c r="A42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="31"/>
+      <c r="B42" s="30"/>
       <c r="C42" s="12" t="s">
         <v>12</v>
       </c>
@@ -3242,11 +3163,10 @@
       </c>
       <c r="F42" s="13"/>
       <c r="G42" s="16"/>
-      <c r="I42" s="17"/>
       <c r="M42" s="8">
         <v>2</v>
       </c>
-      <c r="N42" s="24"/>
+      <c r="N42" s="23"/>
       <c r="O42" s="12"/>
       <c r="P42" s="13"/>
       <c r="Q42" s="12"/>
@@ -3255,7 +3175,7 @@
       <c r="X42" s="8">
         <v>2</v>
       </c>
-      <c r="Y42" s="31"/>
+      <c r="Y42" s="30"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="12"/>
@@ -3264,7 +3184,7 @@
       <c r="AI42" s="8">
         <v>2</v>
       </c>
-      <c r="AJ42" s="31"/>
+      <c r="AJ42" s="30"/>
       <c r="AK42" s="12"/>
       <c r="AL42" s="13"/>
       <c r="AM42" s="12"/>
@@ -3273,7 +3193,7 @@
       <c r="AU42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV42" s="31"/>
+      <c r="AV42" s="30"/>
       <c r="AW42" s="12" t="s">
         <v>15</v>
       </c>
@@ -3288,7 +3208,7 @@
       <c r="A43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="31"/>
+      <c r="B43" s="30"/>
       <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
@@ -3301,7 +3221,7 @@
       <c r="M43" s="8">
         <v>3</v>
       </c>
-      <c r="N43" s="24"/>
+      <c r="N43" s="23"/>
       <c r="O43" s="12"/>
       <c r="P43" s="13"/>
       <c r="Q43" s="12"/>
@@ -3310,7 +3230,7 @@
       <c r="X43" s="8">
         <v>3</v>
       </c>
-      <c r="Y43" s="31"/>
+      <c r="Y43" s="30"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="13"/>
       <c r="AB43" s="12"/>
@@ -3319,7 +3239,7 @@
       <c r="AI43" s="8">
         <v>3</v>
       </c>
-      <c r="AJ43" s="31"/>
+      <c r="AJ43" s="30"/>
       <c r="AK43" s="12"/>
       <c r="AL43" s="13"/>
       <c r="AM43" s="12"/>
@@ -3328,7 +3248,7 @@
       <c r="AU43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV43" s="31"/>
+      <c r="AV43" s="30"/>
       <c r="AW43" s="12" t="s">
         <v>5</v>
       </c>
@@ -3343,7 +3263,7 @@
       <c r="A44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="32"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="14" t="s">
         <v>12</v>
       </c>
@@ -3356,7 +3276,7 @@
       <c r="M44" s="8">
         <v>4</v>
       </c>
-      <c r="N44" s="24"/>
+      <c r="N44" s="23"/>
       <c r="O44" s="12"/>
       <c r="P44" s="13"/>
       <c r="Q44" s="12"/>
@@ -3365,7 +3285,7 @@
       <c r="X44" s="8">
         <v>4</v>
       </c>
-      <c r="Y44" s="31"/>
+      <c r="Y44" s="30"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="12"/>
@@ -3374,7 +3294,7 @@
       <c r="AI44" s="8">
         <v>4</v>
       </c>
-      <c r="AJ44" s="37"/>
+      <c r="AJ44" s="36"/>
       <c r="AK44" s="12"/>
       <c r="AL44" s="13"/>
       <c r="AM44" s="12"/>
@@ -3383,7 +3303,7 @@
       <c r="AU44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV44" s="32"/>
+      <c r="AV44" s="31"/>
       <c r="AW44" s="14" t="s">
         <v>15</v>
       </c>
@@ -3395,19 +3315,19 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="24"/>
+      <c r="N45" s="23"/>
       <c r="O45" s="12"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="12"/>
@@ -3416,7 +3336,7 @@
       <c r="X45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y45" s="31"/>
+      <c r="Y45" s="30"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="12"/>
@@ -3425,27 +3345,27 @@
       <c r="AI45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ45" s="31"/>
+      <c r="AJ45" s="30"/>
       <c r="AK45" s="12"/>
       <c r="AL45" s="13"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="43" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="43"/>
-      <c r="AW45" s="43"/>
-      <c r="AX45" s="43"/>
-      <c r="AY45" s="43"/>
-      <c r="AZ45" s="43"/>
-      <c r="BA45" s="43"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="24"/>
+      <c r="N46" s="23"/>
       <c r="O46" s="12"/>
       <c r="P46" s="13"/>
       <c r="Q46" s="12"/>
@@ -3454,7 +3374,7 @@
       <c r="X46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y46" s="31"/>
+      <c r="Y46" s="30"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="12"/>
@@ -3463,7 +3383,7 @@
       <c r="AI46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ46" s="31"/>
+      <c r="AJ46" s="30"/>
       <c r="AK46" s="12"/>
       <c r="AL46" s="13"/>
       <c r="AM46" s="12"/>
@@ -3474,7 +3394,7 @@
       <c r="M47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N47" s="24"/>
+      <c r="N47" s="23"/>
       <c r="O47" s="12"/>
       <c r="P47" s="13"/>
       <c r="Q47" s="12"/>
@@ -3483,7 +3403,7 @@
       <c r="X47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y47" s="32"/>
+      <c r="Y47" s="31"/>
       <c r="Z47" s="14"/>
       <c r="AA47" s="15"/>
       <c r="AB47" s="14"/>
@@ -3492,7 +3412,7 @@
       <c r="AI47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ47" s="32"/>
+      <c r="AJ47" s="31"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="15"/>
       <c r="AM47" s="14"/>
@@ -3500,49 +3420,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="43" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="43"/>
-      <c r="Z48" s="43"/>
-      <c r="AA48" s="43"/>
-      <c r="AB48" s="43"/>
-      <c r="AC48" s="43"/>
-      <c r="AD48" s="43"/>
-      <c r="AI48" s="43" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="43"/>
-      <c r="AK48" s="43"/>
-      <c r="AL48" s="43"/>
-      <c r="AM48" s="43"/>
-      <c r="AN48" s="43"/>
-      <c r="AO48" s="43"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3559,121 +3491,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5577F5C-DEC5-42BE-BE31-B844A1962F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB1D9C7-57D1-4028-9BD8-A8C2399D1EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="55">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Bruins Lead 1-0</t>
+  </si>
+  <si>
+    <t>Panthers Lead 1-0</t>
+  </si>
+  <si>
+    <t>Jets lead 1-0</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1233,7 @@
   <dimension ref="A1:BA49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="BB27" sqref="BB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1272,9 @@
     <col min="49" max="49" width="23.140625" style="1" customWidth="1"/>
     <col min="50" max="50" width="9.140625" style="1"/>
     <col min="51" max="51" width="23.140625" style="1" customWidth="1"/>
-    <col min="52" max="16384" width="9.140625" style="1"/>
+    <col min="52" max="52" width="9.140625" style="1"/>
+    <col min="53" max="53" width="22.7109375" style="1" customWidth="1"/>
+    <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2345,12 +2353,18 @@
       <c r="AW27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AX27" s="11"/>
+      <c r="AX27" s="11">
+        <v>6</v>
+      </c>
       <c r="AY27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AZ27" s="11"/>
-      <c r="BA27" s="5"/>
+      <c r="AZ27" s="11">
+        <v>7</v>
+      </c>
+      <c r="BA27" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="28" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
@@ -2901,12 +2915,18 @@
       <c r="C38" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="11">
+        <v>2</v>
+      </c>
       <c r="E38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="5"/>
+      <c r="F38" s="11">
+        <v>3</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="L38" s="12"/>
       <c r="AQ38" s="12"/>
       <c r="AU38" s="7">

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB1D9C7-57D1-4028-9BD8-A8C2399D1EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="56">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -191,12 +190,15 @@
   </si>
   <si>
     <t>Jets lead 1-0</t>
+  </si>
+  <si>
+    <t>Canucks Lead 1-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -566,43 +568,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,6 +594,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -902,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -995,18 +997,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1035,18 +1037,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1075,14 +1077,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1105,10 +1107,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1127,10 +1129,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1212,16 +1214,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1229,11 +1231,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BB27" sqref="BB27"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AX6" sqref="AX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,124 +1280,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="AI2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AU2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1419,15 +1421,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1526,12 +1528,18 @@
       <c r="AW5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="AX5" s="11"/>
+      <c r="AX5" s="11">
+        <v>2</v>
+      </c>
       <c r="AY5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="5"/>
+      <c r="AZ5" s="11">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
@@ -1649,9 +1657,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1670,9 +1678,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
@@ -1836,15 +1844,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1855,65 +1863,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2093,15 +2101,15 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
@@ -2209,52 +2217,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2278,24 +2286,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="59"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2383,26 +2391,26 @@
       <c r="F28" s="13"/>
       <c r="G28" s="16"/>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2514,9 +2522,9 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="16"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2539,9 +2547,9 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
@@ -2717,15 +2725,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2750,15 +2758,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2787,18 +2795,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -2820,19 +2828,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2857,31 +2865,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="59"/>
+      <c r="AF37" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -2962,33 +2970,33 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3119,9 +3127,9 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3150,9 +3158,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="46"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3335,15 +3343,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3371,15 +3379,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3440,45 +3448,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AI48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3495,125 +3523,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE60A59-5310-4EC2-A804-E156B2152CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="58">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -193,12 +194,18 @@
   </si>
   <si>
     <t>Canucks Lead 1-0</t>
+  </si>
+  <si>
+    <t>Hurricanes Lead 2-0</t>
+  </si>
+  <si>
+    <t>Series Tied 1-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -568,13 +575,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -594,36 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,7 +911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -997,18 +1004,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1037,18 +1044,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1077,14 +1084,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1107,10 +1114,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1129,10 +1136,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1214,16 +1221,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1231,11 +1238,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AX6" sqref="AX6"/>
+    <sheetView tabSelected="1" topLeftCell="AD13" workbookViewId="0">
+      <selection activeCell="AX38" sqref="AX38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,124 +1287,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="AI2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1421,15 +1428,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1657,9 +1664,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1678,9 +1685,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
@@ -1844,15 +1851,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1863,65 +1870,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2023,12 +2030,18 @@
       <c r="C17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="13"/>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
       <c r="E17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="16"/>
+      <c r="F17" s="13">
+        <v>5</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="L17" s="12"/>
       <c r="O17" s="12"/>
       <c r="AN17" s="12"/>
@@ -2101,15 +2114,15 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="55"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
@@ -2217,52 +2230,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="50" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="50" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2286,24 +2299,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2384,33 +2397,39 @@
       <c r="C28" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="13"/>
+      <c r="D28" s="13">
+        <v>3</v>
+      </c>
       <c r="E28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="16"/>
+      <c r="F28" s="13">
+        <v>2</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="50" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2522,9 +2541,9 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="16"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2547,9 +2566,9 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
@@ -2725,15 +2744,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2758,15 +2777,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="50"/>
-      <c r="BA34" s="50"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2795,18 +2814,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -2828,19 +2847,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2865,31 +2884,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="59"/>
-      <c r="AF37" s="50" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -2970,33 +2989,33 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="50" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3127,9 +3146,9 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3158,9 +3177,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3343,15 +3362,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3379,15 +3398,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="50" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3448,49 +3467,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="50" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AI48" s="50" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3507,121 +3538,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE60A59-5310-4EC2-A804-E156B2152CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="60">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -200,12 +199,18 @@
   </si>
   <si>
     <t>Series Tied 1-1</t>
+  </si>
+  <si>
+    <t>Golden Knights Lead 1-0</t>
+  </si>
+  <si>
+    <t>Oilers Lead 1-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -575,43 +580,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -631,6 +606,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,7 +916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1004,18 +1009,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1044,18 +1049,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1084,14 +1089,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1114,10 +1119,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1136,10 +1141,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1221,16 +1226,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1238,11 +1243,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD13" workbookViewId="0">
-      <selection activeCell="AX38" sqref="AX38"/>
+    <sheetView tabSelected="1" topLeftCell="AJ10" workbookViewId="0">
+      <selection activeCell="AX17" sqref="AX17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1282,129 +1287,129 @@
     <col min="50" max="50" width="9.140625" style="1"/>
     <col min="51" max="51" width="23.140625" style="1" customWidth="1"/>
     <col min="52" max="52" width="9.140625" style="1"/>
-    <col min="53" max="53" width="22.7109375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="24.5703125" style="1" customWidth="1"/>
     <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="AI2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AU2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1428,15 +1433,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1664,9 +1669,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1685,9 +1690,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
@@ -1851,15 +1856,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1870,65 +1875,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2013,12 +2018,18 @@
       <c r="AW16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AX16" s="11"/>
+      <c r="AX16" s="11">
+        <v>4</v>
+      </c>
       <c r="AY16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AZ16" s="11"/>
-      <c r="BA16" s="5"/>
+      <c r="AZ16" s="11">
+        <v>7</v>
+      </c>
+      <c r="BA16" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
@@ -2114,15 +2125,15 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
@@ -2230,52 +2241,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2299,24 +2310,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="59"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2410,26 +2421,26 @@
         <v>57</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2541,9 +2552,9 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="16"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2566,9 +2577,9 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
@@ -2744,15 +2755,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2777,15 +2788,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2814,18 +2825,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -2847,19 +2858,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2884,31 +2895,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="59"/>
+      <c r="AF37" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -2965,12 +2976,18 @@
       <c r="AW38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AX38" s="11"/>
+      <c r="AX38" s="11">
+        <v>4</v>
+      </c>
       <c r="AY38" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AZ38" s="11"/>
-      <c r="BA38" s="5"/>
+      <c r="AZ38" s="11">
+        <v>3</v>
+      </c>
+      <c r="BA38" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="39" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
@@ -2989,33 +3006,33 @@
       <c r="F39" s="13"/>
       <c r="G39" s="16"/>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3146,9 +3163,9 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3177,9 +3194,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="46"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3362,15 +3379,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3398,15 +3415,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3467,45 +3484,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AI48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3522,125 +3559,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50BFB8A-B963-4B5D-8A2F-656D1C7E1EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="64">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -205,12 +206,24 @@
   </si>
   <si>
     <t>Oilers Lead 1-0</t>
+  </si>
+  <si>
+    <t>Rangers Lead Series 1-0</t>
+  </si>
+  <si>
+    <t>Rangers Lead Series 2-0</t>
+  </si>
+  <si>
+    <t>OT</t>
+  </si>
+  <si>
+    <t>Panthers Lead 2-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -580,13 +593,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -606,36 +649,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,7 +929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1009,18 +1022,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1049,18 +1062,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1089,14 +1102,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1119,10 +1132,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1141,10 +1154,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1226,16 +1239,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1243,11 +1256,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ10" workbookViewId="0">
-      <selection activeCell="AX17" sqref="AX17"/>
+    <sheetView tabSelected="1" topLeftCell="AD15" workbookViewId="0">
+      <selection activeCell="AX28" sqref="AX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1271,7 @@
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="22.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="21.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" style="1" customWidth="1"/>
     <col min="8" max="13" width="9.140625" style="1"/>
     <col min="14" max="14" width="14.85546875" style="1" customWidth="1"/>
     <col min="15" max="15" width="26" style="1" customWidth="1"/>
@@ -1292,124 +1305,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="AI2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1433,15 +1446,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1495,12 +1508,18 @@
       <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11">
+        <v>1</v>
+      </c>
       <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="5"/>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="M5" s="24" t="s">
         <v>18</v>
       </c>
@@ -1563,12 +1582,18 @@
       <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="13">
+        <v>3</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="16"/>
+      <c r="F6" s="13">
+        <v>4</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
@@ -1669,9 +1694,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1690,9 +1715,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
@@ -1856,15 +1881,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1875,65 +1900,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2125,15 +2150,15 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="55"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
@@ -2241,52 +2266,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="50" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="50" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2310,24 +2335,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2421,26 +2446,26 @@
         <v>57</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="50" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2552,9 +2577,9 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="16"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2577,9 +2602,9 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
@@ -2755,15 +2780,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2788,15 +2813,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="50"/>
-      <c r="BA34" s="50"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2825,18 +2850,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -2858,19 +2883,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2895,31 +2920,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="59"/>
-      <c r="AF37" s="50" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -2999,40 +3024,49 @@
       <c r="C39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="13"/>
+      <c r="D39" s="13">
+        <v>2</v>
+      </c>
       <c r="E39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="16"/>
+      <c r="F39" s="13">
+        <v>3</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="50" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3163,9 +3197,9 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3194,9 +3228,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3379,15 +3413,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3415,15 +3449,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="50" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3484,49 +3518,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="50" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AI48" s="50" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3543,121 +3589,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50BFB8A-B963-4B5D-8A2F-656D1C7E1EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="64">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -223,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -593,43 +592,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,6 +618,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1022,18 +1021,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1062,18 +1061,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1102,14 +1101,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1132,10 +1131,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1154,10 +1153,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1239,16 +1238,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1256,11 +1255,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD15" workbookViewId="0">
-      <selection activeCell="AX28" sqref="AX28"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AX7" sqref="AX7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,124 +1304,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="AI2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AU2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1446,15 +1445,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1621,12 +1620,18 @@
       <c r="AW6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AX6" s="13"/>
+      <c r="AX6" s="13">
+        <v>4</v>
+      </c>
       <c r="AY6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="16"/>
+      <c r="AZ6" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
@@ -1694,9 +1699,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1715,9 +1720,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
@@ -1881,15 +1886,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1900,65 +1905,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2150,15 +2155,15 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
@@ -2266,52 +2271,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2335,24 +2340,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="59"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2446,26 +2451,26 @@
         <v>57</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2476,12 +2481,18 @@
       <c r="AW28" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AX28" s="13"/>
+      <c r="AX28" s="13">
+        <v>5</v>
+      </c>
       <c r="AY28" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AZ28" s="13"/>
-      <c r="BA28" s="16"/>
+      <c r="AZ28" s="13">
+        <v>2</v>
+      </c>
+      <c r="BA28" s="16" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="29" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
@@ -2577,9 +2588,9 @@
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="16"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2602,9 +2613,9 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
@@ -2780,15 +2791,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2813,15 +2824,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2850,18 +2861,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -2883,19 +2894,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2920,31 +2931,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="59"/>
+      <c r="AF37" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3040,33 +3051,33 @@
         <v>62</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3197,9 +3208,9 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3228,9 +3239,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="46"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3413,15 +3424,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3449,15 +3460,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3518,45 +3529,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AI48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3573,125 +3604,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F589AF6-825F-4028-B561-857D39ACC14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="65">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -217,12 +218,15 @@
   </si>
   <si>
     <t>Panthers Lead 2-0</t>
+  </si>
+  <si>
+    <t>Bruins Lead 2-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -592,13 +596,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,36 +652,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -928,7 +932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1021,18 +1025,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1061,18 +1065,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1101,14 +1105,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1131,10 +1135,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1153,10 +1157,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1238,16 +1242,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1255,11 +1259,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BA49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AX7" sqref="AX7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,124 +1308,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="AI2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1445,15 +1449,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1699,9 +1703,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1720,9 +1724,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
@@ -1886,15 +1890,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1905,65 +1909,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2155,15 +2159,15 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="55"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
@@ -2271,52 +2275,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="50" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="50" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2340,24 +2344,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2451,26 +2455,26 @@
         <v>57</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="50" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2504,12 +2508,18 @@
       <c r="C29" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="13">
+        <v>4</v>
+      </c>
       <c r="E29" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="16"/>
+      <c r="F29" s="13">
+        <v>2</v>
+      </c>
+      <c r="G29" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="O29" s="12"/>
       <c r="P29" s="24" t="s">
         <v>18</v>
@@ -2576,21 +2586,21 @@
       <c r="A30" s="8">
         <v>4</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="36">
         <v>45409</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="34"/>
+      <c r="E30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="16"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2613,9 +2623,9 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
@@ -2791,15 +2801,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2824,15 +2834,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="50"/>
-      <c r="BA34" s="50"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2861,18 +2871,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -2894,19 +2904,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2931,31 +2941,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="59"/>
-      <c r="AF37" s="50" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3051,33 +3061,33 @@
         <v>62</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="50" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3208,9 +3218,9 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3239,9 +3249,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3424,15 +3434,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3460,15 +3470,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="50" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3529,49 +3539,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="50" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AI48" s="50" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3588,121 +3610,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F589AF6-825F-4028-B561-857D39ACC14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="66">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -221,12 +220,15 @@
   </si>
   <si>
     <t>Bruins Lead 2-1</t>
+  </si>
+  <si>
+    <t>Golden Knights Lead 2-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -596,43 +598,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,6 +624,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -932,7 +934,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1025,18 +1027,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1065,18 +1067,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1105,14 +1107,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1135,10 +1137,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1157,10 +1159,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1242,16 +1244,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1259,11 +1261,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BA49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="AJ10" workbookViewId="0">
+      <selection activeCell="AX18" sqref="AX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1308,124 +1310,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="AI2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AU2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1449,15 +1451,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1703,9 +1705,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1724,9 +1726,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
@@ -1890,15 +1892,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1909,65 +1911,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2065,7 +2067,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>2</v>
       </c>
@@ -2100,14 +2102,23 @@
       <c r="AW17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AX17" s="13"/>
+      <c r="AX17" s="13">
+        <v>5</v>
+      </c>
       <c r="AY17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AZ17" s="13"/>
-      <c r="BA17" s="16"/>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AZ17" s="13">
+        <v>4</v>
+      </c>
+      <c r="BA17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BB17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>3</v>
       </c>
@@ -2143,7 +2154,7 @@
       <c r="AZ18" s="13"/>
       <c r="BA18" s="16"/>
     </row>
-    <row r="19" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:54" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
         <v>4</v>
       </c>
@@ -2159,15 +2170,15 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
@@ -2184,7 +2195,7 @@
       <c r="AZ19" s="13"/>
       <c r="BA19" s="16"/>
     </row>
-    <row r="20" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
@@ -2214,7 +2225,7 @@
       <c r="AZ20" s="13"/>
       <c r="BA20" s="16"/>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
@@ -2244,7 +2255,7 @@
       <c r="AZ21" s="13"/>
       <c r="BA21" s="16"/>
     </row>
-    <row r="22" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
@@ -2274,55 +2285,55 @@
       <c r="AZ22" s="15"/>
       <c r="BA22" s="6"/>
     </row>
-    <row r="23" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+    <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
-    </row>
-    <row r="24" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
+    </row>
+    <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
-    <row r="25" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
-    </row>
-    <row r="26" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
+    </row>
+    <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2344,24 +2355,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="59"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2384,7 +2395,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>1</v>
       </c>
@@ -2432,7 +2443,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>2</v>
       </c>
@@ -2455,26 +2466,26 @@
         <v>57</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2498,7 +2509,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>3</v>
       </c>
@@ -2582,7 +2593,7 @@
       <c r="AZ29" s="13"/>
       <c r="BA29" s="16"/>
     </row>
-    <row r="30" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
         <v>4</v>
       </c>
@@ -2598,9 +2609,9 @@
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="35"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2623,9 +2634,9 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
@@ -2642,7 +2653,7 @@
       <c r="AZ30" s="13"/>
       <c r="BA30" s="16"/>
     </row>
-    <row r="31" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
@@ -2696,7 +2707,7 @@
       <c r="AZ31" s="13"/>
       <c r="BA31" s="16"/>
     </row>
-    <row r="32" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
@@ -2801,15 +2812,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2834,15 +2845,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2871,18 +2882,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -2904,19 +2915,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2941,31 +2952,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="59"/>
+      <c r="AF37" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3061,33 +3072,33 @@
         <v>62</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3098,12 +3109,18 @@
       <c r="AW39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AX39" s="13"/>
+      <c r="AX39" s="13">
+        <v>3</v>
+      </c>
       <c r="AY39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AZ39" s="13"/>
-      <c r="BA39" s="16"/>
+      <c r="AZ39" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA39" s="16" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="40" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
@@ -3218,9 +3235,9 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3249,9 +3266,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="46"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3434,15 +3451,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3470,15 +3487,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3539,45 +3556,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AI48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3594,125 +3631,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83D4BC-0523-4496-A7F8-899375FE12BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="68">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -223,12 +224,18 @@
   </si>
   <si>
     <t>Golden Knights Lead 2-0</t>
+  </si>
+  <si>
+    <t>Hurricanes Lead 3-0</t>
+  </si>
+  <si>
+    <t>Panthers Lead 3-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -598,13 +605,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -624,36 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -934,11 +941,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,18 +1034,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1067,18 +1074,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1088,7 +1095,6 @@
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1101,20 +1107,22 @@
       <c r="B15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1123,7 +1131,9 @@
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1137,10 +1147,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1159,10 +1169,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1244,16 +1254,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1261,11 +1271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ10" workbookViewId="0">
-      <selection activeCell="AX18" sqref="AX18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,124 +1320,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="AI2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1451,15 +1461,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1705,9 +1715,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1726,9 +1736,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
@@ -1892,15 +1902,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1911,65 +1921,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2128,12 +2138,18 @@
       <c r="C18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13">
+        <v>3</v>
+      </c>
       <c r="E18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="16"/>
+      <c r="F18" s="13">
+        <v>2</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="L18" s="12"/>
       <c r="O18" s="12"/>
       <c r="AN18" s="12"/>
@@ -2170,15 +2186,15 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="55"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
@@ -2286,52 +2302,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="50" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="50" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2355,24 +2371,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2466,26 +2482,26 @@
         <v>57</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="50" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2609,9 +2625,9 @@
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="35"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2634,9 +2650,9 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
@@ -2812,15 +2828,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2845,15 +2861,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="50"/>
-      <c r="BA34" s="50"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2882,18 +2898,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -2915,19 +2931,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2952,31 +2968,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="59"/>
-      <c r="AF37" s="50" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3072,33 +3088,33 @@
         <v>62</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="50" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3132,12 +3148,18 @@
       <c r="C40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D40" s="13"/>
+      <c r="D40" s="13">
+        <v>5</v>
+      </c>
       <c r="E40" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F40" s="13"/>
-      <c r="G40" s="16"/>
+      <c r="F40" s="13">
+        <v>3</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="L40" s="12"/>
       <c r="M40" s="24" t="s">
         <v>18</v>
@@ -3235,9 +3257,9 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3266,9 +3288,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3451,15 +3473,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3487,15 +3509,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="50" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3556,49 +3578,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="50" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AI48" s="50" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3615,121 +3649,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E83D4BC-0523-4496-A7F8-899375FE12BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FA7136-1828-40C9-9A92-9A07D22A54FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="72">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Panthers Lead 1-0</t>
   </si>
   <si>
-    <t>Jets lead 1-0</t>
-  </si>
-  <si>
     <t>Canucks Lead 1-0</t>
   </si>
   <si>
@@ -230,6 +227,21 @@
   </si>
   <si>
     <t>Panthers Lead 3-0</t>
+  </si>
+  <si>
+    <t>Rangers Lead Series 3-0</t>
+  </si>
+  <si>
+    <t>Canucks Lead 2-1</t>
+  </si>
+  <si>
+    <t>Avalanche Lead 2-1</t>
+  </si>
+  <si>
+    <t>Jets Lead 1-0</t>
+  </si>
+  <si>
+    <t>Oilers Lead 2-1</t>
   </si>
 </sst>
 </file>
@@ -605,43 +617,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +643,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -945,7 +957,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,18 +1046,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1074,18 +1086,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1094,6 +1106,9 @@
       </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -1115,14 +1130,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1147,10 +1162,10 @@
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1169,10 +1184,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1254,16 +1269,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1274,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="BA19" sqref="BA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1320,124 +1335,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="AI2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AU2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1461,15 +1476,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1533,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M5" s="24" t="s">
         <v>18</v>
@@ -1584,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="BA5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1607,7 +1622,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1646,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="BA6" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:53" x14ac:dyDescent="0.25">
@@ -1659,12 +1674,18 @@
       <c r="C7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="13">
+        <v>3</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>67</v>
+      </c>
       <c r="M7" s="8">
         <v>2</v>
       </c>
@@ -1692,12 +1713,18 @@
       <c r="AW7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AX7" s="13"/>
+      <c r="AX7" s="13">
+        <v>2</v>
+      </c>
       <c r="AY7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AZ7" s="13"/>
-      <c r="BA7" s="16"/>
+      <c r="AZ7" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
@@ -1715,9 +1742,9 @@
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="16"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1736,9 +1763,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AU8" s="8">
         <v>4</v>
       </c>
@@ -1902,15 +1929,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1921,65 +1948,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2074,7 +2101,7 @@
         <v>7</v>
       </c>
       <c r="BA16" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:54" x14ac:dyDescent="0.25">
@@ -2097,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L17" s="12"/>
       <c r="O17" s="12"/>
@@ -2122,10 +2149,10 @@
         <v>4</v>
       </c>
       <c r="BA17" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
@@ -2148,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L18" s="12"/>
       <c r="O18" s="12"/>
@@ -2163,12 +2190,18 @@
       <c r="AW18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AX18" s="13"/>
+      <c r="AX18" s="13">
+        <v>6</v>
+      </c>
       <c r="AY18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AZ18" s="13"/>
-      <c r="BA18" s="16"/>
+      <c r="AZ18" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA18" s="16" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="19" spans="1:54" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8">
@@ -2186,15 +2219,15 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
       <c r="AU19" s="8">
         <v>4</v>
       </c>
@@ -2302,52 +2335,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2371,24 +2404,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="59"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2456,7 +2489,7 @@
         <v>7</v>
       </c>
       <c r="BA27" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2479,29 +2512,29 @@
         <v>2</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2522,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="BA28" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2545,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="24" t="s">
@@ -2602,12 +2635,18 @@
       <c r="AW29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AX29" s="13"/>
+      <c r="AX29" s="13">
+        <v>2</v>
+      </c>
       <c r="AY29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AZ29" s="13"/>
-      <c r="BA29" s="16"/>
+      <c r="AZ29" s="13">
+        <v>6</v>
+      </c>
+      <c r="BA29" s="16" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="30" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8">
@@ -2625,9 +2664,9 @@
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="35"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2650,9 +2689,9 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AQ30" s="51"/>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
       <c r="AU30" s="8">
         <v>4</v>
       </c>
@@ -2828,15 +2867,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2861,15 +2900,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
     </row>
     <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2898,18 +2937,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -2931,19 +2970,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -2968,31 +3007,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="59"/>
+      <c r="AF37" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3059,7 +3098,7 @@
         <v>3</v>
       </c>
       <c r="BA38" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3082,39 +3121,39 @@
         <v>3</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3135,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="BA39" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3158,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="24" t="s">
@@ -3257,9 +3296,9 @@
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="16"/>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3288,9 +3327,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="46"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AQ41" s="55"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3473,15 +3512,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3509,15 +3548,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
     </row>
     <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3578,45 +3617,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AI48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3633,34 +3692,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FA7136-1828-40C9-9A92-9A07D22A54FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3C9A3-22FC-4054-AE66-ACE3E8F72995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="75">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -242,6 +242,15 @@
   </si>
   <si>
     <t>Oilers Lead 2-1</t>
+  </si>
+  <si>
+    <t>Panthers Lead 3-1</t>
+  </si>
+  <si>
+    <t>Bruins Lead 3-1</t>
+  </si>
+  <si>
+    <t>Golden Knights Lead 2-1</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="BA19" sqref="BA19"/>
+    <sheetView tabSelected="1" topLeftCell="AE16" workbookViewId="0">
+      <selection activeCell="AW41" sqref="AW41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2658,12 +2667,18 @@
       <c r="C30" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="34">
+        <v>3</v>
+      </c>
       <c r="E30" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
+      <c r="F30" s="34">
+        <v>1</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>73</v>
+      </c>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
       <c r="K30" s="51"/>
@@ -2814,7 +2829,7 @@
       <c r="AZ32" s="13"/>
       <c r="BA32" s="16"/>
     </row>
-    <row r="33" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
@@ -2866,7 +2881,7 @@
       <c r="AZ33" s="15"/>
       <c r="BA33" s="6"/>
     </row>
-    <row r="34" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
@@ -2910,7 +2925,7 @@
       <c r="AZ34" s="50"/>
       <c r="BA34" s="50"/>
     </row>
-    <row r="35" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="8" t="s">
@@ -2936,7 +2951,7 @@
       <c r="AN35" s="12"/>
       <c r="AQ35" s="12"/>
     </row>
-    <row r="36" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
@@ -2984,7 +2999,7 @@
       <c r="AZ36" s="50"/>
       <c r="BA36" s="50"/>
     </row>
-    <row r="37" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>18</v>
       </c>
@@ -3055,7 +3070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1</v>
       </c>
@@ -3101,7 +3116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>2</v>
       </c>
@@ -3177,7 +3192,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>3</v>
       </c>
@@ -3273,29 +3288,44 @@
       <c r="AW40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AX40" s="13"/>
+      <c r="AX40" s="13">
+        <v>3</v>
+      </c>
       <c r="AY40" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AZ40" s="13"/>
-      <c r="BA40" s="16"/>
-    </row>
-    <row r="41" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="AZ40" s="13">
+        <v>2</v>
+      </c>
+      <c r="BA40" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB40" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8">
         <v>4</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="36">
         <v>45409</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="34">
+        <v>3</v>
+      </c>
+      <c r="E41" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="16"/>
+      <c r="F41" s="34">
+        <v>6</v>
+      </c>
+      <c r="G41" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="I41" s="51"/>
       <c r="J41" s="51"/>
       <c r="K41" s="51"/>
@@ -3333,20 +3363,20 @@
       <c r="AU41" s="8">
         <v>4</v>
       </c>
-      <c r="AV41" s="30">
+      <c r="AV41" s="36">
         <v>45411</v>
       </c>
-      <c r="AW41" s="12" t="s">
+      <c r="AW41" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AX41" s="13"/>
-      <c r="AY41" s="12" t="s">
+      <c r="AX41" s="34"/>
+      <c r="AY41" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AZ41" s="13"/>
-      <c r="BA41" s="16"/>
-    </row>
-    <row r="42" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AZ41" s="34"/>
+      <c r="BA41" s="35"/>
+    </row>
+    <row r="42" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>27</v>
       </c>
@@ -3401,7 +3431,7 @@
       <c r="AZ42" s="13"/>
       <c r="BA42" s="16"/>
     </row>
-    <row r="43" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>26</v>
       </c>
@@ -3456,7 +3486,7 @@
       <c r="AZ43" s="13"/>
       <c r="BA43" s="16"/>
     </row>
-    <row r="44" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>28</v>
       </c>
@@ -3511,7 +3541,7 @@
       <c r="AZ44" s="15"/>
       <c r="BA44" s="6"/>
     </row>
-    <row r="45" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
@@ -3558,7 +3588,7 @@
       <c r="AZ45" s="50"/>
       <c r="BA45" s="50"/>
     </row>
-    <row r="46" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
         <v>26</v>
       </c>
@@ -3587,7 +3617,7 @@
       <c r="AN46" s="13"/>
       <c r="AO46" s="16"/>
     </row>
-    <row r="47" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M47" s="8" t="s">
         <v>28</v>
       </c>
@@ -3616,7 +3646,7 @@
       <c r="AN47" s="15"/>
       <c r="AO47" s="6"/>
     </row>
-    <row r="48" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M48" s="44" t="s">
         <v>29</v>
       </c>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B3C9A3-22FC-4054-AE66-ACE3E8F72995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="79">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -251,12 +250,24 @@
   </si>
   <si>
     <t>Golden Knights Lead 2-1</t>
+  </si>
+  <si>
+    <t>Avalanche Lead 3-1</t>
+  </si>
+  <si>
+    <t>Canucks Lead 3-1</t>
+  </si>
+  <si>
+    <t>Oilers Lead 3-1</t>
+  </si>
+  <si>
+    <t>Rangers Win Series 4-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -504,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -626,13 +637,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,35 +694,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -962,11 +976,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,18 +1069,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1095,18 +1109,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1119,7 +1133,9 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
@@ -1134,19 +1150,21 @@
       <c r="C15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1168,13 +1186,15 @@
         <v>15</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1193,10 +1213,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1278,16 +1298,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1295,11 +1315,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE16" workbookViewId="0">
-      <selection activeCell="AW41" sqref="AW41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,127 +1363,127 @@
     <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
-    </row>
-    <row r="2" spans="1:53" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
+    </row>
+    <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="AI2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
-    </row>
-    <row r="3" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
+    </row>
+    <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
-    </row>
-    <row r="4" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
+    </row>
+    <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1485,15 +1505,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1537,7 +1557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -1611,7 +1631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -1673,7 +1693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
@@ -1735,7 +1755,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:54" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8">
         <v>4</v>
       </c>
@@ -1745,15 +1765,23 @@
       <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13">
+        <v>4</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="F8" s="13">
+        <v>2</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1772,26 +1800,35 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="51"/>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AU8" s="8">
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AU8" s="60">
         <v>4</v>
       </c>
-      <c r="AV8" s="30">
+      <c r="AV8" s="36">
         <v>45410</v>
       </c>
-      <c r="AW8" s="12" t="s">
+      <c r="AW8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="12" t="s">
+      <c r="AX8" s="34">
+        <v>4</v>
+      </c>
+      <c r="AY8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="16"/>
-    </row>
-    <row r="9" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AZ8" s="34">
+        <v>3</v>
+      </c>
+      <c r="BA8" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1841,7 +1878,7 @@
       <c r="AZ9" s="13"/>
       <c r="BA9" s="16"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
@@ -1889,7 +1926,7 @@
       <c r="AZ10" s="13"/>
       <c r="BA10" s="16"/>
     </row>
-    <row r="11" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
@@ -1937,16 +1974,16 @@
       <c r="AZ11" s="15"/>
       <c r="BA11" s="6"/>
     </row>
-    <row r="12" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+    <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1957,67 +1994,67 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-    </row>
-    <row r="13" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
+    </row>
+    <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
-    <row r="14" spans="1:53" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+    <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
-    </row>
-    <row r="15" spans="1:53" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
+    </row>
+    <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -2065,7 +2102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1</v>
       </c>
@@ -2228,30 +2265,36 @@
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="16"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="55"/>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
-      <c r="AU19" s="8">
+      <c r="AQ19" s="46"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AU19" s="60">
         <v>4</v>
       </c>
-      <c r="AV19" s="30">
+      <c r="AV19" s="36">
         <v>45410</v>
       </c>
-      <c r="AW19" s="12" t="s">
+      <c r="AW19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AX19" s="13"/>
-      <c r="AY19" s="12" t="s">
+      <c r="AX19" s="34">
+        <v>1</v>
+      </c>
+      <c r="AY19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="AZ19" s="13"/>
-      <c r="BA19" s="16"/>
+      <c r="AZ19" s="34">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="35" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
@@ -2344,52 +2387,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="50" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="50" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2413,24 +2456,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2524,26 +2567,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="50" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2679,9 +2722,9 @@
       <c r="G30" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2704,24 +2747,30 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="51"/>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
-      <c r="AU30" s="8">
+      <c r="AQ30" s="45"/>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AU30" s="60">
         <v>4</v>
       </c>
-      <c r="AV30" s="30">
+      <c r="AV30" s="36">
         <v>45410</v>
       </c>
-      <c r="AW30" s="12" t="s">
+      <c r="AW30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="AX30" s="13"/>
-      <c r="AY30" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ30" s="13"/>
-      <c r="BA30" s="16"/>
+      <c r="AX30" s="34">
+        <v>1</v>
+      </c>
+      <c r="AY30" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ30" s="34">
+        <v>5</v>
+      </c>
+      <c r="BA30" s="35" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="31" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
@@ -2882,15 +2931,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2915,15 +2964,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="50"/>
-      <c r="BA34" s="50"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -2952,18 +3001,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -2985,19 +3034,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3022,31 +3071,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="59"/>
-      <c r="AF37" s="50" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3142,33 +3191,33 @@
         <v>61</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="50" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3326,9 +3375,9 @@
       <c r="G41" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3357,9 +3406,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="55"/>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3542,15 +3591,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3578,15 +3627,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="50" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3647,49 +3696,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="50" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AI48" s="50" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3706,121 +3767,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="83">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -262,6 +262,18 @@
   </si>
   <si>
     <t>Rangers Win Series 4-0</t>
+  </si>
+  <si>
+    <t>Panthers Win Series 4-1</t>
+  </si>
+  <si>
+    <t>Series Tied 2-2</t>
+  </si>
+  <si>
+    <t>Hurricanes Lead 3-1</t>
+  </si>
+  <si>
+    <t>2OT</t>
   </si>
 </sst>
 </file>
@@ -637,43 +649,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,8 +679,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,18 +1081,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1298,16 +1310,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1318,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19:K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,124 +1376,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="Z1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="55"/>
+      <c r="AF1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="55"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="M2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="AI2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="59"/>
+      <c r="AU2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="59"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="AI3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1505,15 +1517,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1777,11 +1789,11 @@
       <c r="G8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1800,10 +1812,10 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AU8" s="60">
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
+      <c r="AU8" s="41">
         <v>4</v>
       </c>
       <c r="AV8" s="36">
@@ -1867,7 +1879,9 @@
       <c r="AU9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV9" s="30"/>
+      <c r="AV9" s="30">
+        <v>45412</v>
+      </c>
       <c r="AW9" s="12" t="s">
         <v>11</v>
       </c>
@@ -1975,15 +1989,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -1994,65 +2008,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2253,28 +2267,37 @@
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="30">
+      <c r="B19" s="36">
         <v>45409</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="34">
+        <v>2</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="16"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="F19" s="34">
+        <v>3</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AU19" s="60">
+      <c r="AQ19" s="56"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
+      <c r="AU19" s="41">
         <v>4</v>
       </c>
       <c r="AV19" s="36">
@@ -2300,7 +2323,9 @@
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="30"/>
+      <c r="B20" s="30">
+        <v>45412</v>
+      </c>
       <c r="C20" s="12" t="s">
         <v>8</v>
       </c>
@@ -2387,52 +2412,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2456,24 +2481,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="60"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2567,26 +2592,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="47"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2722,9 +2747,9 @@
       <c r="G30" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2747,10 +2772,10 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45"/>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
-      <c r="AU30" s="60">
+      <c r="AQ30" s="52"/>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
+      <c r="AU30" s="41">
         <v>4</v>
       </c>
       <c r="AV30" s="36">
@@ -2776,7 +2801,9 @@
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="30"/>
+      <c r="B31" s="30">
+        <v>45412</v>
+      </c>
       <c r="C31" s="12" t="s">
         <v>14</v>
       </c>
@@ -2815,7 +2842,9 @@
       <c r="AU31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV31" s="30"/>
+      <c r="AV31" s="30">
+        <v>45412</v>
+      </c>
       <c r="AW31" s="12" t="s">
         <v>3</v>
       </c>
@@ -2931,15 +2960,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2964,15 +2993,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3001,18 +3030,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3034,19 +3063,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="52"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="51"/>
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3071,31 +3100,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="50"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="60"/>
+      <c r="AF37" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3191,33 +3220,33 @@
         <v>61</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="47"/>
+      <c r="X39" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AI39" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3375,9 +3404,11 @@
       <c r="G41" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="45"/>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="I41" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3406,9 +3437,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="46"/>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AQ41" s="56"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3418,27 +3449,41 @@
       <c r="AW41" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="AX41" s="34"/>
+      <c r="AX41" s="34">
+        <v>4</v>
+      </c>
       <c r="AY41" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="AZ41" s="34"/>
-      <c r="BA41" s="35"/>
+      <c r="AZ41" s="34">
+        <v>2</v>
+      </c>
+      <c r="BA41" s="35" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="42" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="30"/>
+      <c r="B42" s="30">
+        <v>45411</v>
+      </c>
       <c r="C42" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="13"/>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
       <c r="E42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="16"/>
+      <c r="F42" s="13">
+        <v>6</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="M42" s="8">
         <v>2</v>
       </c>
@@ -3591,15 +3636,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3627,15 +3672,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="51"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="51"/>
+      <c r="AY45" s="51"/>
+      <c r="AZ45" s="51"/>
+      <c r="BA45" s="51"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3696,45 +3741,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="47"/>
+      <c r="X48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AI48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3751,34 +3816,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="87">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -274,6 +274,18 @@
   </si>
   <si>
     <t>2OT</t>
+  </si>
+  <si>
+    <t>Bruins Lead 3-2</t>
+  </si>
+  <si>
+    <t>Hurricanes Win Series 4-1</t>
+  </si>
+  <si>
+    <t>Avalanche Win Series 4-1</t>
+  </si>
+  <si>
+    <t>Canucks Lead 3-2</t>
   </si>
 </sst>
 </file>
@@ -652,13 +664,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,36 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1081,18 +1093,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1121,18 +1133,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1169,14 +1181,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1203,10 +1215,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1225,10 +1237,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1310,16 +1322,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1330,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="AJ16" workbookViewId="0">
+      <selection activeCell="AX20" sqref="AX20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,129 +1383,129 @@
     <col min="50" max="50" width="9.140625" style="1"/>
     <col min="51" max="51" width="23.140625" style="1" customWidth="1"/>
     <col min="52" max="52" width="9.140625" style="1"/>
-    <col min="53" max="53" width="24.5703125" style="1" customWidth="1"/>
+    <col min="53" max="53" width="26.140625" style="1" customWidth="1"/>
     <col min="54" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55"/>
-      <c r="Z1" s="53" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="55"/>
-      <c r="AF1" s="53" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="55"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="M2" s="57" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="M2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
-      <c r="AI2" s="57" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="AI2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="59"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AU2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="59"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="AI3" s="51" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="AI3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="51" t="s">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AU3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1517,15 +1529,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1789,11 +1801,11 @@
       <c r="G8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1812,9 +1824,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
       <c r="AU8" s="41">
         <v>4</v>
       </c>
@@ -1885,12 +1897,18 @@
       <c r="AW9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AX9" s="13"/>
+      <c r="AX9" s="13">
+        <v>2</v>
+      </c>
       <c r="AY9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="16"/>
+      <c r="AZ9" s="13">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="35" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1989,15 +2007,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2008,65 +2026,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="51" t="s">
+      <c r="AI12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="51" t="s">
+      <c r="AU12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="51" t="s">
+      <c r="AU14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2288,15 +2306,17 @@
       <c r="H19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="I19" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
       <c r="AU19" s="41">
         <v>4</v>
       </c>
@@ -2329,18 +2349,26 @@
       <c r="C20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="13"/>
+      <c r="D20" s="13">
+        <v>3</v>
+      </c>
       <c r="E20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="16"/>
+      <c r="F20" s="13">
+        <v>6</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="O20" s="12"/>
       <c r="AN20" s="12"/>
       <c r="AU20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV20" s="30"/>
+      <c r="AV20" s="30">
+        <v>45413</v>
+      </c>
       <c r="AW20" s="12" t="s">
         <v>9</v>
       </c>
@@ -2412,52 +2440,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="51" t="s">
+      <c r="AU23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="51" t="s">
+      <c r="AU25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2481,24 +2509,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="60"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="51"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2592,26 +2620,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="45" t="s">
+      <c r="P28" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="47"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="57"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="51" t="s">
+      <c r="AF28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2747,9 +2775,9 @@
       <c r="G30" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2772,9 +2800,11 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="52"/>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
+      <c r="AQ30" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
       <c r="AU30" s="41">
         <v>4</v>
       </c>
@@ -2807,12 +2837,21 @@
       <c r="C31" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="13">
+        <v>2</v>
+      </c>
       <c r="E31" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="16"/>
+      <c r="F31" s="13">
+        <v>1</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="8">
@@ -2848,12 +2887,18 @@
       <c r="AW31" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AX31" s="13"/>
+      <c r="AX31" s="13">
+        <v>6</v>
+      </c>
       <c r="AY31" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="AZ31" s="13"/>
-      <c r="BA31" s="16"/>
+      <c r="AZ31" s="13">
+        <v>3</v>
+      </c>
+      <c r="BA31" s="16" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
@@ -2960,15 +3005,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -2993,15 +3038,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="51" t="s">
+      <c r="AU34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3030,18 +3075,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3063,19 +3108,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="51" t="s">
+      <c r="AU36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="51"/>
-      <c r="AZ36" s="51"/>
-      <c r="BA36" s="51"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="45"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3100,31 +3145,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="48" t="s">
+      <c r="P37" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="50"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="60"/>
-      <c r="AF37" s="51" t="s">
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="60"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="51"/>
+      <c r="AF37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3220,33 +3265,33 @@
         <v>61</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="47"/>
-      <c r="X39" s="51" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="X39" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AI39" s="51" t="s">
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AI39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="45"/>
+      <c r="AN39" s="45"/>
+      <c r="AO39" s="45"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3404,11 +3449,11 @@
       <c r="G41" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3437,9 +3482,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="56"/>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="52"/>
+      <c r="AQ41" s="47"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="46"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3514,7 +3559,9 @@
       <c r="AU42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV42" s="30"/>
+      <c r="AV42" s="30">
+        <v>45413</v>
+      </c>
       <c r="AW42" s="12" t="s">
         <v>15</v>
       </c>
@@ -3636,15 +3683,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3672,15 +3719,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="51" t="s">
+      <c r="AU45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="51"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="51"/>
-      <c r="AY45" s="51"/>
-      <c r="AZ45" s="51"/>
-      <c r="BA45" s="51"/>
+      <c r="AV45" s="45"/>
+      <c r="AW45" s="45"/>
+      <c r="AX45" s="45"/>
+      <c r="AY45" s="45"/>
+      <c r="AZ45" s="45"/>
+      <c r="BA45" s="45"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3741,49 +3788,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="45" t="s">
+      <c r="M48" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="47"/>
-      <c r="X48" s="51" t="s">
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="57"/>
+      <c r="X48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AI48" s="51" t="s">
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AI48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="51"/>
-      <c r="AK48" s="51"/>
-      <c r="AL48" s="51"/>
-      <c r="AM48" s="51"/>
-      <c r="AN48" s="51"/>
-      <c r="AO48" s="51"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3800,30 +3859,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="89">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>Canucks Lead 3-2</t>
+  </si>
+  <si>
+    <t>Oilers Win Series 4-1</t>
+  </si>
+  <si>
+    <t>Stars Lead Series 3-2</t>
   </si>
 </sst>
 </file>
@@ -664,43 +670,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,6 +696,36 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1093,18 +1099,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1133,18 +1139,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1181,14 +1187,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1215,10 +1221,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1237,10 +1243,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1322,16 +1328,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1342,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ16" workbookViewId="0">
-      <selection activeCell="AX20" sqref="AX20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,124 +1394,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="Z1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="55"/>
+      <c r="AF1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="55"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="M2" s="48" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="M2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-      <c r="AI2" s="48" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="AI2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="50"/>
-      <c r="AU2" s="48" t="s">
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="59"/>
+      <c r="AU2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="50"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="59"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="AI3" s="45" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="AI3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1529,15 +1535,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="57"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1801,11 +1807,11 @@
       <c r="G8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1824,9 +1830,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
       <c r="AU8" s="41">
         <v>4</v>
       </c>
@@ -2007,15 +2013,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2026,65 +2032,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="45" t="s">
+      <c r="AI12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="45" t="s">
+      <c r="AU12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="45" t="s">
+      <c r="AU14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2306,17 +2312,19 @@
       <c r="H19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="46" t="s">
+      <c r="I19" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
+      <c r="AQ19" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
       <c r="AU19" s="41">
         <v>4</v>
       </c>
@@ -2372,12 +2380,18 @@
       <c r="AW20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AX20" s="13"/>
+      <c r="AX20" s="13">
+        <v>3</v>
+      </c>
       <c r="AY20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AZ20" s="13"/>
-      <c r="BA20" s="16"/>
+      <c r="AZ20" s="13">
+        <v>4</v>
+      </c>
+      <c r="BA20" s="16" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
@@ -2440,52 +2454,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="45" t="s">
+      <c r="AU23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="45" t="s">
+      <c r="AU25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2509,24 +2523,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="47"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="51"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="60"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2620,26 +2634,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="55" t="s">
+      <c r="P28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="57"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="47"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="45" t="s">
+      <c r="AF28" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2775,9 +2789,9 @@
       <c r="G30" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2800,11 +2814,11 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="46"/>
-      <c r="AS30" s="46"/>
+      <c r="AQ30" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
       <c r="AU30" s="41">
         <v>4</v>
       </c>
@@ -2904,7 +2918,9 @@
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="30"/>
+      <c r="B32" s="30">
+        <v>45414</v>
+      </c>
       <c r="C32" s="12" t="s">
         <v>2</v>
       </c>
@@ -3005,15 +3021,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3038,15 +3054,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="45" t="s">
+      <c r="AU34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3075,18 +3091,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3108,19 +3124,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="52"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="45" t="s">
+      <c r="AU36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="45"/>
-      <c r="AW36" s="45"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="45"/>
-      <c r="BA36" s="45"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="51"/>
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3145,31 +3161,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="58" t="s">
+      <c r="P37" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="60"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="51"/>
-      <c r="AF37" s="45" t="s">
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="50"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="60"/>
+      <c r="AF37" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3265,33 +3281,33 @@
         <v>61</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57"/>
-      <c r="X39" s="45" t="s">
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="47"/>
+      <c r="X39" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AI39" s="45" t="s">
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AI39" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="45"/>
-      <c r="AK39" s="45"/>
-      <c r="AL39" s="45"/>
-      <c r="AM39" s="45"/>
-      <c r="AN39" s="45"/>
-      <c r="AO39" s="45"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3449,11 +3465,11 @@
       <c r="G41" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="46" t="s">
+      <c r="I41" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3482,9 +3498,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="46"/>
-      <c r="AS41" s="46"/>
+      <c r="AQ41" s="56"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3565,12 +3581,18 @@
       <c r="AW42" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AX42" s="13"/>
+      <c r="AX42" s="13">
+        <v>2</v>
+      </c>
       <c r="AY42" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AZ42" s="13"/>
-      <c r="BA42" s="16"/>
+      <c r="AZ42" s="13">
+        <v>3</v>
+      </c>
+      <c r="BA42" s="16" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -3683,15 +3705,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3719,15 +3741,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="45" t="s">
+      <c r="AU45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="45"/>
-      <c r="AW45" s="45"/>
-      <c r="AX45" s="45"/>
-      <c r="AY45" s="45"/>
-      <c r="AZ45" s="45"/>
-      <c r="BA45" s="45"/>
+      <c r="AV45" s="51"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="51"/>
+      <c r="AY45" s="51"/>
+      <c r="AZ45" s="51"/>
+      <c r="BA45" s="51"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3788,45 +3810,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="55" t="s">
+      <c r="M48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="57"/>
-      <c r="X48" s="45" t="s">
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="47"/>
+      <c r="X48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AI48" s="45" t="s">
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AI48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="45"/>
-      <c r="AO48" s="45"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3843,34 +3885,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B8CC8-8B27-4254-94E8-76EEB3A09DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="90">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -292,12 +293,15 @@
   </si>
   <si>
     <t>Stars Lead Series 3-2</t>
+  </si>
+  <si>
+    <t>Series Tied 3-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -670,13 +674,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,36 +730,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1006,7 +1010,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1099,18 +1103,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1139,18 +1143,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1187,14 +1191,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1221,10 +1225,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1243,10 +1247,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1328,16 +1332,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1345,11 +1349,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1394,124 +1398,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55"/>
-      <c r="Z1" s="53" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="55"/>
-      <c r="AF1" s="53" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="55"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="M2" s="57" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="M2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
-      <c r="AI2" s="57" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="AI2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="59"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AU2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="59"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="AI3" s="51" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="AI3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="51" t="s">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AU3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1535,15 +1539,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1807,11 +1811,11 @@
       <c r="G8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1830,9 +1834,9 @@
       <c r="AM8" s="33"/>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
+      <c r="AQ8" s="46"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
       <c r="AU8" s="41">
         <v>4</v>
       </c>
@@ -2013,15 +2017,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2032,65 +2036,65 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="51" t="s">
+      <c r="AI12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="51" t="s">
+      <c r="AU12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="51" t="s">
+      <c r="AU14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2312,19 +2316,19 @@
       <c r="H19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="52" t="s">
+      <c r="I19" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="56" t="s">
+      <c r="AQ19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
       <c r="AU19" s="41">
         <v>4</v>
       </c>
@@ -2454,52 +2458,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="51" t="s">
+      <c r="AU23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="51" t="s">
+      <c r="AU25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2523,24 +2527,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="60"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="51"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2634,26 +2638,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="45" t="s">
+      <c r="P28" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="47"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="57"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="51" t="s">
+      <c r="AF28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2789,9 +2793,9 @@
       <c r="G30" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2814,11 +2818,11 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
+      <c r="AQ30" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
       <c r="AU30" s="41">
         <v>4</v>
       </c>
@@ -2924,12 +2928,18 @@
       <c r="C32" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="13"/>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
       <c r="E32" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="16"/>
+      <c r="F32" s="13">
+        <v>2</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>89</v>
+      </c>
       <c r="L32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="8">
@@ -3021,15 +3031,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3054,15 +3064,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="51" t="s">
+      <c r="AU34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3091,18 +3101,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3124,19 +3134,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
+      <c r="AN36" s="47"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="51" t="s">
+      <c r="AU36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="51"/>
-      <c r="AZ36" s="51"/>
-      <c r="BA36" s="51"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="45"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3161,31 +3171,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="48" t="s">
+      <c r="P37" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="50"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="60"/>
-      <c r="AF37" s="51" t="s">
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="60"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="51"/>
+      <c r="AF37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3281,33 +3291,33 @@
         <v>61</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="47"/>
-      <c r="X39" s="51" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="X39" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AI39" s="51" t="s">
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AI39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="45"/>
+      <c r="AN39" s="45"/>
+      <c r="AO39" s="45"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3465,11 +3475,11 @@
       <c r="G41" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3498,9 +3508,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="56"/>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="52"/>
+      <c r="AQ41" s="47"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="46"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3705,15 +3715,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3741,15 +3751,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="51" t="s">
+      <c r="AU45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="51"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="51"/>
-      <c r="AY45" s="51"/>
-      <c r="AZ45" s="51"/>
-      <c r="BA45" s="51"/>
+      <c r="AV45" s="45"/>
+      <c r="AW45" s="45"/>
+      <c r="AX45" s="45"/>
+      <c r="AY45" s="45"/>
+      <c r="AZ45" s="45"/>
+      <c r="BA45" s="45"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3810,49 +3820,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="45" t="s">
+      <c r="M48" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="47"/>
-      <c r="X48" s="51" t="s">
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="57"/>
+      <c r="X48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AI48" s="51" t="s">
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AI48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="51"/>
-      <c r="AK48" s="51"/>
-      <c r="AL48" s="51"/>
-      <c r="AM48" s="51"/>
-      <c r="AN48" s="51"/>
-      <c r="AO48" s="51"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3869,121 +3891,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4B8CC8-8B27-4254-94E8-76EEB3A09DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD16CF7-412A-48EB-BE00-6EDD7B5964E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="91">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>Series Tied 3-3</t>
+  </si>
+  <si>
+    <t>Canucks Win Series 4-2</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -674,14 +677,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,6 +710,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,31 +734,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1014,7 +1020,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,18 +1109,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1143,18 +1149,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1191,14 +1197,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1225,10 +1231,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1247,10 +1253,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1332,16 +1338,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1352,8 +1358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,124 +1404,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="Z1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="55"/>
+      <c r="AF1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="55"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="M2" s="48" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="M2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-      <c r="AI2" s="48" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="AI2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="50"/>
-      <c r="AU2" s="48" t="s">
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="59"/>
+      <c r="AU2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="50"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="59"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="AI3" s="45" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="AI3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1539,15 +1545,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="57"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1638,9 +1644,13 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="29"/>
-      <c r="AK5" s="10"/>
+      <c r="AK5" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="AL5" s="11"/>
-      <c r="AM5" s="10"/>
+      <c r="AM5" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="AN5" s="11"/>
       <c r="AO5" s="5"/>
       <c r="AU5" s="7">
@@ -1691,18 +1701,26 @@
         <v>1</v>
       </c>
       <c r="N6" s="22"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="P6" s="11"/>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="R6" s="11"/>
       <c r="S6" s="5"/>
       <c r="AI6" s="8">
         <v>2</v>
       </c>
       <c r="AJ6" s="30"/>
-      <c r="AK6" s="12"/>
+      <c r="AK6" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="AL6" s="13"/>
-      <c r="AM6" s="12"/>
+      <c r="AM6" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="AN6" s="13"/>
       <c r="AO6" s="16"/>
       <c r="AU6" s="8">
@@ -1753,18 +1771,26 @@
         <v>2</v>
       </c>
       <c r="N7" s="23"/>
-      <c r="O7" s="12"/>
+      <c r="O7" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="P7" s="13"/>
-      <c r="Q7" s="12"/>
+      <c r="Q7" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="R7" s="13"/>
       <c r="S7" s="16"/>
       <c r="AI7" s="8">
         <v>3</v>
       </c>
       <c r="AJ7" s="30"/>
-      <c r="AK7" s="12"/>
+      <c r="AK7" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="AL7" s="13"/>
-      <c r="AM7" s="12"/>
+      <c r="AM7" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="AN7" s="13"/>
       <c r="AO7" s="16"/>
       <c r="AU7" s="8">
@@ -1811,32 +1837,42 @@
       <c r="G8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="16"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
       <c r="AI8" s="8">
         <v>4</v>
       </c>
       <c r="AJ8" s="36"/>
-      <c r="AK8" s="33"/>
+      <c r="AK8" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="AL8" s="34"/>
-      <c r="AM8" s="33"/>
+      <c r="AM8" s="33" t="s">
+        <v>7</v>
+      </c>
       <c r="AN8" s="34"/>
       <c r="AO8" s="35"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
+      <c r="AQ8" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
       <c r="AU8" s="41">
         <v>4</v>
       </c>
@@ -1881,18 +1917,26 @@
         <v>4</v>
       </c>
       <c r="N9" s="23"/>
-      <c r="O9" s="12"/>
+      <c r="O9" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P9" s="13"/>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="R9" s="13"/>
       <c r="S9" s="16"/>
       <c r="AI9" s="8" t="s">
         <v>27</v>
       </c>
       <c r="AJ9" s="30"/>
-      <c r="AK9" s="12"/>
+      <c r="AK9" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="AL9" s="13"/>
-      <c r="AM9" s="12"/>
+      <c r="AM9" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="AN9" s="13"/>
       <c r="AO9" s="16"/>
       <c r="AQ9" s="10"/>
@@ -1939,34 +1983,50 @@
         <v>27</v>
       </c>
       <c r="N10" s="23"/>
-      <c r="O10" s="12"/>
+      <c r="O10" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="P10" s="13"/>
-      <c r="Q10" s="12"/>
+      <c r="Q10" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="R10" s="13"/>
       <c r="S10" s="16"/>
       <c r="AI10" s="8" t="s">
         <v>26</v>
       </c>
       <c r="AJ10" s="30"/>
-      <c r="AK10" s="12"/>
+      <c r="AK10" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="AL10" s="13"/>
-      <c r="AM10" s="12"/>
+      <c r="AM10" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="AN10" s="13"/>
       <c r="AO10" s="16"/>
       <c r="AQ10" s="12"/>
       <c r="AU10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV10" s="30"/>
+      <c r="AV10" s="30">
+        <v>45416</v>
+      </c>
       <c r="AW10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AX10" s="13"/>
+      <c r="AX10" s="13">
+        <v>1</v>
+      </c>
       <c r="AY10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AZ10" s="13"/>
-      <c r="BA10" s="16"/>
+      <c r="AZ10" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="16" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -1987,18 +2047,26 @@
         <v>26</v>
       </c>
       <c r="N11" s="23"/>
-      <c r="O11" s="12"/>
+      <c r="O11" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="P11" s="13"/>
-      <c r="Q11" s="12"/>
+      <c r="Q11" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="R11" s="13"/>
       <c r="S11" s="16"/>
       <c r="AI11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="AJ11" s="31"/>
-      <c r="AK11" s="14"/>
+      <c r="AK11" s="14" t="s">
+        <v>7</v>
+      </c>
       <c r="AL11" s="15"/>
-      <c r="AM11" s="14"/>
+      <c r="AM11" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="AN11" s="15"/>
       <c r="AO11" s="6"/>
       <c r="AQ11" s="12"/>
@@ -2017,84 +2085,88 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
       </c>
       <c r="N12" s="23"/>
-      <c r="O12" s="12"/>
+      <c r="O12" s="12" t="s">
+        <v>4</v>
+      </c>
       <c r="P12" s="13"/>
-      <c r="Q12" s="12"/>
+      <c r="Q12" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="45" t="s">
+      <c r="AI12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="45" t="s">
+      <c r="AU12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="AN14" s="52"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="45" t="s">
+      <c r="AU14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2316,19 +2388,19 @@
       <c r="H19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="I19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="47" t="s">
+      <c r="AQ19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
       <c r="AU19" s="41">
         <v>4</v>
       </c>
@@ -2458,52 +2530,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="45" t="s">
+      <c r="AU23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="45" t="s">
+      <c r="AU25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2527,24 +2599,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="47"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="51"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="60"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2638,26 +2710,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="55" t="s">
+      <c r="P28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="57"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="47"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="45" t="s">
+      <c r="AF28" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2793,9 +2865,9 @@
       <c r="G30" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2818,11 +2890,11 @@
       <c r="AK30" s="26"/>
       <c r="AL30" s="27"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="46"/>
-      <c r="AS30" s="46"/>
+      <c r="AQ30" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
       <c r="AU30" s="41">
         <v>4</v>
       </c>
@@ -3031,15 +3103,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3064,15 +3136,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="45" t="s">
+      <c r="AU34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3101,18 +3173,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3134,19 +3206,19 @@
       <c r="AJ36" s="38"/>
       <c r="AK36" s="39"/>
       <c r="AL36" s="40"/>
-      <c r="AN36" s="47"/>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="52"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="45" t="s">
+      <c r="AU36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="45"/>
-      <c r="AW36" s="45"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="45"/>
-      <c r="BA36" s="45"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="51"/>
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3171,31 +3243,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="58" t="s">
+      <c r="P37" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="60"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="51"/>
-      <c r="AF37" s="45" t="s">
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="50"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="60"/>
+      <c r="AF37" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3291,33 +3363,33 @@
         <v>61</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57"/>
-      <c r="X39" s="45" t="s">
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="47"/>
+      <c r="X39" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AI39" s="45" t="s">
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AI39" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="45"/>
-      <c r="AK39" s="45"/>
-      <c r="AL39" s="45"/>
-      <c r="AM39" s="45"/>
-      <c r="AN39" s="45"/>
-      <c r="AO39" s="45"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3475,11 +3547,11 @@
       <c r="G41" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="46" t="s">
+      <c r="I41" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3508,9 +3580,9 @@
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="47"/>
-      <c r="AR41" s="46"/>
-      <c r="AS41" s="46"/>
+      <c r="AQ41" s="56"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3715,15 +3787,15 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3751,15 +3823,15 @@
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="45" t="s">
+      <c r="AU45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="45"/>
-      <c r="AW45" s="45"/>
-      <c r="AX45" s="45"/>
-      <c r="AY45" s="45"/>
-      <c r="AZ45" s="45"/>
-      <c r="BA45" s="45"/>
+      <c r="AV45" s="51"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="51"/>
+      <c r="AY45" s="51"/>
+      <c r="AZ45" s="51"/>
+      <c r="BA45" s="51"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -3820,45 +3892,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="55" t="s">
+      <c r="M48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="57"/>
-      <c r="X48" s="45" t="s">
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="47"/>
+      <c r="X48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AI48" s="45" t="s">
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AI48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="45"/>
-      <c r="AO48" s="45"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -3875,34 +3967,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD16CF7-412A-48EB-BE00-6EDD7B5964E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2C682-9CAD-40D4-A6B4-391B50A5BF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="92">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>Canucks Win Series 4-2</t>
+  </si>
+  <si>
+    <t>Bruins Win Series 4-3</t>
   </si>
 </sst>
 </file>
@@ -552,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -617,9 +620,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,13 +677,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -702,39 +732,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,18 +1106,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1225,7 +1222,9 @@
       <c r="B18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
       <c r="D18" s="6" t="s">
         <v>3</v>
       </c>
@@ -1338,16 +1337,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1404,124 +1403,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55"/>
-      <c r="Z1" s="53" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="55"/>
-      <c r="AF1" s="53" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="55"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="M2" s="57" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
-      <c r="AI2" s="57" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="59"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="59"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="AI3" s="51" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="51" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1545,15 +1544,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1601,7 +1600,7 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>45403</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1619,31 +1618,31 @@
       <c r="G5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="24" t="s">
+      <c r="N5" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="24" t="s">
+      <c r="S5" s="23" t="s">
         <v>25</v>
       </c>
       <c r="AI5" s="7">
         <v>1</v>
       </c>
-      <c r="AJ5" s="29"/>
+      <c r="AJ5" s="28"/>
       <c r="AK5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1656,7 +1655,7 @@
       <c r="AU5" s="7">
         <v>1</v>
       </c>
-      <c r="AV5" s="29">
+      <c r="AV5" s="28">
         <v>45403</v>
       </c>
       <c r="AW5" s="10" t="s">
@@ -1679,7 +1678,7 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>45405</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1700,7 +1699,9 @@
       <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="22"/>
+      <c r="N6" s="31">
+        <v>45417</v>
+      </c>
       <c r="O6" s="10" t="s">
         <v>4</v>
       </c>
@@ -1713,7 +1714,7 @@
       <c r="AI6" s="8">
         <v>2</v>
       </c>
-      <c r="AJ6" s="30"/>
+      <c r="AJ6" s="29"/>
       <c r="AK6" s="12" t="s">
         <v>7</v>
       </c>
@@ -1726,7 +1727,7 @@
       <c r="AU6" s="8">
         <v>2</v>
       </c>
-      <c r="AV6" s="30">
+      <c r="AV6" s="29">
         <v>45405</v>
       </c>
       <c r="AW6" s="12" t="s">
@@ -1749,7 +1750,7 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>45408</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1770,7 +1771,7 @@
       <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="23"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="12" t="s">
         <v>4</v>
       </c>
@@ -1783,7 +1784,7 @@
       <c r="AI7" s="8">
         <v>3</v>
       </c>
-      <c r="AJ7" s="30"/>
+      <c r="AJ7" s="29"/>
       <c r="AK7" s="12" t="s">
         <v>13</v>
       </c>
@@ -1796,7 +1797,7 @@
       <c r="AU7" s="8">
         <v>3</v>
       </c>
-      <c r="AV7" s="30">
+      <c r="AV7" s="29">
         <v>45408</v>
       </c>
       <c r="AW7" s="12" t="s">
@@ -1819,7 +1820,7 @@
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="29">
         <v>45410</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1837,61 +1838,61 @@
       <c r="G8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="N8" s="61"/>
-      <c r="O8" s="33" t="s">
+      <c r="N8" s="35"/>
+      <c r="O8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="34"/>
-      <c r="S8" s="35"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
       <c r="AI8" s="8">
         <v>4</v>
       </c>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="33" t="s">
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AL8" s="34"/>
-      <c r="AM8" s="33" t="s">
+      <c r="AL8" s="33"/>
+      <c r="AM8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AN8" s="34"/>
-      <c r="AO8" s="35"/>
-      <c r="AQ8" s="52" t="s">
+      <c r="AN8" s="33"/>
+      <c r="AO8" s="34"/>
+      <c r="AQ8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
-      <c r="AU8" s="41">
-        <v>4</v>
-      </c>
-      <c r="AV8" s="36">
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
+      <c r="AU8" s="40">
+        <v>4</v>
+      </c>
+      <c r="AV8" s="35">
         <v>45410</v>
       </c>
-      <c r="AW8" s="33" t="s">
+      <c r="AW8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AX8" s="34">
-        <v>4</v>
-      </c>
-      <c r="AY8" s="33" t="s">
+      <c r="AX8" s="33">
+        <v>4</v>
+      </c>
+      <c r="AY8" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AZ8" s="34">
-        <v>3</v>
-      </c>
-      <c r="BA8" s="35" t="s">
+      <c r="AZ8" s="33">
+        <v>3</v>
+      </c>
+      <c r="BA8" s="34" t="s">
         <v>76</v>
       </c>
       <c r="BB8" s="1" t="s">
@@ -1902,7 +1903,7 @@
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -1916,7 +1917,7 @@
       <c r="M9" s="8">
         <v>4</v>
       </c>
-      <c r="N9" s="23"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="12" t="s">
         <v>10</v>
       </c>
@@ -1929,7 +1930,7 @@
       <c r="AI9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ9" s="30"/>
+      <c r="AJ9" s="29"/>
       <c r="AK9" s="12" t="s">
         <v>7</v>
       </c>
@@ -1945,7 +1946,7 @@
       <c r="AU9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV9" s="30">
+      <c r="AV9" s="29">
         <v>45412</v>
       </c>
       <c r="AW9" s="12" t="s">
@@ -1960,7 +1961,7 @@
       <c r="AZ9" s="13">
         <v>1</v>
       </c>
-      <c r="BA9" s="35" t="s">
+      <c r="BA9" s="34" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1968,7 +1969,7 @@
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
@@ -1982,7 +1983,7 @@
       <c r="M10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="23"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="12" t="s">
         <v>4</v>
       </c>
@@ -1995,7 +1996,7 @@
       <c r="AI10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ10" s="30"/>
+      <c r="AJ10" s="29"/>
       <c r="AK10" s="12" t="s">
         <v>13</v>
       </c>
@@ -2009,7 +2010,7 @@
       <c r="AU10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV10" s="30">
+      <c r="AV10" s="29">
         <v>45416</v>
       </c>
       <c r="AW10" s="12" t="s">
@@ -2032,7 +2033,7 @@
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -2046,7 +2047,7 @@
       <c r="M11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="23"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="12" t="s">
         <v>10</v>
       </c>
@@ -2059,7 +2060,7 @@
       <c r="AI11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ11" s="31"/>
+      <c r="AJ11" s="30"/>
       <c r="AK11" s="14" t="s">
         <v>7</v>
       </c>
@@ -2073,7 +2074,7 @@
       <c r="AU11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV11" s="31"/>
+      <c r="AV11" s="30"/>
       <c r="AW11" s="14" t="s">
         <v>11</v>
       </c>
@@ -2085,20 +2086,20 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="23"/>
+      <c r="N12" s="36"/>
       <c r="O12" s="12" t="s">
         <v>4</v>
       </c>
@@ -2108,65 +2109,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="51" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="51" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="AN14" s="52"/>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="51" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2220,7 +2221,7 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="28">
         <v>45402</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2245,7 +2246,7 @@
       <c r="AU16" s="7">
         <v>1</v>
       </c>
-      <c r="AV16" s="29">
+      <c r="AV16" s="28">
         <v>45404</v>
       </c>
       <c r="AW16" s="10" t="s">
@@ -2268,7 +2269,7 @@
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <v>45404</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2293,7 +2294,7 @@
       <c r="AU17" s="8">
         <v>2</v>
       </c>
-      <c r="AV17" s="30">
+      <c r="AV17" s="29">
         <v>45406</v>
       </c>
       <c r="AW17" s="12" t="s">
@@ -2319,7 +2320,7 @@
       <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <v>45407</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2344,7 +2345,7 @@
       <c r="AU18" s="8">
         <v>3</v>
       </c>
-      <c r="AV18" s="30">
+      <c r="AV18" s="29">
         <v>45408</v>
       </c>
       <c r="AW18" s="12" t="s">
@@ -2367,59 +2368,59 @@
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <v>45409</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="34">
-        <v>2</v>
-      </c>
-      <c r="E19" s="33" t="s">
+      <c r="C19" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="33">
+        <v>2</v>
+      </c>
+      <c r="E19" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="34">
-        <v>3</v>
-      </c>
-      <c r="G19" s="35" t="s">
+      <c r="F19" s="33">
+        <v>3</v>
+      </c>
+      <c r="G19" s="34" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="I19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="56" t="s">
+      <c r="AQ19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
-      <c r="AU19" s="41">
-        <v>4</v>
-      </c>
-      <c r="AV19" s="36">
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AU19" s="40">
+        <v>4</v>
+      </c>
+      <c r="AV19" s="35">
         <v>45410</v>
       </c>
-      <c r="AW19" s="33" t="s">
+      <c r="AW19" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AX19" s="34">
+      <c r="AX19" s="33">
         <v>1</v>
       </c>
-      <c r="AY19" s="33" t="s">
+      <c r="AY19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="AZ19" s="34">
+      <c r="AZ19" s="33">
         <v>0</v>
       </c>
-      <c r="BA19" s="35" t="s">
+      <c r="BA19" s="34" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2427,7 +2428,7 @@
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="29">
         <v>45412</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2450,7 +2451,7 @@
       <c r="AU20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV20" s="30">
+      <c r="AV20" s="29">
         <v>45413</v>
       </c>
       <c r="AW20" s="12" t="s">
@@ -2473,7 +2474,7 @@
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
@@ -2488,7 +2489,7 @@
       <c r="AU21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV21" s="30"/>
+      <c r="AV21" s="29"/>
       <c r="AW21" s="12" t="s">
         <v>7</v>
       </c>
@@ -2503,7 +2504,7 @@
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="14" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2519,7 @@
       <c r="AU22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV22" s="31"/>
+      <c r="AV22" s="30"/>
       <c r="AW22" s="14" t="s">
         <v>9</v>
       </c>
@@ -2530,52 +2531,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="51" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="51" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2599,24 +2600,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="60"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2643,7 +2644,7 @@
       <c r="A27" s="7">
         <v>1</v>
       </c>
-      <c r="B27" s="29">
+      <c r="B27" s="28">
         <v>45402</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -2668,7 +2669,7 @@
       <c r="AU27" s="7">
         <v>1</v>
       </c>
-      <c r="AV27" s="29">
+      <c r="AV27" s="28">
         <v>45403</v>
       </c>
       <c r="AW27" s="10" t="s">
@@ -2691,7 +2692,7 @@
       <c r="A28" s="8">
         <v>2</v>
       </c>
-      <c r="B28" s="30">
+      <c r="B28" s="29">
         <v>45404</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -2710,31 +2711,31 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="45" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="47"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="51" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
       </c>
-      <c r="AV28" s="30">
+      <c r="AV28" s="29">
         <v>45405</v>
       </c>
       <c r="AW28" s="12" t="s">
@@ -2757,7 +2758,7 @@
       <c r="A29" s="8">
         <v>3</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="29">
         <v>45406</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -2776,25 +2777,25 @@
         <v>63</v>
       </c>
       <c r="O29" s="12"/>
-      <c r="P29" s="24" t="s">
+      <c r="P29" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="24" t="s">
+      <c r="Q29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="R29" s="24" t="s">
+      <c r="R29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="S29" s="24" t="s">
+      <c r="S29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="T29" s="24" t="s">
+      <c r="T29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="24" t="s">
+      <c r="U29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="24" t="s">
+      <c r="V29" s="23" t="s">
         <v>25</v>
       </c>
       <c r="X29" s="12"/>
@@ -2824,7 +2825,7 @@
       <c r="AU29" s="8">
         <v>3</v>
       </c>
-      <c r="AV29" s="30">
+      <c r="AV29" s="29">
         <v>45408</v>
       </c>
       <c r="AW29" s="12" t="s">
@@ -2847,73 +2848,75 @@
       <c r="A30" s="8">
         <v>4</v>
       </c>
-      <c r="B30" s="36">
+      <c r="B30" s="35">
         <v>45409</v>
       </c>
-      <c r="C30" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="34">
-        <v>3</v>
-      </c>
-      <c r="E30" s="33" t="s">
+      <c r="C30" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="33">
+        <v>3</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="33">
         <v>1</v>
       </c>
-      <c r="G30" s="35" t="s">
+      <c r="G30" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="I30" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
       </c>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="25"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="26"/>
       <c r="X30" s="12"/>
       <c r="AD30" s="13"/>
       <c r="AF30" s="7">
         <v>1</v>
       </c>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="26"/>
-      <c r="AJ30" s="25"/>
-      <c r="AK30" s="26"/>
-      <c r="AL30" s="27"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="24"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
-      <c r="AU30" s="41">
-        <v>4</v>
-      </c>
-      <c r="AV30" s="36">
+      <c r="AQ30" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
+      <c r="AU30" s="40">
+        <v>4</v>
+      </c>
+      <c r="AV30" s="35">
         <v>45410</v>
       </c>
-      <c r="AW30" s="33" t="s">
+      <c r="AW30" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="AX30" s="34">
+      <c r="AX30" s="33">
         <v>1</v>
       </c>
-      <c r="AY30" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ30" s="34">
+      <c r="AY30" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ30" s="33">
         <v>5</v>
       </c>
-      <c r="BA30" s="35" t="s">
+      <c r="BA30" s="34" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2921,7 +2924,7 @@
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="29">
         <v>45412</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -2936,7 +2939,7 @@
       <c r="F31" s="13">
         <v>1</v>
       </c>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="34" t="s">
         <v>83</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -2947,7 +2950,7 @@
       <c r="P31" s="8">
         <v>2</v>
       </c>
-      <c r="Q31" s="23"/>
+      <c r="Q31" s="22"/>
       <c r="R31" s="12"/>
       <c r="S31" s="13"/>
       <c r="T31" s="12"/>
@@ -2958,7 +2961,7 @@
       <c r="AF31" s="8">
         <v>2</v>
       </c>
-      <c r="AG31" s="30"/>
+      <c r="AG31" s="29"/>
       <c r="AH31" s="12"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="12"/>
@@ -2971,7 +2974,7 @@
       <c r="AU31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV31" s="30">
+      <c r="AV31" s="29">
         <v>45412</v>
       </c>
       <c r="AW31" s="12" t="s">
@@ -2994,7 +2997,7 @@
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="30">
+      <c r="B32" s="29">
         <v>45414</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -3017,7 +3020,7 @@
       <c r="P32" s="8">
         <v>3</v>
       </c>
-      <c r="Q32" s="23"/>
+      <c r="Q32" s="22"/>
       <c r="R32" s="12"/>
       <c r="S32" s="13"/>
       <c r="T32" s="12"/>
@@ -3028,7 +3031,7 @@
       <c r="AF32" s="8">
         <v>3</v>
       </c>
-      <c r="AG32" s="30"/>
+      <c r="AG32" s="29"/>
       <c r="AH32" s="12"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="12"/>
@@ -3039,7 +3042,7 @@
       <c r="AU32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV32" s="30"/>
+      <c r="AV32" s="29"/>
       <c r="AW32" s="12" t="s">
         <v>17</v>
       </c>
@@ -3054,22 +3057,33 @@
       <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="31"/>
+      <c r="B33" s="30">
+        <v>45416</v>
+      </c>
       <c r="C33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
       <c r="E33" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="15">
+        <v>2</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="8">
         <v>4</v>
       </c>
-      <c r="Q33" s="23"/>
+      <c r="Q33" s="22"/>
       <c r="R33" s="12"/>
       <c r="S33" s="13"/>
       <c r="T33" s="12"/>
@@ -3080,7 +3094,7 @@
       <c r="AF33" s="8">
         <v>4</v>
       </c>
-      <c r="AG33" s="36"/>
+      <c r="AG33" s="35"/>
       <c r="AH33" s="12"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="12"/>
@@ -3091,7 +3105,7 @@
       <c r="AU33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV33" s="31"/>
+      <c r="AV33" s="30"/>
       <c r="AW33" s="14" t="s">
         <v>3</v>
       </c>
@@ -3103,21 +3117,21 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="23"/>
+      <c r="Q34" s="22"/>
       <c r="R34" s="12"/>
       <c r="S34" s="13"/>
       <c r="T34" s="12"/>
@@ -3128,7 +3142,7 @@
       <c r="AF34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG34" s="30"/>
+      <c r="AG34" s="29"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="12"/>
@@ -3136,15 +3150,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="51" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3152,7 +3166,7 @@
       <c r="P35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="23"/>
+      <c r="Q35" s="22"/>
       <c r="R35" s="12"/>
       <c r="S35" s="13"/>
       <c r="T35" s="12"/>
@@ -3163,7 +3177,7 @@
       <c r="AF35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AG35" s="30"/>
+      <c r="AG35" s="29"/>
       <c r="AH35" s="12"/>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="12"/>
@@ -3173,23 +3187,23 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q36" s="23"/>
+      <c r="Q36" s="22"/>
       <c r="R36" s="12"/>
       <c r="S36" s="13"/>
       <c r="T36" s="12"/>
@@ -3200,25 +3214,25 @@
       <c r="AF36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AG36" s="37"/>
-      <c r="AH36" s="38"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="40"/>
-      <c r="AN36" s="56"/>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="37"/>
+      <c r="AI36" s="38"/>
+      <c r="AJ36" s="37"/>
+      <c r="AK36" s="38"/>
+      <c r="AL36" s="39"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="51" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="51"/>
-      <c r="AZ36" s="51"/>
-      <c r="BA36" s="51"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3243,31 +3257,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="48" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="50"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="60"/>
-      <c r="AF37" s="51" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3295,7 +3309,7 @@
       <c r="A38" s="7">
         <v>1</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B38" s="28">
         <v>45403</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -3318,7 +3332,7 @@
       <c r="AU38" s="7">
         <v>1</v>
       </c>
-      <c r="AV38" s="29">
+      <c r="AV38" s="28">
         <v>45404</v>
       </c>
       <c r="AW38" s="10" t="s">
@@ -3341,7 +3355,7 @@
       <c r="A39" s="8">
         <v>2</v>
       </c>
-      <c r="B39" s="30">
+      <c r="B39" s="29">
         <v>45405</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -3363,38 +3377,38 @@
         <v>61</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="47"/>
-      <c r="X39" s="51" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AI39" s="51" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
       </c>
-      <c r="AV39" s="30">
+      <c r="AV39" s="29">
         <v>45406</v>
       </c>
       <c r="AW39" s="12" t="s">
@@ -3417,7 +3431,7 @@
       <c r="A40" s="8">
         <v>3</v>
       </c>
-      <c r="B40" s="30">
+      <c r="B40" s="29">
         <v>45407</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -3436,25 +3450,25 @@
         <v>66</v>
       </c>
       <c r="L40" s="12"/>
-      <c r="M40" s="24" t="s">
+      <c r="M40" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="24" t="s">
+      <c r="N40" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="O40" s="24" t="s">
+      <c r="O40" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="24" t="s">
+      <c r="P40" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Q40" s="24" t="s">
+      <c r="Q40" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="R40" s="24" t="s">
+      <c r="R40" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="S40" s="24" t="s">
+      <c r="S40" s="23" t="s">
         <v>25</v>
       </c>
       <c r="X40" s="3" t="s">
@@ -3503,7 +3517,7 @@
       <c r="AU40" s="8">
         <v>3</v>
       </c>
-      <c r="AV40" s="30">
+      <c r="AV40" s="29">
         <v>45409</v>
       </c>
       <c r="AW40" s="12" t="s">
@@ -3529,79 +3543,83 @@
       <c r="A41" s="8">
         <v>4</v>
       </c>
-      <c r="B41" s="36">
+      <c r="B41" s="35">
         <v>45409</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="34">
-        <v>3</v>
-      </c>
-      <c r="E41" s="33" t="s">
+      <c r="D41" s="33">
+        <v>3</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="33">
         <v>6</v>
       </c>
-      <c r="G41" s="35" t="s">
+      <c r="G41" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
       </c>
-      <c r="N41" s="28"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="25"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="27"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="R41" s="25"/>
+      <c r="S41" s="26"/>
       <c r="X41" s="7">
         <v>1</v>
       </c>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="25"/>
-      <c r="AA41" s="26"/>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="26"/>
-      <c r="AD41" s="27"/>
+      <c r="Y41" s="31"/>
+      <c r="Z41" s="24"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="26"/>
       <c r="AI41" s="7">
         <v>1</v>
       </c>
-      <c r="AJ41" s="29"/>
+      <c r="AJ41" s="28"/>
       <c r="AK41" s="10"/>
       <c r="AL41" s="11"/>
       <c r="AM41" s="10"/>
       <c r="AN41" s="11"/>
       <c r="AO41" s="5"/>
-      <c r="AQ41" s="56"/>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="52"/>
+      <c r="AQ41" s="46"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
-      <c r="AV41" s="36">
+      <c r="AV41" s="35">
         <v>45411</v>
       </c>
-      <c r="AW41" s="33" t="s">
+      <c r="AW41" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AX41" s="34">
-        <v>4</v>
-      </c>
-      <c r="AY41" s="33" t="s">
+      <c r="AX41" s="33">
+        <v>4</v>
+      </c>
+      <c r="AY41" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="AZ41" s="34">
-        <v>2</v>
-      </c>
-      <c r="BA41" s="35" t="s">
+      <c r="AZ41" s="33">
+        <v>2</v>
+      </c>
+      <c r="BA41" s="34" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3609,7 +3627,7 @@
       <c r="A42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="30">
+      <c r="B42" s="29">
         <v>45411</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -3630,16 +3648,20 @@
       <c r="M42" s="8">
         <v>2</v>
       </c>
-      <c r="N42" s="23"/>
-      <c r="O42" s="12"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="P42" s="13"/>
-      <c r="Q42" s="12"/>
+      <c r="Q42" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="R42" s="13"/>
       <c r="S42" s="16"/>
       <c r="X42" s="8">
         <v>2</v>
       </c>
-      <c r="Y42" s="30"/>
+      <c r="Y42" s="29"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="12"/>
@@ -3648,7 +3670,7 @@
       <c r="AI42" s="8">
         <v>2</v>
       </c>
-      <c r="AJ42" s="30"/>
+      <c r="AJ42" s="29"/>
       <c r="AK42" s="12"/>
       <c r="AL42" s="13"/>
       <c r="AM42" s="12"/>
@@ -3657,7 +3679,7 @@
       <c r="AU42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV42" s="30">
+      <c r="AV42" s="29">
         <v>45413</v>
       </c>
       <c r="AW42" s="12" t="s">
@@ -3680,7 +3702,7 @@
       <c r="A43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="30"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
@@ -3693,16 +3715,20 @@
       <c r="M43" s="8">
         <v>3</v>
       </c>
-      <c r="N43" s="23"/>
-      <c r="O43" s="12"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="P43" s="13"/>
-      <c r="Q43" s="12"/>
+      <c r="Q43" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="R43" s="13"/>
       <c r="S43" s="16"/>
       <c r="X43" s="8">
         <v>3</v>
       </c>
-      <c r="Y43" s="30"/>
+      <c r="Y43" s="29"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="13"/>
       <c r="AB43" s="12"/>
@@ -3711,7 +3737,7 @@
       <c r="AI43" s="8">
         <v>3</v>
       </c>
-      <c r="AJ43" s="30"/>
+      <c r="AJ43" s="29"/>
       <c r="AK43" s="12"/>
       <c r="AL43" s="13"/>
       <c r="AM43" s="12"/>
@@ -3720,22 +3746,30 @@
       <c r="AU43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV43" s="30"/>
+      <c r="AV43" s="29">
+        <v>45415</v>
+      </c>
       <c r="AW43" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AX43" s="13"/>
+      <c r="AX43" s="13">
+        <v>0</v>
+      </c>
       <c r="AY43" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="AZ43" s="13"/>
-      <c r="BA43" s="16"/>
+      <c r="AZ43" s="13">
+        <v>2</v>
+      </c>
+      <c r="BA43" s="34" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="44" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="31"/>
+      <c r="B44" s="30"/>
       <c r="C44" s="14" t="s">
         <v>12</v>
       </c>
@@ -3748,16 +3782,20 @@
       <c r="M44" s="8">
         <v>4</v>
       </c>
-      <c r="N44" s="23"/>
-      <c r="O44" s="12"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="P44" s="13"/>
-      <c r="Q44" s="12"/>
+      <c r="Q44" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="R44" s="13"/>
       <c r="S44" s="16"/>
       <c r="X44" s="8">
         <v>4</v>
       </c>
-      <c r="Y44" s="30"/>
+      <c r="Y44" s="29"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="12"/>
@@ -3766,7 +3804,7 @@
       <c r="AI44" s="8">
         <v>4</v>
       </c>
-      <c r="AJ44" s="36"/>
+      <c r="AJ44" s="35"/>
       <c r="AK44" s="12"/>
       <c r="AL44" s="13"/>
       <c r="AM44" s="12"/>
@@ -3775,7 +3813,9 @@
       <c r="AU44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV44" s="31"/>
+      <c r="AV44" s="30">
+        <v>45417</v>
+      </c>
       <c r="AW44" s="14" t="s">
         <v>15</v>
       </c>
@@ -3787,28 +3827,32 @@
       <c r="BA44" s="6"/>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="23"/>
-      <c r="O45" s="12"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="P45" s="13"/>
-      <c r="Q45" s="12"/>
+      <c r="Q45" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="R45" s="13"/>
       <c r="S45" s="16"/>
       <c r="X45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y45" s="30"/>
+      <c r="Y45" s="29"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="12"/>
@@ -3817,36 +3861,40 @@
       <c r="AI45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ45" s="30"/>
+      <c r="AJ45" s="29"/>
       <c r="AK45" s="12"/>
       <c r="AL45" s="13"/>
       <c r="AM45" s="12"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="51" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="51"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="51"/>
-      <c r="AY45" s="51"/>
-      <c r="AZ45" s="51"/>
-      <c r="BA45" s="51"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="23"/>
-      <c r="O46" s="12"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="P46" s="13"/>
-      <c r="Q46" s="12"/>
+      <c r="Q46" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="R46" s="13"/>
       <c r="S46" s="16"/>
       <c r="X46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y46" s="30"/>
+      <c r="Y46" s="29"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="12"/>
@@ -3855,7 +3903,7 @@
       <c r="AI46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ46" s="30"/>
+      <c r="AJ46" s="29"/>
       <c r="AK46" s="12"/>
       <c r="AL46" s="13"/>
       <c r="AM46" s="12"/>
@@ -3866,16 +3914,20 @@
       <c r="M47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N47" s="23"/>
-      <c r="O47" s="12"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="12" t="s">
+        <v>2</v>
+      </c>
       <c r="P47" s="13"/>
-      <c r="Q47" s="12"/>
+      <c r="Q47" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="R47" s="13"/>
       <c r="S47" s="16"/>
       <c r="X47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y47" s="31"/>
+      <c r="Y47" s="30"/>
       <c r="Z47" s="14"/>
       <c r="AA47" s="15"/>
       <c r="AB47" s="14"/>
@@ -3884,7 +3936,7 @@
       <c r="AI47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ47" s="31"/>
+      <c r="AJ47" s="30"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="15"/>
       <c r="AM47" s="14"/>
@@ -3892,49 +3944,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="45" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="47"/>
-      <c r="X48" s="51" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AI48" s="51" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="51"/>
-      <c r="AK48" s="51"/>
-      <c r="AL48" s="51"/>
-      <c r="AM48" s="51"/>
-      <c r="AN48" s="51"/>
-      <c r="AO48" s="51"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -3951,30 +4015,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4009,13 +4061,13 @@
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
-          <xm:sqref>L14:N14 N6:O12 Q6:Q12</xm:sqref>
+          <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
-          <xm:sqref>L36:N36 N41:O47 Q41:Q47</xm:sqref>
+          <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B2C682-9CAD-40D4-A6B4-391B50A5BF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F812E828-C50A-4BEC-A932-63111EEB237A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="93">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -205,12 +205,6 @@
     <t>Oilers Lead 1-0</t>
   </si>
   <si>
-    <t>Rangers Lead Series 1-0</t>
-  </si>
-  <si>
-    <t>Rangers Lead Series 2-0</t>
-  </si>
-  <si>
     <t>OT</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>Panthers Lead 3-0</t>
   </si>
   <si>
-    <t>Rangers Lead Series 3-0</t>
-  </si>
-  <si>
     <t>Canucks Lead 2-1</t>
   </si>
   <si>
@@ -292,9 +283,6 @@
     <t>Oilers Win Series 4-1</t>
   </si>
   <si>
-    <t>Stars Lead Series 3-2</t>
-  </si>
-  <si>
     <t>Series Tied 3-3</t>
   </si>
   <si>
@@ -302,6 +290,21 @@
   </si>
   <si>
     <t>Bruins Win Series 4-3</t>
+  </si>
+  <si>
+    <t>Rangers Lead 1-0</t>
+  </si>
+  <si>
+    <t>Rangers Lead 2-0</t>
+  </si>
+  <si>
+    <t>Rangers Lead 3-0</t>
+  </si>
+  <si>
+    <t>Star Win Series 4-3</t>
+  </si>
+  <si>
+    <t>Stars Lead 3-2</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1020,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1216,9 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -1357,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ45" sqref="AJ45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1392,7 @@
     <col min="33" max="33" width="23.7109375" style="1" customWidth="1"/>
     <col min="34" max="34" width="22.85546875" style="1" customWidth="1"/>
     <col min="35" max="36" width="21.7109375" style="1" customWidth="1"/>
-    <col min="37" max="37" width="19" style="1" customWidth="1"/>
+    <col min="37" max="37" width="22.28515625" style="1" customWidth="1"/>
     <col min="38" max="38" width="9.140625" style="1"/>
     <col min="39" max="39" width="22.140625" style="1" customWidth="1"/>
     <col min="40" max="40" width="9.140625" style="1"/>
@@ -1616,7 +1621,7 @@
         <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="M5" s="23" t="s">
         <v>18</v>
@@ -1642,7 +1647,9 @@
       <c r="AI5" s="7">
         <v>1</v>
       </c>
-      <c r="AJ5" s="28"/>
+      <c r="AJ5" s="28">
+        <v>45420</v>
+      </c>
       <c r="AK5" s="10" t="s">
         <v>7</v>
       </c>
@@ -1694,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1705,16 +1712,24 @@
       <c r="O6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="11"/>
+      <c r="P6" s="11">
+        <v>3</v>
+      </c>
       <c r="Q6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="5"/>
+      <c r="R6" s="11">
+        <v>4</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="AI6" s="8">
         <v>2</v>
       </c>
-      <c r="AJ6" s="29"/>
+      <c r="AJ6" s="29">
+        <v>45422</v>
+      </c>
       <c r="AK6" s="12" t="s">
         <v>7</v>
       </c>
@@ -1766,12 +1781,14 @@
         <v>1</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="35"/>
+      <c r="N7" s="35">
+        <v>45419</v>
+      </c>
       <c r="O7" s="12" t="s">
         <v>4</v>
       </c>
@@ -1784,7 +1801,9 @@
       <c r="AI7" s="8">
         <v>3</v>
       </c>
-      <c r="AJ7" s="29"/>
+      <c r="AJ7" s="29">
+        <v>45424</v>
+      </c>
       <c r="AK7" s="12" t="s">
         <v>13</v>
       </c>
@@ -1813,7 +1832,7 @@
         <v>1</v>
       </c>
       <c r="BA7" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:54" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -1836,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I8" s="45" t="s">
         <v>10</v>
@@ -1846,7 +1865,9 @@
       <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="N8" s="35"/>
+      <c r="N8" s="35">
+        <v>45421</v>
+      </c>
       <c r="O8" s="32" t="s">
         <v>10</v>
       </c>
@@ -1859,7 +1880,9 @@
       <c r="AI8" s="8">
         <v>4</v>
       </c>
-      <c r="AJ8" s="35"/>
+      <c r="AJ8" s="35">
+        <v>45426</v>
+      </c>
       <c r="AK8" s="32" t="s">
         <v>13</v>
       </c>
@@ -1893,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="BA8" s="34" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BB8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1917,7 +1940,9 @@
       <c r="M9" s="8">
         <v>4</v>
       </c>
-      <c r="N9" s="35"/>
+      <c r="N9" s="35">
+        <v>45423</v>
+      </c>
       <c r="O9" s="12" t="s">
         <v>10</v>
       </c>
@@ -1962,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="BA9" s="34" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
@@ -2026,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="BA10" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2313,7 +2338,7 @@
         <v>56</v>
       </c>
       <c r="BB17" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:54" x14ac:dyDescent="0.25">
@@ -2336,7 +2361,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L18" s="12"/>
       <c r="O18" s="12"/>
@@ -2361,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="BA18" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:54" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
@@ -2384,10 +2409,10 @@
         <v>3</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I19" s="45" t="s">
         <v>4</v>
@@ -2421,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="BA19" s="34" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2444,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O20" s="12"/>
       <c r="AN20" s="12"/>
@@ -2467,7 +2492,7 @@
         <v>4</v>
       </c>
       <c r="BA20" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:54" x14ac:dyDescent="0.25">
@@ -2685,7 +2710,7 @@
         <v>7</v>
       </c>
       <c r="BA27" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2774,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O29" s="12"/>
       <c r="P29" s="23" t="s">
@@ -2841,7 +2866,7 @@
         <v>6</v>
       </c>
       <c r="BA29" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2864,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I30" s="45" t="s">
         <v>2</v>
@@ -2917,7 +2942,7 @@
         <v>5</v>
       </c>
       <c r="BA30" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2940,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L31" s="12"/>
       <c r="O31" s="12"/>
@@ -2990,7 +3015,7 @@
         <v>3</v>
       </c>
       <c r="BA31" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:54" x14ac:dyDescent="0.25">
@@ -3013,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="G32" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="L32" s="12"/>
       <c r="O32" s="12"/>
@@ -3073,10 +3098,10 @@
         <v>2</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L33" s="12"/>
       <c r="O33" s="12"/>
@@ -3371,10 +3396,10 @@
         <v>3</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L39" s="12"/>
       <c r="M39" s="54" t="s">
@@ -3424,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="BA39" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3447,7 +3472,7 @@
         <v>3</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="23" t="s">
@@ -3533,10 +3558,10 @@
         <v>2</v>
       </c>
       <c r="BA40" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BB40" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3559,7 +3584,7 @@
         <v>6</v>
       </c>
       <c r="G41" s="34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I41" s="45" t="s">
         <v>6</v>
@@ -3570,7 +3595,9 @@
       <c r="M41" s="7">
         <v>1</v>
       </c>
-      <c r="N41" s="31"/>
+      <c r="N41" s="31">
+        <v>45418</v>
+      </c>
       <c r="O41" s="24" t="s">
         <v>2</v>
       </c>
@@ -3592,13 +3619,21 @@
       <c r="AI41" s="7">
         <v>1</v>
       </c>
-      <c r="AJ41" s="28"/>
-      <c r="AK41" s="10"/>
-      <c r="AL41" s="11"/>
-      <c r="AM41" s="10"/>
-      <c r="AN41" s="11"/>
-      <c r="AO41" s="5"/>
-      <c r="AQ41" s="46"/>
+      <c r="AJ41" s="31">
+        <v>45419</v>
+      </c>
+      <c r="AK41" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL41" s="25"/>
+      <c r="AM41" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN41" s="25"/>
+      <c r="AO41" s="26"/>
+      <c r="AQ41" s="46" t="s">
+        <v>5</v>
+      </c>
       <c r="AR41" s="45"/>
       <c r="AS41" s="45"/>
       <c r="AU41" s="8">
@@ -3620,7 +3655,7 @@
         <v>2</v>
       </c>
       <c r="BA41" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3643,12 +3678,14 @@
         <v>6</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M42" s="8">
         <v>2</v>
       </c>
-      <c r="N42" s="35"/>
+      <c r="N42" s="35">
+        <v>45420</v>
+      </c>
       <c r="O42" s="12" t="s">
         <v>2</v>
       </c>
@@ -3670,10 +3707,16 @@
       <c r="AI42" s="8">
         <v>2</v>
       </c>
-      <c r="AJ42" s="29"/>
-      <c r="AK42" s="12"/>
+      <c r="AJ42" s="29">
+        <v>45421</v>
+      </c>
+      <c r="AK42" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="AL42" s="13"/>
-      <c r="AM42" s="12"/>
+      <c r="AM42" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="AN42" s="13"/>
       <c r="AO42" s="16"/>
       <c r="AU42" s="8" t="s">
@@ -3695,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="BA42" s="16" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:54" x14ac:dyDescent="0.25">
@@ -3715,7 +3758,9 @@
       <c r="M43" s="8">
         <v>3</v>
       </c>
-      <c r="N43" s="35"/>
+      <c r="N43" s="35">
+        <v>45422</v>
+      </c>
       <c r="O43" s="12" t="s">
         <v>6</v>
       </c>
@@ -3737,10 +3782,16 @@
       <c r="AI43" s="8">
         <v>3</v>
       </c>
-      <c r="AJ43" s="29"/>
-      <c r="AK43" s="12"/>
+      <c r="AJ43" s="29">
+        <v>45423</v>
+      </c>
+      <c r="AK43" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="AL43" s="13"/>
-      <c r="AM43" s="12"/>
+      <c r="AM43" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="AN43" s="13"/>
       <c r="AO43" s="16"/>
       <c r="AU43" s="8" t="s">
@@ -3762,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="BA43" s="34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3782,7 +3833,9 @@
       <c r="M44" s="8">
         <v>4</v>
       </c>
-      <c r="N44" s="35"/>
+      <c r="N44" s="35">
+        <v>45424</v>
+      </c>
       <c r="O44" s="12" t="s">
         <v>6</v>
       </c>
@@ -3804,10 +3857,16 @@
       <c r="AI44" s="8">
         <v>4</v>
       </c>
-      <c r="AJ44" s="35"/>
-      <c r="AK44" s="12"/>
+      <c r="AJ44" s="35">
+        <v>45425</v>
+      </c>
+      <c r="AK44" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="AL44" s="13"/>
-      <c r="AM44" s="12"/>
+      <c r="AM44" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="AN44" s="13"/>
       <c r="AO44" s="16"/>
       <c r="AU44" s="9" t="s">
@@ -3819,12 +3878,18 @@
       <c r="AW44" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="AX44" s="15"/>
+      <c r="AX44" s="15">
+        <v>1</v>
+      </c>
       <c r="AY44" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AZ44" s="15"/>
-      <c r="BA44" s="6"/>
+      <c r="AZ44" s="15">
+        <v>2</v>
+      </c>
+      <c r="BA44" s="6" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="44" t="s">
@@ -3862,9 +3927,13 @@
         <v>27</v>
       </c>
       <c r="AJ45" s="29"/>
-      <c r="AK45" s="12"/>
+      <c r="AK45" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="AL45" s="13"/>
-      <c r="AM45" s="12"/>
+      <c r="AM45" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
       <c r="AU45" s="44" t="s">
@@ -3904,9 +3973,13 @@
         <v>26</v>
       </c>
       <c r="AJ46" s="29"/>
-      <c r="AK46" s="12"/>
+      <c r="AK46" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="AL46" s="13"/>
-      <c r="AM46" s="12"/>
+      <c r="AM46" s="12" t="s">
+        <v>3</v>
+      </c>
       <c r="AN46" s="13"/>
       <c r="AO46" s="16"/>
     </row>
@@ -3937,9 +4010,13 @@
         <v>28</v>
       </c>
       <c r="AJ47" s="30"/>
-      <c r="AK47" s="14"/>
+      <c r="AK47" s="14" t="s">
+        <v>3</v>
+      </c>
       <c r="AL47" s="15"/>
-      <c r="AM47" s="14"/>
+      <c r="AM47" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="AN47" s="15"/>
       <c r="AO47" s="6"/>
     </row>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F812E828-C50A-4BEC-A932-63111EEB237A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBEDB11-25FA-4984-8362-4821AFE34FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="93">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -680,14 +680,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +713,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,33 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,18 +1109,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1149,18 +1149,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1197,14 +1197,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1235,10 +1235,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1257,10 +1257,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1342,16 +1342,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ45" sqref="AJ45"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,124 +1408,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="AI2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AU2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1549,15 +1549,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1857,11 +1857,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1892,11 +1892,11 @@
       </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="34"/>
-      <c r="AQ8" s="45" t="s">
+      <c r="AQ8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AU8" s="40">
         <v>4</v>
       </c>
@@ -2111,15 +2111,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2134,65 +2134,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2414,19 +2414,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46" t="s">
+      <c r="AQ19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
       <c r="AU19" s="40">
         <v>4</v>
       </c>
@@ -2556,52 +2556,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2625,24 +2625,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="59"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2736,26 +2736,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2891,11 +2891,11 @@
       <c r="G30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2918,11 +2918,11 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AQ30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
       <c r="AU30" s="40">
         <v>4</v>
       </c>
@@ -3142,15 +3142,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3175,15 +3175,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3212,18 +3212,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3245,19 +3245,19 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
       <c r="AL36" s="39"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3282,31 +3282,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="59"/>
+      <c r="AF37" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3402,33 +3402,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3586,11 +3586,11 @@
       <c r="G41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3601,12 +3601,18 @@
       <c r="O41" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="P41" s="25"/>
+      <c r="P41" s="25">
+        <v>5</v>
+      </c>
       <c r="Q41" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="R41" s="25"/>
-      <c r="S41" s="26"/>
+      <c r="R41" s="25">
+        <v>1</v>
+      </c>
+      <c r="S41" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="X41" s="7">
         <v>1</v>
       </c>
@@ -3631,11 +3637,11 @@
       </c>
       <c r="AN41" s="25"/>
       <c r="AO41" s="26"/>
-      <c r="AQ41" s="46" t="s">
+      <c r="AQ41" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3892,15 +3898,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3936,15 +3942,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4021,45 +4027,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AI48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4076,34 +4102,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBEDB11-25FA-4984-8362-4821AFE34FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6831DC64-75DB-469C-BC3D-F92807B48C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="93">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -680,13 +680,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -706,36 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1109,18 +1109,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1149,18 +1149,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1197,14 +1197,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1235,10 +1235,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1257,10 +1257,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1342,16 +1342,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="T41" sqref="T41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,124 +1408,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="AI2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1549,15 +1549,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1792,12 +1792,21 @@
       <c r="O7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="13"/>
+      <c r="P7" s="13">
+        <v>3</v>
+      </c>
       <c r="Q7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="13"/>
-      <c r="S7" s="16"/>
+      <c r="R7" s="13">
+        <v>4</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="AI7" s="8">
         <v>3</v>
       </c>
@@ -1857,11 +1866,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1892,11 +1901,11 @@
       </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="34"/>
-      <c r="AQ8" s="51" t="s">
+      <c r="AQ8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
       <c r="AU8" s="40">
         <v>4</v>
       </c>
@@ -2111,15 +2120,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2134,65 +2143,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2414,19 +2423,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="55" t="s">
+      <c r="AQ19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
       <c r="AU19" s="40">
         <v>4</v>
       </c>
@@ -2556,52 +2565,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="50" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="50" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2625,24 +2634,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2736,26 +2745,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="50" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2891,11 +2900,11 @@
       <c r="G30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="I30" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2918,11 +2927,11 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
+      <c r="AQ30" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
       <c r="AU30" s="40">
         <v>4</v>
       </c>
@@ -3142,15 +3151,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3175,15 +3184,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="50"/>
-      <c r="BA34" s="50"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3212,18 +3221,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3245,19 +3254,19 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
       <c r="AL36" s="39"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3282,31 +3291,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="59"/>
-      <c r="AF37" s="50" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3402,33 +3411,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="50" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3586,11 +3595,11 @@
       <c r="G41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3637,11 +3646,11 @@
       </c>
       <c r="AN41" s="25"/>
       <c r="AO41" s="26"/>
-      <c r="AQ41" s="55" t="s">
+      <c r="AQ41" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3898,15 +3907,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3942,15 +3951,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="50" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4027,49 +4036,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="50" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AI48" s="50" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4086,30 +4107,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6831DC64-75DB-469C-BC3D-F92807B48C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="94">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -305,12 +304,15 @@
   </si>
   <si>
     <t>Stars Lead 3-2</t>
+  </si>
+  <si>
+    <t>Avalanche Lead 1-0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -680,14 +682,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +715,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,33 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1016,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1109,18 +1111,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1149,18 +1151,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1197,14 +1199,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1235,10 +1237,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1257,10 +1259,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1342,16 +1344,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1359,11 +1361,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="AE28" workbookViewId="0">
+      <selection activeCell="AL42" sqref="AL42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,124 +1410,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="AI2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AU2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1549,15 +1551,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1866,11 +1868,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1901,11 +1903,11 @@
       </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="34"/>
-      <c r="AQ8" s="45" t="s">
+      <c r="AQ8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AU8" s="40">
         <v>4</v>
       </c>
@@ -2120,15 +2122,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2143,65 +2145,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2423,19 +2425,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46" t="s">
+      <c r="AQ19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
       <c r="AU19" s="40">
         <v>4</v>
       </c>
@@ -2565,52 +2567,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2634,24 +2636,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="59"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2745,26 +2747,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2900,11 +2902,11 @@
       <c r="G30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2927,11 +2929,11 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AQ30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
       <c r="AU30" s="40">
         <v>4</v>
       </c>
@@ -3151,15 +3153,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3184,15 +3186,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3221,18 +3223,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3254,19 +3256,19 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
       <c r="AL36" s="39"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3291,31 +3293,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="59"/>
+      <c r="AF37" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3411,33 +3413,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3595,11 +3597,11 @@
       <c r="G41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3640,17 +3642,26 @@
       <c r="AK41" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="AL41" s="25"/>
+      <c r="AL41" s="25">
+        <v>4</v>
+      </c>
       <c r="AM41" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="25"/>
-      <c r="AO41" s="26"/>
-      <c r="AQ41" s="46" t="s">
+      <c r="AN41" s="25">
+        <v>3</v>
+      </c>
+      <c r="AO41" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ41" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3907,15 +3918,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3951,15 +3962,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4036,45 +4047,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AI48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4091,125 +4122,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72601B97-1EE7-4197-BD87-DCFF5FDB929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="94">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -312,7 +313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -682,13 +683,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,36 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1018,7 +1019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1111,18 +1112,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1151,18 +1152,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1199,14 +1200,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1237,10 +1238,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1259,10 +1260,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1344,16 +1345,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1361,11 +1362,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE28" workbookViewId="0">
-      <selection activeCell="AL42" sqref="AL42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,124 +1411,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="AI2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1551,15 +1552,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1868,11 +1869,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1903,11 +1904,11 @@
       </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="34"/>
-      <c r="AQ8" s="51" t="s">
+      <c r="AQ8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
       <c r="AU8" s="40">
         <v>4</v>
       </c>
@@ -2122,15 +2123,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2145,65 +2146,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2425,19 +2426,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="55" t="s">
+      <c r="AQ19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
       <c r="AU19" s="40">
         <v>4</v>
       </c>
@@ -2567,52 +2568,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="50" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="50" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2636,24 +2637,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2747,26 +2748,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="50" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2902,11 +2903,11 @@
       <c r="G30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="I30" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2929,11 +2930,11 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
+      <c r="AQ30" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
       <c r="AU30" s="40">
         <v>4</v>
       </c>
@@ -3153,15 +3154,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3186,15 +3187,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="50"/>
-      <c r="BA34" s="50"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3223,18 +3224,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3256,19 +3257,19 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
       <c r="AL36" s="39"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3293,31 +3294,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="59"/>
-      <c r="AF37" s="50" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3413,33 +3414,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="50" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3597,11 +3598,11 @@
       <c r="G41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3657,11 +3658,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="55" t="s">
+      <c r="AQ41" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3715,12 +3716,18 @@
       <c r="O42" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P42" s="13"/>
+      <c r="P42" s="13">
+        <v>1</v>
+      </c>
       <c r="Q42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R42" s="13"/>
-      <c r="S42" s="16"/>
+      <c r="R42" s="13">
+        <v>6</v>
+      </c>
+      <c r="S42" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X42" s="8">
         <v>2</v>
       </c>
@@ -3918,15 +3925,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3962,15 +3969,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="50" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4047,49 +4054,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="50" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AI48" s="50" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4106,121 +4125,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72601B97-1EE7-4197-BD87-DCFF5FDB929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B713AD-7FAA-4A6E-8894-68111260E2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="94">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -683,14 +683,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -698,6 +716,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,33 +739,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,18 +1112,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1152,18 +1152,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1200,14 +1200,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1238,10 +1238,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1260,10 +1260,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1345,16 +1345,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" topLeftCell="N24" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,124 +1411,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="AI2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AU2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1552,15 +1552,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1656,12 +1656,18 @@
       <c r="AK5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="AL5" s="11"/>
+      <c r="AL5" s="11">
+        <v>4</v>
+      </c>
       <c r="AM5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AN5" s="11"/>
-      <c r="AO5" s="5"/>
+      <c r="AN5" s="11">
+        <v>5</v>
+      </c>
+      <c r="AO5" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="AU5" s="7">
         <v>1</v>
       </c>
@@ -1869,11 +1875,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1904,11 +1910,11 @@
       </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="34"/>
-      <c r="AQ8" s="45" t="s">
+      <c r="AQ8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AU8" s="40">
         <v>4</v>
       </c>
@@ -2123,15 +2129,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2146,65 +2152,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2426,19 +2432,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46" t="s">
+      <c r="AQ19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
       <c r="AU19" s="40">
         <v>4</v>
       </c>
@@ -2568,52 +2574,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2637,24 +2643,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="59"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2748,26 +2754,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2903,11 +2909,11 @@
       <c r="G30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2930,11 +2936,11 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AQ30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
       <c r="AU30" s="40">
         <v>4</v>
       </c>
@@ -3154,15 +3160,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3187,15 +3193,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3224,18 +3230,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3257,19 +3263,19 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
       <c r="AL36" s="39"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3294,31 +3300,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="59"/>
+      <c r="AF37" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3414,33 +3420,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3598,11 +3604,11 @@
       <c r="G41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3658,11 +3664,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="46" t="s">
+      <c r="AQ41" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3925,15 +3931,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -3969,15 +3975,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4054,45 +4060,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AI48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4109,34 +4135,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B713AD-7FAA-4A6E-8894-68111260E2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="99">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -308,12 +307,27 @@
   </si>
   <si>
     <t>Avalanche Lead 1-0</t>
+  </si>
+  <si>
+    <t>Panthers Lead 2-1</t>
+  </si>
+  <si>
+    <t>Rangers Lead 3-1</t>
+  </si>
+  <si>
+    <t>Stars Lead 2-1</t>
+  </si>
+  <si>
+    <t>Rangers Lead 3-2</t>
+  </si>
+  <si>
+    <t>Stars Lead 3-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -683,13 +697,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,36 +753,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,7 +1033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1112,18 +1126,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1152,18 +1166,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1200,14 +1214,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1238,10 +1252,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1260,10 +1274,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1345,16 +1359,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1362,11 +1376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N24" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+    <sheetView tabSelected="1" topLeftCell="AB28" workbookViewId="0">
+      <selection activeCell="AL45" sqref="AL45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,124 +1425,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="AI2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1552,15 +1566,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1742,12 +1756,21 @@
       <c r="AK6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AL6" s="13"/>
+      <c r="AL6" s="13">
+        <v>4</v>
+      </c>
       <c r="AM6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="16"/>
+      <c r="AN6" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AU6" s="8">
         <v>2</v>
       </c>
@@ -1825,12 +1848,18 @@
       <c r="AK7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AL7" s="13"/>
+      <c r="AL7" s="13">
+        <v>4</v>
+      </c>
       <c r="AM7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AN7" s="13"/>
-      <c r="AO7" s="16"/>
+      <c r="AN7" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO7" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="AU7" s="8">
         <v>3</v>
       </c>
@@ -1875,11 +1904,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1889,12 +1918,21 @@
       <c r="O8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="33"/>
+      <c r="P8" s="33">
+        <v>3</v>
+      </c>
       <c r="Q8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="34"/>
+      <c r="R8" s="33">
+        <v>2</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="AI8" s="8">
         <v>4</v>
       </c>
@@ -1910,11 +1948,11 @@
       </c>
       <c r="AN8" s="33"/>
       <c r="AO8" s="34"/>
-      <c r="AQ8" s="51" t="s">
+      <c r="AQ8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
       <c r="AU8" s="40">
         <v>4</v>
       </c>
@@ -1964,12 +2002,18 @@
       <c r="O9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="13"/>
+      <c r="P9" s="13">
+        <v>3</v>
+      </c>
       <c r="Q9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="16"/>
+      <c r="R9" s="13">
+        <v>4</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>95</v>
+      </c>
       <c r="AI9" s="8" t="s">
         <v>27</v>
       </c>
@@ -2026,16 +2070,24 @@
       <c r="M10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="35">
+        <v>45425</v>
+      </c>
       <c r="O10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="13"/>
+      <c r="P10" s="13">
+        <v>4</v>
+      </c>
       <c r="Q10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="16"/>
+      <c r="R10" s="13">
+        <v>1</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>97</v>
+      </c>
       <c r="AI10" s="8" t="s">
         <v>26</v>
       </c>
@@ -2129,15 +2181,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2152,65 +2204,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2432,19 +2484,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="55" t="s">
+      <c r="AQ19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
       <c r="AU19" s="40">
         <v>4</v>
       </c>
@@ -2574,52 +2626,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="50" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="50" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2643,24 +2695,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2754,26 +2806,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="50" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2909,11 +2961,11 @@
       <c r="G30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="I30" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2936,11 +2988,11 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
+      <c r="AQ30" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
       <c r="AU30" s="40">
         <v>4</v>
       </c>
@@ -3160,15 +3212,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3193,15 +3245,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="50"/>
-      <c r="BA34" s="50"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3230,18 +3282,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3263,19 +3315,19 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
       <c r="AL36" s="39"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3300,31 +3352,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="59"/>
-      <c r="AF37" s="50" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3420,33 +3472,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="50" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3604,11 +3656,11 @@
       <c r="G41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3664,11 +3716,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="55" t="s">
+      <c r="AQ41" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -3752,12 +3804,18 @@
       <c r="AK42" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AL42" s="13"/>
+      <c r="AL42" s="13">
+        <v>3</v>
+      </c>
       <c r="AM42" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AN42" s="13"/>
-      <c r="AO42" s="16"/>
+      <c r="AN42" s="13">
+        <v>5</v>
+      </c>
+      <c r="AO42" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="AU42" s="8" t="s">
         <v>27</v>
       </c>
@@ -3803,12 +3861,18 @@
       <c r="O43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P43" s="13"/>
+      <c r="P43" s="13">
+        <v>6</v>
+      </c>
       <c r="Q43" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R43" s="13"/>
-      <c r="S43" s="16"/>
+      <c r="R43" s="13">
+        <v>2</v>
+      </c>
+      <c r="S43" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="X43" s="8">
         <v>3</v>
       </c>
@@ -3827,12 +3891,18 @@
       <c r="AK43" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AL43" s="13"/>
+      <c r="AL43" s="13">
+        <v>4</v>
+      </c>
       <c r="AM43" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AN43" s="13"/>
-      <c r="AO43" s="16"/>
+      <c r="AN43" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="AU43" s="8" t="s">
         <v>26</v>
       </c>
@@ -3878,12 +3948,18 @@
       <c r="O44" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P44" s="13"/>
+      <c r="P44" s="13">
+        <v>3</v>
+      </c>
       <c r="Q44" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R44" s="13"/>
-      <c r="S44" s="16"/>
+      <c r="R44" s="13">
+        <v>2</v>
+      </c>
+      <c r="S44" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="X44" s="8">
         <v>4</v>
       </c>
@@ -3902,12 +3978,18 @@
       <c r="AK44" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AL44" s="13"/>
+      <c r="AL44" s="13">
+        <v>5</v>
+      </c>
       <c r="AM44" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AN44" s="13"/>
-      <c r="AO44" s="16"/>
+      <c r="AN44" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="16" t="s">
+        <v>98</v>
+      </c>
       <c r="AU44" s="9" t="s">
         <v>28</v>
       </c>
@@ -3931,19 +4013,21 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="35"/>
+      <c r="N45" s="35">
+        <v>45426</v>
+      </c>
       <c r="O45" s="12" t="s">
         <v>2</v>
       </c>
@@ -3965,7 +4049,9 @@
       <c r="AI45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ45" s="29"/>
+      <c r="AJ45" s="29">
+        <v>45427</v>
+      </c>
       <c r="AK45" s="12" t="s">
         <v>3</v>
       </c>
@@ -3975,15 +4061,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="50" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4060,49 +4146,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="50" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AI48" s="50" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4119,121 +4217,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="100">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>Stars Lead 3-1</t>
+  </si>
+  <si>
+    <t>Panthers Lead 3-2</t>
   </si>
 </sst>
 </file>
@@ -697,14 +700,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,6 +733,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,33 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1126,18 +1129,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1166,18 +1169,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1214,14 +1217,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1252,10 +1255,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1274,10 +1277,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1359,16 +1362,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1379,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB28" workbookViewId="0">
-      <selection activeCell="AL45" sqref="AL45"/>
+    <sheetView tabSelected="1" topLeftCell="AF4" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,124 +1428,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="AI2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AU2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1566,15 +1569,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1904,11 +1907,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1942,17 +1945,23 @@
       <c r="AK8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AL8" s="33"/>
+      <c r="AL8" s="33">
+        <v>2</v>
+      </c>
       <c r="AM8" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AN8" s="33"/>
-      <c r="AO8" s="34"/>
-      <c r="AQ8" s="45" t="s">
+      <c r="AN8" s="33">
+        <v>3</v>
+      </c>
+      <c r="AO8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AU8" s="40">
         <v>4</v>
       </c>
@@ -2017,7 +2026,9 @@
       <c r="AI9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ9" s="29"/>
+      <c r="AJ9" s="29">
+        <v>45428</v>
+      </c>
       <c r="AK9" s="12" t="s">
         <v>7</v>
       </c>
@@ -2142,7 +2153,9 @@
       <c r="M11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="35"/>
+      <c r="N11" s="35">
+        <v>45428</v>
+      </c>
       <c r="O11" s="12" t="s">
         <v>10</v>
       </c>
@@ -2181,15 +2194,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2204,65 +2217,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2484,19 +2497,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46" t="s">
+      <c r="AQ19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
       <c r="AU19" s="40">
         <v>4</v>
       </c>
@@ -2626,52 +2639,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2695,24 +2708,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="59"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2806,26 +2819,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2961,11 +2974,11 @@
       <c r="G30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -2988,11 +3001,11 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AQ30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
       <c r="AU30" s="40">
         <v>4</v>
       </c>
@@ -3212,15 +3225,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3245,15 +3258,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3282,18 +3295,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3315,19 +3328,19 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
       <c r="AL36" s="39"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3352,31 +3365,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="59"/>
+      <c r="AF37" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3472,33 +3485,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3656,11 +3669,11 @@
       <c r="G41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3716,11 +3729,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="46" t="s">
+      <c r="AQ41" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4013,15 +4026,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4031,12 +4044,18 @@
       <c r="O45" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="P45" s="13"/>
+      <c r="P45" s="13">
+        <v>2</v>
+      </c>
       <c r="Q45" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R45" s="13"/>
-      <c r="S45" s="16"/>
+      <c r="R45" s="13">
+        <v>1</v>
+      </c>
+      <c r="S45" s="16" t="s">
+        <v>99</v>
+      </c>
       <c r="X45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4061,15 +4080,15 @@
       </c>
       <c r="AN45" s="13"/>
       <c r="AO45" s="16"/>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4146,45 +4165,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AI48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4201,34 +4240,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="100">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -700,13 +700,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -726,36 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1129,18 +1129,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1169,18 +1169,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1217,14 +1217,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1255,10 +1255,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1277,10 +1277,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1362,16 +1362,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1382,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF4" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,124 +1428,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="AI2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1569,15 +1569,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1907,11 +1907,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1957,11 +1957,11 @@
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="51" t="s">
+      <c r="AQ8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
       <c r="AU8" s="40">
         <v>4</v>
       </c>
@@ -2194,15 +2194,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2217,65 +2217,65 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2497,19 +2497,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="55" t="s">
+      <c r="AQ19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
       <c r="AU19" s="40">
         <v>4</v>
       </c>
@@ -2639,52 +2639,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="50" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="50" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2708,24 +2708,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2819,26 +2819,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="50" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2974,11 +2974,11 @@
       <c r="G30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="I30" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3001,11 +3001,11 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
+      <c r="AQ30" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
       <c r="AU30" s="40">
         <v>4</v>
       </c>
@@ -3225,15 +3225,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3258,15 +3258,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="50"/>
-      <c r="BA34" s="50"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3295,18 +3295,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3328,19 +3328,19 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
       <c r="AL36" s="39"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3365,31 +3365,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="59"/>
-      <c r="AF37" s="50" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3485,33 +3485,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="50" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3669,11 +3669,11 @@
       <c r="G41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3729,11 +3729,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="55" t="s">
+      <c r="AQ41" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4026,15 +4026,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4074,27 +4074,35 @@
       <c r="AK45" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AL45" s="13"/>
+      <c r="AL45" s="13">
+        <v>5</v>
+      </c>
       <c r="AM45" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="16"/>
-      <c r="AU45" s="50" t="s">
+      <c r="AN45" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO45" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="35"/>
+      <c r="N46" s="35">
+        <v>45429</v>
+      </c>
       <c r="O46" s="12" t="s">
         <v>6</v>
       </c>
@@ -4116,7 +4124,9 @@
       <c r="AI46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ46" s="29"/>
+      <c r="AJ46" s="29">
+        <v>45429</v>
+      </c>
       <c r="AK46" s="12" t="s">
         <v>5</v>
       </c>
@@ -4165,49 +4175,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="50" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AI48" s="50" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4224,30 +4246,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E915EF8-49BC-436E-A73D-F2FE2236F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="101">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -325,12 +326,15 @@
   </si>
   <si>
     <t>Panthers Lead 3-2</t>
+  </si>
+  <si>
+    <t>Rangers Win 4-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -700,14 +704,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -715,6 +737,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,33 +760,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1036,11 +1040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,18 +1133,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1169,18 +1173,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1196,7 +1200,9 @@
       <c r="D14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
     </row>
@@ -1217,14 +1223,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1255,10 +1261,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="42"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1277,10 +1283,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1362,16 +1368,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1379,11 +1385,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,124 +1434,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="58"/>
+      <c r="AI2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="58"/>
+      <c r="AU2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="57"/>
+      <c r="AW2" s="57"/>
+      <c r="AX2" s="57"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="58"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AU3" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="50"/>
+      <c r="AX3" s="50"/>
+      <c r="AY3" s="50"/>
+      <c r="AZ3" s="50"/>
+      <c r="BA3" s="50"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1569,15 +1575,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="46"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1907,11 +1913,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1957,11 +1963,11 @@
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="45" t="s">
+      <c r="AQ8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
       <c r="AU8" s="40">
         <v>4</v>
       </c>
@@ -2159,12 +2165,18 @@
       <c r="O11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="13"/>
+      <c r="P11" s="13">
+        <v>5</v>
+      </c>
       <c r="Q11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="16"/>
+      <c r="R11" s="13">
+        <v>3</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>100</v>
+      </c>
       <c r="AI11" s="9" t="s">
         <v>28</v>
       </c>
@@ -2194,15 +2206,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2217,65 +2229,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="50"/>
+      <c r="AL12" s="50"/>
+      <c r="AM12" s="50"/>
+      <c r="AN12" s="50"/>
+      <c r="AO12" s="50"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="50"/>
+      <c r="AW12" s="50"/>
+      <c r="AX12" s="50"/>
+      <c r="AY12" s="50"/>
+      <c r="AZ12" s="50"/>
+      <c r="BA12" s="50"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="46"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="L14" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="AN14" s="51"/>
+      <c r="AO14" s="51"/>
+      <c r="AP14" s="51"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="50"/>
+      <c r="AW14" s="50"/>
+      <c r="AX14" s="50"/>
+      <c r="AY14" s="50"/>
+      <c r="AZ14" s="50"/>
+      <c r="BA14" s="50"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2497,19 +2511,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46" t="s">
+      <c r="AQ19" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
+      <c r="AR19" s="51"/>
+      <c r="AS19" s="51"/>
       <c r="AU19" s="40">
         <v>4</v>
       </c>
@@ -2639,52 +2653,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="50"/>
+      <c r="AZ23" s="50"/>
+      <c r="BA23" s="50"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="50"/>
+      <c r="AW25" s="50"/>
+      <c r="AX25" s="50"/>
+      <c r="AY25" s="50"/>
+      <c r="AZ25" s="50"/>
+      <c r="BA25" s="50"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2708,24 +2722,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
+      <c r="AH26" s="51"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="59"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2819,26 +2833,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="50"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="50"/>
+      <c r="AL28" s="50"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2974,11 +2988,11 @@
       <c r="G30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3001,11 +3015,11 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
+      <c r="AQ30" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="51"/>
+      <c r="AS30" s="51"/>
       <c r="AU30" s="40">
         <v>4</v>
       </c>
@@ -3225,15 +3239,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3258,15 +3272,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="50"/>
+      <c r="AW34" s="50"/>
+      <c r="AX34" s="50"/>
+      <c r="AY34" s="50"/>
+      <c r="AZ34" s="50"/>
+      <c r="BA34" s="50"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3295,18 +3309,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3328,19 +3342,19 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
       <c r="AL36" s="39"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AN36" s="55"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="50"/>
+      <c r="AY36" s="50"/>
+      <c r="AZ36" s="50"/>
+      <c r="BA36" s="50"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3365,31 +3379,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="X37" s="55"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="59"/>
+      <c r="AF37" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="50"/>
+      <c r="AI37" s="50"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="50"/>
+      <c r="AL37" s="50"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3485,33 +3499,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
+      <c r="Q39" s="45"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="46"/>
+      <c r="X39" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="50"/>
+      <c r="Z39" s="50"/>
+      <c r="AA39" s="50"/>
+      <c r="AB39" s="50"/>
+      <c r="AC39" s="50"/>
+      <c r="AD39" s="50"/>
+      <c r="AI39" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="50"/>
+      <c r="AL39" s="50"/>
+      <c r="AM39" s="50"/>
+      <c r="AN39" s="50"/>
+      <c r="AO39" s="50"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3669,11 +3683,11 @@
       <c r="G41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3729,11 +3743,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="46" t="s">
+      <c r="AQ41" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4026,15 +4040,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4086,15 +4100,15 @@
       <c r="AO45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="50"/>
+      <c r="AW45" s="50"/>
+      <c r="AX45" s="50"/>
+      <c r="AY45" s="50"/>
+      <c r="AZ45" s="50"/>
+      <c r="BA45" s="50"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4175,45 +4189,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="45"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="45"/>
+      <c r="Q48" s="45"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="46"/>
+      <c r="X48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="50"/>
+      <c r="Z48" s="50"/>
+      <c r="AA48" s="50"/>
+      <c r="AB48" s="50"/>
+      <c r="AC48" s="50"/>
+      <c r="AD48" s="50"/>
+      <c r="AI48" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="50"/>
+      <c r="AL48" s="50"/>
+      <c r="AM48" s="50"/>
+      <c r="AN48" s="50"/>
+      <c r="AO48" s="50"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4230,125 +4264,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E915EF8-49BC-436E-A73D-F2FE2236F91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="101">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -334,7 +333,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -704,13 +703,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,36 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,7 +1039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1133,18 +1132,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="43"/>
+      <c r="F11" s="41"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1173,18 +1172,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="41" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1223,14 +1222,14 @@
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="42"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1261,10 +1260,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1283,10 +1282,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1368,16 +1367,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1385,11 +1384,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO10" sqref="AO10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,124 +1433,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="53"/>
+      <c r="Z1" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="52"/>
+      <c r="AB1" s="53"/>
+      <c r="AF1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="52"/>
+      <c r="AI1" s="52"/>
+      <c r="AJ1" s="52"/>
+      <c r="AK1" s="52"/>
+      <c r="AL1" s="52"/>
+      <c r="AM1" s="52"/>
+      <c r="AN1" s="52"/>
+      <c r="AO1" s="52"/>
+      <c r="AP1" s="52"/>
+      <c r="AQ1" s="52"/>
+      <c r="AR1" s="52"/>
+      <c r="AS1" s="52"/>
+      <c r="AT1" s="52"/>
+      <c r="AU1" s="52"/>
+      <c r="AV1" s="52"/>
+      <c r="AW1" s="52"/>
+      <c r="AX1" s="52"/>
+      <c r="AY1" s="52"/>
+      <c r="AZ1" s="52"/>
+      <c r="BA1" s="53"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="58"/>
-      <c r="M2" s="56" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="58"/>
-      <c r="AI2" s="56" t="s">
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="49"/>
+      <c r="AI2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="57"/>
-      <c r="AO2" s="58"/>
-      <c r="AU2" s="56" t="s">
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="48"/>
+      <c r="AO2" s="49"/>
+      <c r="AU2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="57"/>
-      <c r="AW2" s="57"/>
-      <c r="AX2" s="57"/>
-      <c r="AY2" s="57"/>
-      <c r="AZ2" s="57"/>
-      <c r="BA2" s="58"/>
+      <c r="AV2" s="48"/>
+      <c r="AW2" s="48"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="48"/>
+      <c r="AZ2" s="48"/>
+      <c r="BA2" s="49"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="AI3" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="50"/>
-      <c r="AK3" s="50"/>
-      <c r="AL3" s="50"/>
-      <c r="AM3" s="50"/>
-      <c r="AN3" s="50"/>
-      <c r="AO3" s="50"/>
-      <c r="AU3" s="50" t="s">
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AU3" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="50"/>
-      <c r="AX3" s="50"/>
-      <c r="AY3" s="50"/>
-      <c r="AZ3" s="50"/>
-      <c r="BA3" s="50"/>
+      <c r="AV3" s="44"/>
+      <c r="AW3" s="44"/>
+      <c r="AX3" s="44"/>
+      <c r="AY3" s="44"/>
+      <c r="AZ3" s="44"/>
+      <c r="BA3" s="44"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1575,15 +1574,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="46"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="56"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1913,11 +1912,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1963,11 +1962,11 @@
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="51" t="s">
+      <c r="AQ8" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
+      <c r="AR8" s="45"/>
+      <c r="AS8" s="45"/>
       <c r="AU8" s="40">
         <v>4</v>
       </c>
@@ -2038,12 +2037,18 @@
       <c r="AK9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AL9" s="13"/>
+      <c r="AL9" s="13">
+        <v>2</v>
+      </c>
       <c r="AM9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AN9" s="13"/>
-      <c r="AO9" s="16"/>
+      <c r="AN9" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO9" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="AQ9" s="10"/>
       <c r="AR9" s="17"/>
       <c r="AS9" s="17"/>
@@ -2206,15 +2211,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2229,67 +2234,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AI12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
+      <c r="AJ12" s="44"/>
+      <c r="AK12" s="44"/>
+      <c r="AL12" s="44"/>
+      <c r="AM12" s="44"/>
+      <c r="AN12" s="44"/>
+      <c r="AO12" s="44"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="50" t="s">
+      <c r="AU12" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+      <c r="AX12" s="44"/>
+      <c r="AY12" s="44"/>
+      <c r="AZ12" s="44"/>
+      <c r="BA12" s="44"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="44" t="s">
+      <c r="M13" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="46"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="56"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="L14" s="55" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="L14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="AN14" s="51"/>
-      <c r="AO14" s="51"/>
-      <c r="AP14" s="51"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="AN14" s="45"/>
+      <c r="AO14" s="45"/>
+      <c r="AP14" s="45"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="50" t="s">
+      <c r="AU14" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="50"/>
-      <c r="AW14" s="50"/>
-      <c r="AX14" s="50"/>
-      <c r="AY14" s="50"/>
-      <c r="AZ14" s="50"/>
-      <c r="BA14" s="50"/>
+      <c r="AV14" s="44"/>
+      <c r="AW14" s="44"/>
+      <c r="AX14" s="44"/>
+      <c r="AY14" s="44"/>
+      <c r="AZ14" s="44"/>
+      <c r="BA14" s="44"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2511,19 +2516,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
+      <c r="I19" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="55" t="s">
+      <c r="AQ19" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="51"/>
-      <c r="AS19" s="51"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
       <c r="AU19" s="40">
         <v>4</v>
       </c>
@@ -2653,52 +2658,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="50" t="s">
+      <c r="AU23" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="50"/>
-      <c r="AZ23" s="50"/>
-      <c r="BA23" s="50"/>
+      <c r="AV23" s="44"/>
+      <c r="AW23" s="44"/>
+      <c r="AX23" s="44"/>
+      <c r="AY23" s="44"/>
+      <c r="AZ23" s="44"/>
+      <c r="BA23" s="44"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="50" t="s">
+      <c r="AU25" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="50"/>
-      <c r="AW25" s="50"/>
-      <c r="AX25" s="50"/>
-      <c r="AY25" s="50"/>
-      <c r="AZ25" s="50"/>
-      <c r="BA25" s="50"/>
+      <c r="AV25" s="44"/>
+      <c r="AW25" s="44"/>
+      <c r="AX25" s="44"/>
+      <c r="AY25" s="44"/>
+      <c r="AZ25" s="44"/>
+      <c r="BA25" s="44"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2722,24 +2727,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="55"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="51"/>
-      <c r="R26" s="51"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="AE26" s="51"/>
-      <c r="AF26" s="51"/>
-      <c r="AG26" s="51"/>
-      <c r="AH26" s="51"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="59"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="45"/>
+      <c r="V26" s="45"/>
+      <c r="W26" s="45"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="45"/>
+      <c r="AH26" s="45"/>
+      <c r="AI26" s="45"/>
+      <c r="AJ26" s="45"/>
+      <c r="AK26" s="45"/>
+      <c r="AL26" s="45"/>
+      <c r="AM26" s="50"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2833,26 +2838,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="56"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="50" t="s">
+      <c r="AF28" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="50"/>
-      <c r="AJ28" s="50"/>
-      <c r="AK28" s="50"/>
-      <c r="AL28" s="50"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="44"/>
+      <c r="AI28" s="44"/>
+      <c r="AJ28" s="44"/>
+      <c r="AK28" s="44"/>
+      <c r="AL28" s="44"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -2988,11 +2993,11 @@
       <c r="G30" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
+      <c r="I30" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3015,11 +3020,11 @@
       <c r="AK30" s="25"/>
       <c r="AL30" s="26"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="51"/>
-      <c r="AS30" s="51"/>
+      <c r="AQ30" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="45"/>
+      <c r="AS30" s="45"/>
       <c r="AU30" s="40">
         <v>4</v>
       </c>
@@ -3239,15 +3244,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50" t="s">
+      <c r="A34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3272,15 +3277,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="50" t="s">
+      <c r="AU34" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="50"/>
-      <c r="AW34" s="50"/>
-      <c r="AX34" s="50"/>
-      <c r="AY34" s="50"/>
-      <c r="AZ34" s="50"/>
-      <c r="BA34" s="50"/>
+      <c r="AV34" s="44"/>
+      <c r="AW34" s="44"/>
+      <c r="AX34" s="44"/>
+      <c r="AY34" s="44"/>
+      <c r="AZ34" s="44"/>
+      <c r="BA34" s="44"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3309,18 +3314,18 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="51"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="45"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3342,19 +3347,19 @@
       <c r="AJ36" s="37"/>
       <c r="AK36" s="38"/>
       <c r="AL36" s="39"/>
-      <c r="AN36" s="55"/>
-      <c r="AO36" s="51"/>
-      <c r="AP36" s="51"/>
+      <c r="AN36" s="46"/>
+      <c r="AO36" s="45"/>
+      <c r="AP36" s="45"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="50" t="s">
+      <c r="AU36" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="50"/>
-      <c r="AY36" s="50"/>
-      <c r="AZ36" s="50"/>
-      <c r="BA36" s="50"/>
+      <c r="AV36" s="44"/>
+      <c r="AW36" s="44"/>
+      <c r="AX36" s="44"/>
+      <c r="AY36" s="44"/>
+      <c r="AZ36" s="44"/>
+      <c r="BA36" s="44"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3379,31 +3384,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="47" t="s">
+      <c r="P37" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
-      <c r="X37" s="55"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="51"/>
-      <c r="AC37" s="51"/>
-      <c r="AD37" s="59"/>
-      <c r="AF37" s="50" t="s">
+      <c r="Q37" s="58"/>
+      <c r="R37" s="58"/>
+      <c r="S37" s="58"/>
+      <c r="T37" s="58"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="45"/>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="45"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="50"/>
+      <c r="AF37" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="50"/>
-      <c r="AI37" s="50"/>
-      <c r="AJ37" s="50"/>
-      <c r="AK37" s="50"/>
-      <c r="AL37" s="50"/>
+      <c r="AG37" s="44"/>
+      <c r="AH37" s="44"/>
+      <c r="AI37" s="44"/>
+      <c r="AJ37" s="44"/>
+      <c r="AK37" s="44"/>
+      <c r="AL37" s="44"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3499,33 +3504,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="44" t="s">
+      <c r="M39" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="45"/>
-      <c r="O39" s="45"/>
-      <c r="P39" s="45"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="45"/>
-      <c r="S39" s="46"/>
-      <c r="X39" s="50" t="s">
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="56"/>
+      <c r="X39" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="50"/>
-      <c r="Z39" s="50"/>
-      <c r="AA39" s="50"/>
-      <c r="AB39" s="50"/>
-      <c r="AC39" s="50"/>
-      <c r="AD39" s="50"/>
-      <c r="AI39" s="50" t="s">
+      <c r="Y39" s="44"/>
+      <c r="Z39" s="44"/>
+      <c r="AA39" s="44"/>
+      <c r="AB39" s="44"/>
+      <c r="AC39" s="44"/>
+      <c r="AD39" s="44"/>
+      <c r="AI39" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="50"/>
-      <c r="AK39" s="50"/>
-      <c r="AL39" s="50"/>
-      <c r="AM39" s="50"/>
-      <c r="AN39" s="50"/>
-      <c r="AO39" s="50"/>
+      <c r="AJ39" s="44"/>
+      <c r="AK39" s="44"/>
+      <c r="AL39" s="44"/>
+      <c r="AM39" s="44"/>
+      <c r="AN39" s="44"/>
+      <c r="AO39" s="44"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3683,11 +3688,11 @@
       <c r="G41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="51" t="s">
+      <c r="I41" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3743,11 +3748,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="55" t="s">
+      <c r="AQ41" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="51"/>
-      <c r="AS41" s="51"/>
+      <c r="AR41" s="45"/>
+      <c r="AS41" s="45"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4040,15 +4045,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="50"/>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4100,15 +4105,15 @@
       <c r="AO45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AU45" s="50" t="s">
+      <c r="AU45" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="50"/>
-      <c r="AW45" s="50"/>
-      <c r="AX45" s="50"/>
-      <c r="AY45" s="50"/>
-      <c r="AZ45" s="50"/>
-      <c r="BA45" s="50"/>
+      <c r="AV45" s="44"/>
+      <c r="AW45" s="44"/>
+      <c r="AX45" s="44"/>
+      <c r="AY45" s="44"/>
+      <c r="AZ45" s="44"/>
+      <c r="BA45" s="44"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4189,49 +4194,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="44" t="s">
+      <c r="M48" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="45"/>
-      <c r="O48" s="45"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="45"/>
-      <c r="S48" s="46"/>
-      <c r="X48" s="50" t="s">
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="56"/>
+      <c r="X48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="50"/>
-      <c r="Z48" s="50"/>
-      <c r="AA48" s="50"/>
-      <c r="AB48" s="50"/>
-      <c r="AC48" s="50"/>
-      <c r="AD48" s="50"/>
-      <c r="AI48" s="50" t="s">
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="44"/>
+      <c r="AD48" s="44"/>
+      <c r="AI48" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="50"/>
-      <c r="AK48" s="50"/>
-      <c r="AL48" s="50"/>
-      <c r="AM48" s="50"/>
-      <c r="AN48" s="50"/>
-      <c r="AO48" s="50"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="44"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4248,121 +4265,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD76AFD4-08E3-4191-A5F9-6710E9D5776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="103">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -328,12 +329,18 @@
   </si>
   <si>
     <t>Rangers Win 4-2</t>
+  </si>
+  <si>
+    <t>Stars Win Series 4-2</t>
+  </si>
+  <si>
+    <t>Panthers Win Series 4-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -581,7 +588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,9 +653,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,9 +665,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -703,14 +704,32 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,6 +737,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,32 +761,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1039,11 +1049,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,18 +1182,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="40"/>
+      <c r="E13" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1218,18 +1228,22 @@
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="40"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1260,10 +1274,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="40"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1282,10 +1296,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="40"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1367,16 +1381,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1384,11 +1398,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AO10" sqref="AO10"/>
+    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
+      <selection activeCell="AL10" sqref="AL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,8 +1419,8 @@
     <col min="15" max="15" width="26" style="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
     <col min="17" max="17" width="20.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="23.42578125" style="1" customWidth="1"/>
     <col min="21" max="23" width="9.140625" style="1"/>
     <col min="24" max="24" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -1433,124 +1447,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="53"/>
-      <c r="Z1" s="51" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="52"/>
+      <c r="Z1" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="53"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AA1" s="51"/>
+      <c r="AB1" s="52"/>
+      <c r="AF1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="53"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="51"/>
+      <c r="AI1" s="51"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="51"/>
+      <c r="AL1" s="51"/>
+      <c r="AM1" s="51"/>
+      <c r="AN1" s="51"/>
+      <c r="AO1" s="51"/>
+      <c r="AP1" s="51"/>
+      <c r="AQ1" s="51"/>
+      <c r="AR1" s="51"/>
+      <c r="AS1" s="51"/>
+      <c r="AT1" s="51"/>
+      <c r="AU1" s="51"/>
+      <c r="AV1" s="51"/>
+      <c r="AW1" s="51"/>
+      <c r="AX1" s="51"/>
+      <c r="AY1" s="51"/>
+      <c r="AZ1" s="51"/>
+      <c r="BA1" s="52"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
+      <c r="M2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="AI2" s="47" t="s">
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
+      <c r="AI2" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="48"/>
-      <c r="AO2" s="49"/>
-      <c r="AU2" s="47" t="s">
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="56"/>
+      <c r="AU2" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="48"/>
-      <c r="AY2" s="48"/>
-      <c r="AZ2" s="48"/>
-      <c r="BA2" s="49"/>
+      <c r="AV2" s="55"/>
+      <c r="AW2" s="55"/>
+      <c r="AX2" s="55"/>
+      <c r="AY2" s="55"/>
+      <c r="AZ2" s="55"/>
+      <c r="BA2" s="56"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="AI3" s="44" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="AI3" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AU3" s="44" t="s">
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="48"/>
+      <c r="AO3" s="48"/>
+      <c r="AU3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="44"/>
-      <c r="AW3" s="44"/>
-      <c r="AX3" s="44"/>
-      <c r="AY3" s="44"/>
-      <c r="AZ3" s="44"/>
-      <c r="BA3" s="44"/>
+      <c r="AV3" s="48"/>
+      <c r="AW3" s="48"/>
+      <c r="AX3" s="48"/>
+      <c r="AY3" s="48"/>
+      <c r="AZ3" s="48"/>
+      <c r="BA3" s="48"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1574,15 +1588,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="56"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="44"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1630,7 +1644,7 @@
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>45403</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1648,31 +1662,31 @@
       <c r="G5" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q5" s="23" t="s">
+      <c r="Q5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="23" t="s">
+      <c r="R5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="22" t="s">
         <v>25</v>
       </c>
       <c r="AI5" s="7">
         <v>1</v>
       </c>
-      <c r="AJ5" s="28">
+      <c r="AJ5" s="26">
         <v>45420</v>
       </c>
       <c r="AK5" s="10" t="s">
@@ -1693,7 +1707,7 @@
       <c r="AU5" s="7">
         <v>1</v>
       </c>
-      <c r="AV5" s="28">
+      <c r="AV5" s="26">
         <v>45403</v>
       </c>
       <c r="AW5" s="10" t="s">
@@ -1716,7 +1730,7 @@
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="27">
         <v>45405</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -1737,7 +1751,7 @@
       <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="31">
+      <c r="N6" s="29">
         <v>45417</v>
       </c>
       <c r="O6" s="10" t="s">
@@ -1758,7 +1772,7 @@
       <c r="AI6" s="8">
         <v>2</v>
       </c>
-      <c r="AJ6" s="29">
+      <c r="AJ6" s="27">
         <v>45422</v>
       </c>
       <c r="AK6" s="12" t="s">
@@ -1782,7 +1796,7 @@
       <c r="AU6" s="8">
         <v>2</v>
       </c>
-      <c r="AV6" s="29">
+      <c r="AV6" s="27">
         <v>45405</v>
       </c>
       <c r="AW6" s="12" t="s">
@@ -1805,7 +1819,7 @@
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="27">
         <v>45408</v>
       </c>
       <c r="C7" s="12" t="s">
@@ -1826,7 +1840,7 @@
       <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="35">
+      <c r="N7" s="33">
         <v>45419</v>
       </c>
       <c r="O7" s="12" t="s">
@@ -1850,7 +1864,7 @@
       <c r="AI7" s="8">
         <v>3</v>
       </c>
-      <c r="AJ7" s="29">
+      <c r="AJ7" s="27">
         <v>45424</v>
       </c>
       <c r="AK7" s="12" t="s">
@@ -1871,7 +1885,7 @@
       <c r="AU7" s="8">
         <v>3</v>
       </c>
-      <c r="AV7" s="29">
+      <c r="AV7" s="27">
         <v>45408</v>
       </c>
       <c r="AW7" s="12" t="s">
@@ -1894,7 +1908,7 @@
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="27">
         <v>45410</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -1912,27 +1926,27 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="45" t="s">
+      <c r="I8" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="33">
         <v>45421</v>
       </c>
-      <c r="O8" s="32" t="s">
+      <c r="O8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="P8" s="33">
-        <v>3</v>
-      </c>
-      <c r="Q8" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="R8" s="33">
+      <c r="P8" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="R8" s="31">
         <v>2</v>
       </c>
       <c r="S8" s="16" t="s">
@@ -1944,48 +1958,48 @@
       <c r="AI8" s="8">
         <v>4</v>
       </c>
-      <c r="AJ8" s="35">
+      <c r="AJ8" s="33">
         <v>45426</v>
       </c>
-      <c r="AK8" s="32" t="s">
+      <c r="AK8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AL8" s="33">
-        <v>2</v>
-      </c>
-      <c r="AM8" s="32" t="s">
+      <c r="AL8" s="31">
+        <v>2</v>
+      </c>
+      <c r="AM8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AN8" s="33">
+      <c r="AN8" s="31">
         <v>3</v>
       </c>
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="45" t="s">
+      <c r="AQ8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AU8" s="40">
-        <v>4</v>
-      </c>
-      <c r="AV8" s="35">
+      <c r="AR8" s="49"/>
+      <c r="AS8" s="49"/>
+      <c r="AU8" s="38">
+        <v>4</v>
+      </c>
+      <c r="AV8" s="33">
         <v>45410</v>
       </c>
-      <c r="AW8" s="32" t="s">
+      <c r="AW8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="AX8" s="33">
-        <v>4</v>
-      </c>
-      <c r="AY8" s="32" t="s">
+      <c r="AX8" s="31">
+        <v>4</v>
+      </c>
+      <c r="AY8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="AZ8" s="33">
-        <v>3</v>
-      </c>
-      <c r="BA8" s="34" t="s">
+      <c r="AZ8" s="31">
+        <v>3</v>
+      </c>
+      <c r="BA8" s="32" t="s">
         <v>73</v>
       </c>
       <c r="BB8" s="1" t="s">
@@ -1996,7 +2010,7 @@
       <c r="A9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
@@ -2010,7 +2024,7 @@
       <c r="M9" s="8">
         <v>4</v>
       </c>
-      <c r="N9" s="35">
+      <c r="N9" s="33">
         <v>45423</v>
       </c>
       <c r="O9" s="12" t="s">
@@ -2031,7 +2045,7 @@
       <c r="AI9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ9" s="29">
+      <c r="AJ9" s="27">
         <v>45428</v>
       </c>
       <c r="AK9" s="12" t="s">
@@ -2055,7 +2069,7 @@
       <c r="AU9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV9" s="29">
+      <c r="AV9" s="27">
         <v>45412</v>
       </c>
       <c r="AW9" s="12" t="s">
@@ -2070,7 +2084,7 @@
       <c r="AZ9" s="13">
         <v>1</v>
       </c>
-      <c r="BA9" s="34" t="s">
+      <c r="BA9" s="32" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2078,7 +2092,7 @@
       <c r="A10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
@@ -2092,7 +2106,7 @@
       <c r="M10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="35">
+      <c r="N10" s="33">
         <v>45425</v>
       </c>
       <c r="O10" s="12" t="s">
@@ -2113,7 +2127,9 @@
       <c r="AI10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ10" s="29"/>
+      <c r="AJ10" s="27">
+        <v>45430</v>
+      </c>
       <c r="AK10" s="12" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2143,7 @@
       <c r="AU10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV10" s="29">
+      <c r="AV10" s="27">
         <v>45416</v>
       </c>
       <c r="AW10" s="12" t="s">
@@ -2150,7 +2166,7 @@
       <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="14" t="s">
         <v>16</v>
       </c>
@@ -2164,7 +2180,7 @@
       <c r="M11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="35">
+      <c r="N11" s="33">
         <v>45428</v>
       </c>
       <c r="O11" s="12" t="s">
@@ -2185,7 +2201,7 @@
       <c r="AI11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ11" s="30"/>
+      <c r="AJ11" s="28"/>
       <c r="AK11" s="14" t="s">
         <v>7</v>
       </c>
@@ -2199,7 +2215,7 @@
       <c r="AU11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV11" s="30"/>
+      <c r="AV11" s="28"/>
       <c r="AW11" s="14" t="s">
         <v>11</v>
       </c>
@@ -2211,20 +2227,20 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="36"/>
+      <c r="N12" s="34"/>
       <c r="O12" s="12" t="s">
         <v>4</v>
       </c>
@@ -2234,67 +2250,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="44" t="s">
+      <c r="AI12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="44"/>
-      <c r="AK12" s="44"/>
-      <c r="AL12" s="44"/>
-      <c r="AM12" s="44"/>
-      <c r="AN12" s="44"/>
-      <c r="AO12" s="44"/>
+      <c r="AJ12" s="48"/>
+      <c r="AK12" s="48"/>
+      <c r="AL12" s="48"/>
+      <c r="AM12" s="48"/>
+      <c r="AN12" s="48"/>
+      <c r="AO12" s="48"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="44" t="s">
+      <c r="AU12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
-      <c r="AX12" s="44"/>
-      <c r="AY12" s="44"/>
-      <c r="AZ12" s="44"/>
-      <c r="BA12" s="44"/>
+      <c r="AV12" s="48"/>
+      <c r="AW12" s="48"/>
+      <c r="AX12" s="48"/>
+      <c r="AY12" s="48"/>
+      <c r="AZ12" s="48"/>
+      <c r="BA12" s="48"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="56"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="44"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="L14" s="46" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="L14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="AN14" s="45"/>
-      <c r="AO14" s="45"/>
-      <c r="AP14" s="45"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="AN14" s="49"/>
+      <c r="AO14" s="49"/>
+      <c r="AP14" s="49"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="44" t="s">
+      <c r="AU14" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="44"/>
-      <c r="AW14" s="44"/>
-      <c r="AX14" s="44"/>
-      <c r="AY14" s="44"/>
-      <c r="AZ14" s="44"/>
-      <c r="BA14" s="44"/>
+      <c r="AV14" s="48"/>
+      <c r="AW14" s="48"/>
+      <c r="AX14" s="48"/>
+      <c r="AY14" s="48"/>
+      <c r="AZ14" s="48"/>
+      <c r="BA14" s="48"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2348,7 +2364,7 @@
       <c r="A16" s="7">
         <v>1</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="26">
         <v>45402</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2373,7 +2389,7 @@
       <c r="AU16" s="7">
         <v>1</v>
       </c>
-      <c r="AV16" s="28">
+      <c r="AV16" s="26">
         <v>45404</v>
       </c>
       <c r="AW16" s="10" t="s">
@@ -2396,7 +2412,7 @@
       <c r="A17" s="8">
         <v>2</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="27">
         <v>45404</v>
       </c>
       <c r="C17" s="12" t="s">
@@ -2421,7 +2437,7 @@
       <c r="AU17" s="8">
         <v>2</v>
       </c>
-      <c r="AV17" s="29">
+      <c r="AV17" s="27">
         <v>45406</v>
       </c>
       <c r="AW17" s="12" t="s">
@@ -2447,7 +2463,7 @@
       <c r="A18" s="8">
         <v>3</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="27">
         <v>45407</v>
       </c>
       <c r="C18" s="12" t="s">
@@ -2472,7 +2488,7 @@
       <c r="AU18" s="8">
         <v>3</v>
       </c>
-      <c r="AV18" s="29">
+      <c r="AV18" s="27">
         <v>45408</v>
       </c>
       <c r="AW18" s="12" t="s">
@@ -2495,59 +2511,59 @@
       <c r="A19" s="8">
         <v>4</v>
       </c>
-      <c r="B19" s="35">
+      <c r="B19" s="33">
         <v>45409</v>
       </c>
-      <c r="C19" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="33">
-        <v>2</v>
-      </c>
-      <c r="E19" s="32" t="s">
+      <c r="C19" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="31">
+        <v>2</v>
+      </c>
+      <c r="E19" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="33">
-        <v>3</v>
-      </c>
-      <c r="G19" s="34" t="s">
+      <c r="F19" s="31">
+        <v>3</v>
+      </c>
+      <c r="G19" s="32" t="s">
         <v>78</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
+      <c r="I19" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="46" t="s">
+      <c r="AQ19" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AU19" s="40">
-        <v>4</v>
-      </c>
-      <c r="AV19" s="35">
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AU19" s="38">
+        <v>4</v>
+      </c>
+      <c r="AV19" s="33">
         <v>45410</v>
       </c>
-      <c r="AW19" s="32" t="s">
+      <c r="AW19" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AX19" s="33">
+      <c r="AX19" s="31">
         <v>1</v>
       </c>
-      <c r="AY19" s="32" t="s">
+      <c r="AY19" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="AZ19" s="33">
+      <c r="AZ19" s="31">
         <v>0</v>
       </c>
-      <c r="BA19" s="34" t="s">
+      <c r="BA19" s="32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2555,7 +2571,7 @@
       <c r="A20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="27">
         <v>45412</v>
       </c>
       <c r="C20" s="12" t="s">
@@ -2578,7 +2594,7 @@
       <c r="AU20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV20" s="29">
+      <c r="AV20" s="27">
         <v>45413</v>
       </c>
       <c r="AW20" s="12" t="s">
@@ -2601,7 +2617,7 @@
       <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2632,7 @@
       <c r="AU21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV21" s="29"/>
+      <c r="AV21" s="27"/>
       <c r="AW21" s="12" t="s">
         <v>7</v>
       </c>
@@ -2631,7 +2647,7 @@
       <c r="A22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="30"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="14" t="s">
         <v>8</v>
       </c>
@@ -2646,7 +2662,7 @@
       <c r="AU22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV22" s="30"/>
+      <c r="AV22" s="28"/>
       <c r="AW22" s="14" t="s">
         <v>9</v>
       </c>
@@ -2658,52 +2674,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="44" t="s">
+      <c r="AU23" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="44"/>
-      <c r="AW23" s="44"/>
-      <c r="AX23" s="44"/>
-      <c r="AY23" s="44"/>
-      <c r="AZ23" s="44"/>
-      <c r="BA23" s="44"/>
+      <c r="AV23" s="48"/>
+      <c r="AW23" s="48"/>
+      <c r="AX23" s="48"/>
+      <c r="AY23" s="48"/>
+      <c r="AZ23" s="48"/>
+      <c r="BA23" s="48"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="44" t="s">
+      <c r="AU25" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="44"/>
-      <c r="AW25" s="44"/>
-      <c r="AX25" s="44"/>
-      <c r="AY25" s="44"/>
-      <c r="AZ25" s="44"/>
-      <c r="BA25" s="44"/>
+      <c r="AV25" s="48"/>
+      <c r="AW25" s="48"/>
+      <c r="AX25" s="48"/>
+      <c r="AY25" s="48"/>
+      <c r="AZ25" s="48"/>
+      <c r="BA25" s="48"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2727,24 +2743,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="46"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
-      <c r="W26" s="45"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="50"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="49"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="49"/>
+      <c r="AE26" s="49"/>
+      <c r="AF26" s="49"/>
+      <c r="AG26" s="49"/>
+      <c r="AH26" s="49"/>
+      <c r="AI26" s="49"/>
+      <c r="AJ26" s="49"/>
+      <c r="AK26" s="49"/>
+      <c r="AL26" s="49"/>
+      <c r="AM26" s="57"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2771,7 +2787,7 @@
       <c r="A27" s="7">
         <v>1</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="26">
         <v>45402</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -2796,7 +2812,7 @@
       <c r="AU27" s="7">
         <v>1</v>
       </c>
-      <c r="AV27" s="28">
+      <c r="AV27" s="26">
         <v>45403</v>
       </c>
       <c r="AW27" s="10" t="s">
@@ -2819,7 +2835,7 @@
       <c r="A28" s="8">
         <v>2</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="27">
         <v>45404</v>
       </c>
       <c r="C28" s="12" t="s">
@@ -2838,31 +2854,31 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="54" t="s">
+      <c r="P28" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="44"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="44" t="s">
+      <c r="AF28" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
+      <c r="AG28" s="48"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
+      <c r="AJ28" s="48"/>
+      <c r="AK28" s="48"/>
+      <c r="AL28" s="48"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
       </c>
-      <c r="AV28" s="29">
+      <c r="AV28" s="27">
         <v>45405</v>
       </c>
       <c r="AW28" s="12" t="s">
@@ -2885,7 +2901,7 @@
       <c r="A29" s="8">
         <v>3</v>
       </c>
-      <c r="B29" s="29">
+      <c r="B29" s="27">
         <v>45406</v>
       </c>
       <c r="C29" s="12" t="s">
@@ -2904,25 +2920,25 @@
         <v>61</v>
       </c>
       <c r="O29" s="12"/>
-      <c r="P29" s="23" t="s">
+      <c r="P29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="23" t="s">
+      <c r="Q29" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="R29" s="23" t="s">
+      <c r="R29" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="S29" s="23" t="s">
+      <c r="S29" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T29" s="23" t="s">
+      <c r="T29" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="23" t="s">
+      <c r="U29" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="V29" s="23" t="s">
+      <c r="V29" s="22" t="s">
         <v>25</v>
       </c>
       <c r="X29" s="12"/>
@@ -2952,7 +2968,7 @@
       <c r="AU29" s="8">
         <v>3</v>
       </c>
-      <c r="AV29" s="29">
+      <c r="AV29" s="27">
         <v>45408</v>
       </c>
       <c r="AW29" s="12" t="s">
@@ -2975,75 +2991,81 @@
       <c r="A30" s="8">
         <v>4</v>
       </c>
-      <c r="B30" s="35">
+      <c r="B30" s="33">
         <v>45409</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="33">
-        <v>3</v>
-      </c>
-      <c r="E30" s="32" t="s">
+      <c r="C30" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="31">
+        <v>3</v>
+      </c>
+      <c r="E30" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="31">
         <v>1</v>
       </c>
-      <c r="G30" s="34" t="s">
+      <c r="G30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
+      <c r="I30" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
       </c>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="25"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="25"/>
-      <c r="V30" s="26"/>
+      <c r="Q30" s="58">
+        <v>45434</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="S30" s="24"/>
+      <c r="T30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="U30" s="24"/>
+      <c r="V30" s="25"/>
       <c r="X30" s="12"/>
       <c r="AD30" s="13"/>
       <c r="AF30" s="7">
         <v>1</v>
       </c>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="24"/>
-      <c r="AI30" s="25"/>
-      <c r="AJ30" s="24"/>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="26"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="23"/>
+      <c r="AI30" s="24"/>
+      <c r="AJ30" s="23"/>
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="45"/>
-      <c r="AS30" s="45"/>
-      <c r="AU30" s="40">
-        <v>4</v>
-      </c>
-      <c r="AV30" s="35">
+      <c r="AQ30" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="49"/>
+      <c r="AS30" s="49"/>
+      <c r="AU30" s="38">
+        <v>4</v>
+      </c>
+      <c r="AV30" s="33">
         <v>45410</v>
       </c>
-      <c r="AW30" s="32" t="s">
+      <c r="AW30" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="AX30" s="33">
+      <c r="AX30" s="31">
         <v>1</v>
       </c>
-      <c r="AY30" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ30" s="33">
+      <c r="AY30" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ30" s="31">
         <v>5</v>
       </c>
-      <c r="BA30" s="34" t="s">
+      <c r="BA30" s="32" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3051,7 +3073,7 @@
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="29">
+      <c r="B31" s="27">
         <v>45412</v>
       </c>
       <c r="C31" s="12" t="s">
@@ -3066,7 +3088,7 @@
       <c r="F31" s="13">
         <v>1</v>
       </c>
-      <c r="G31" s="34" t="s">
+      <c r="G31" s="32" t="s">
         <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3077,10 +3099,16 @@
       <c r="P31" s="8">
         <v>2</v>
       </c>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="12"/>
+      <c r="Q31" s="59">
+        <v>45436</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="S31" s="13"/>
-      <c r="T31" s="12"/>
+      <c r="T31" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="U31" s="13"/>
       <c r="V31" s="16"/>
       <c r="X31" s="12"/>
@@ -3088,7 +3116,7 @@
       <c r="AF31" s="8">
         <v>2</v>
       </c>
-      <c r="AG31" s="29"/>
+      <c r="AG31" s="27"/>
       <c r="AH31" s="12"/>
       <c r="AI31" s="13"/>
       <c r="AJ31" s="12"/>
@@ -3101,7 +3129,7 @@
       <c r="AU31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV31" s="29">
+      <c r="AV31" s="27">
         <v>45412</v>
       </c>
       <c r="AW31" s="12" t="s">
@@ -3124,7 +3152,7 @@
       <c r="A32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="27">
         <v>45414</v>
       </c>
       <c r="C32" s="12" t="s">
@@ -3147,10 +3175,16 @@
       <c r="P32" s="8">
         <v>3</v>
       </c>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="12"/>
+      <c r="Q32" s="59">
+        <v>45438</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="S32" s="13"/>
-      <c r="T32" s="12"/>
+      <c r="T32" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="U32" s="13"/>
       <c r="V32" s="16"/>
       <c r="X32" s="12"/>
@@ -3158,7 +3192,7 @@
       <c r="AF32" s="8">
         <v>3</v>
       </c>
-      <c r="AG32" s="29"/>
+      <c r="AG32" s="27"/>
       <c r="AH32" s="12"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="12"/>
@@ -3169,7 +3203,7 @@
       <c r="AU32" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV32" s="29"/>
+      <c r="AV32" s="27"/>
       <c r="AW32" s="12" t="s">
         <v>17</v>
       </c>
@@ -3184,7 +3218,7 @@
       <c r="A33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="28">
         <v>45416</v>
       </c>
       <c r="C33" s="14" t="s">
@@ -3210,10 +3244,16 @@
       <c r="P33" s="8">
         <v>4</v>
       </c>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="12"/>
+      <c r="Q33" s="59">
+        <v>45440</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="S33" s="13"/>
-      <c r="T33" s="12"/>
+      <c r="T33" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="U33" s="13"/>
       <c r="V33" s="16"/>
       <c r="X33" s="12"/>
@@ -3221,7 +3261,7 @@
       <c r="AF33" s="8">
         <v>4</v>
       </c>
-      <c r="AG33" s="35"/>
+      <c r="AG33" s="33"/>
       <c r="AH33" s="12"/>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="12"/>
@@ -3232,7 +3272,7 @@
       <c r="AU33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV33" s="30"/>
+      <c r="AV33" s="28"/>
       <c r="AW33" s="14" t="s">
         <v>3</v>
       </c>
@@ -3244,24 +3284,28 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="12"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="S34" s="13"/>
-      <c r="T34" s="12"/>
+      <c r="T34" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="U34" s="13"/>
       <c r="V34" s="16"/>
       <c r="X34" s="12"/>
@@ -3269,7 +3313,7 @@
       <c r="AF34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AG34" s="29"/>
+      <c r="AG34" s="27"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="12"/>
@@ -3277,15 +3321,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="44" t="s">
+      <c r="AU34" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="44"/>
-      <c r="AW34" s="44"/>
-      <c r="AX34" s="44"/>
-      <c r="AY34" s="44"/>
-      <c r="AZ34" s="44"/>
-      <c r="BA34" s="44"/>
+      <c r="AV34" s="48"/>
+      <c r="AW34" s="48"/>
+      <c r="AX34" s="48"/>
+      <c r="AY34" s="48"/>
+      <c r="AZ34" s="48"/>
+      <c r="BA34" s="48"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3293,10 +3337,14 @@
       <c r="P35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="12"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="S35" s="13"/>
-      <c r="T35" s="12"/>
+      <c r="T35" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="U35" s="13"/>
       <c r="V35" s="16"/>
       <c r="X35" s="12"/>
@@ -3304,7 +3352,7 @@
       <c r="AF35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AG35" s="29"/>
+      <c r="AG35" s="27"/>
       <c r="AH35" s="12"/>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="12"/>
@@ -3314,26 +3362,32 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="L36" s="46"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="45"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="L36" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="12"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="S36" s="13"/>
-      <c r="T36" s="12"/>
+      <c r="T36" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="U36" s="13"/>
       <c r="V36" s="16"/>
       <c r="X36" s="12"/>
@@ -3341,25 +3395,27 @@
       <c r="AF36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AG36" s="36"/>
-      <c r="AH36" s="37"/>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="37"/>
-      <c r="AK36" s="38"/>
-      <c r="AL36" s="39"/>
-      <c r="AN36" s="46"/>
-      <c r="AO36" s="45"/>
-      <c r="AP36" s="45"/>
+      <c r="AG36" s="34"/>
+      <c r="AH36" s="35"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="35"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="37"/>
+      <c r="AN36" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="49"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="44" t="s">
+      <c r="AU36" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="44"/>
-      <c r="AW36" s="44"/>
-      <c r="AX36" s="44"/>
-      <c r="AY36" s="44"/>
-      <c r="AZ36" s="44"/>
-      <c r="BA36" s="44"/>
+      <c r="AV36" s="48"/>
+      <c r="AW36" s="48"/>
+      <c r="AX36" s="48"/>
+      <c r="AY36" s="48"/>
+      <c r="AZ36" s="48"/>
+      <c r="BA36" s="48"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3384,31 +3440,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="57" t="s">
+      <c r="P37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="58"/>
-      <c r="R37" s="58"/>
-      <c r="S37" s="58"/>
-      <c r="T37" s="58"/>
-      <c r="U37" s="58"/>
-      <c r="V37" s="59"/>
-      <c r="X37" s="46"/>
-      <c r="Y37" s="45"/>
-      <c r="Z37" s="45"/>
-      <c r="AA37" s="45"/>
-      <c r="AB37" s="45"/>
-      <c r="AC37" s="45"/>
-      <c r="AD37" s="50"/>
-      <c r="AF37" s="44" t="s">
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="47"/>
+      <c r="X37" s="53"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="57"/>
+      <c r="AF37" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="44"/>
-      <c r="AH37" s="44"/>
-      <c r="AI37" s="44"/>
-      <c r="AJ37" s="44"/>
-      <c r="AK37" s="44"/>
-      <c r="AL37" s="44"/>
+      <c r="AG37" s="48"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="48"/>
+      <c r="AL37" s="48"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3436,7 +3492,7 @@
       <c r="A38" s="7">
         <v>1</v>
       </c>
-      <c r="B38" s="28">
+      <c r="B38" s="26">
         <v>45403</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -3459,7 +3515,7 @@
       <c r="AU38" s="7">
         <v>1</v>
       </c>
-      <c r="AV38" s="28">
+      <c r="AV38" s="26">
         <v>45404</v>
       </c>
       <c r="AW38" s="10" t="s">
@@ -3482,7 +3538,7 @@
       <c r="A39" s="8">
         <v>2</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B39" s="27">
         <v>45405</v>
       </c>
       <c r="C39" s="12" t="s">
@@ -3504,38 +3560,38 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="54" t="s">
+      <c r="M39" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="56"/>
-      <c r="X39" s="44" t="s">
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="44"/>
+      <c r="X39" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AI39" s="44" t="s">
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="48"/>
+      <c r="AB39" s="48"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="48"/>
+      <c r="AI39" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="44"/>
-      <c r="AK39" s="44"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
+      <c r="AJ39" s="48"/>
+      <c r="AK39" s="48"/>
+      <c r="AL39" s="48"/>
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="48"/>
+      <c r="AO39" s="48"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
       </c>
-      <c r="AV39" s="29">
+      <c r="AV39" s="27">
         <v>45406</v>
       </c>
       <c r="AW39" s="12" t="s">
@@ -3558,7 +3614,7 @@
       <c r="A40" s="8">
         <v>3</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="27">
         <v>45407</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -3577,25 +3633,25 @@
         <v>64</v>
       </c>
       <c r="L40" s="12"/>
-      <c r="M40" s="23" t="s">
+      <c r="M40" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="23" t="s">
+      <c r="N40" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="O40" s="23" t="s">
+      <c r="O40" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="23" t="s">
+      <c r="P40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Q40" s="23" t="s">
+      <c r="Q40" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="R40" s="23" t="s">
+      <c r="R40" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="S40" s="23" t="s">
+      <c r="S40" s="22" t="s">
         <v>25</v>
       </c>
       <c r="X40" s="3" t="s">
@@ -3644,7 +3700,7 @@
       <c r="AU40" s="8">
         <v>3</v>
       </c>
-      <c r="AV40" s="29">
+      <c r="AV40" s="27">
         <v>45409</v>
       </c>
       <c r="AW40" s="12" t="s">
@@ -3670,108 +3726,108 @@
       <c r="A41" s="8">
         <v>4</v>
       </c>
-      <c r="B41" s="35">
+      <c r="B41" s="33">
         <v>45409</v>
       </c>
-      <c r="C41" s="32" t="s">
+      <c r="C41" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="33">
-        <v>3</v>
-      </c>
-      <c r="E41" s="32" t="s">
+      <c r="D41" s="31">
+        <v>3</v>
+      </c>
+      <c r="E41" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="33">
+      <c r="F41" s="31">
         <v>6</v>
       </c>
-      <c r="G41" s="34" t="s">
+      <c r="G41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="45" t="s">
+      <c r="I41" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="45"/>
-      <c r="K41" s="45"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
       </c>
-      <c r="N41" s="31">
+      <c r="N41" s="29">
         <v>45418</v>
       </c>
-      <c r="O41" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="P41" s="25">
+      <c r="O41" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="P41" s="24">
         <v>5</v>
       </c>
-      <c r="Q41" s="24" t="s">
+      <c r="Q41" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R41" s="25">
+      <c r="R41" s="24">
         <v>1</v>
       </c>
-      <c r="S41" s="26" t="s">
+      <c r="S41" s="25" t="s">
         <v>52</v>
       </c>
       <c r="X41" s="7">
         <v>1</v>
       </c>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="25"/>
-      <c r="AB41" s="24"/>
-      <c r="AC41" s="25"/>
-      <c r="AD41" s="26"/>
+      <c r="Y41" s="29"/>
+      <c r="Z41" s="23"/>
+      <c r="AA41" s="24"/>
+      <c r="AB41" s="23"/>
+      <c r="AC41" s="24"/>
+      <c r="AD41" s="25"/>
       <c r="AI41" s="7">
         <v>1</v>
       </c>
-      <c r="AJ41" s="31">
+      <c r="AJ41" s="29">
         <v>45419</v>
       </c>
-      <c r="AK41" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL41" s="25">
-        <v>4</v>
-      </c>
-      <c r="AM41" s="24" t="s">
+      <c r="AK41" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL41" s="24">
+        <v>4</v>
+      </c>
+      <c r="AM41" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="25">
-        <v>3</v>
-      </c>
-      <c r="AO41" s="26" t="s">
+      <c r="AN41" s="24">
+        <v>3</v>
+      </c>
+      <c r="AO41" s="25" t="s">
         <v>93</v>
       </c>
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="46" t="s">
+      <c r="AQ41" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="45"/>
-      <c r="AS41" s="45"/>
+      <c r="AR41" s="49"/>
+      <c r="AS41" s="49"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
-      <c r="AV41" s="35">
+      <c r="AV41" s="33">
         <v>45411</v>
       </c>
-      <c r="AW41" s="32" t="s">
+      <c r="AW41" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AX41" s="33">
-        <v>4</v>
-      </c>
-      <c r="AY41" s="32" t="s">
+      <c r="AX41" s="31">
+        <v>4</v>
+      </c>
+      <c r="AY41" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AZ41" s="33">
-        <v>2</v>
-      </c>
-      <c r="BA41" s="34" t="s">
+      <c r="AZ41" s="31">
+        <v>2</v>
+      </c>
+      <c r="BA41" s="32" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3779,7 +3835,7 @@
       <c r="A42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B42" s="27">
         <v>45411</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -3800,7 +3856,7 @@
       <c r="M42" s="8">
         <v>2</v>
       </c>
-      <c r="N42" s="35">
+      <c r="N42" s="33">
         <v>45420</v>
       </c>
       <c r="O42" s="12" t="s">
@@ -3821,7 +3877,7 @@
       <c r="X42" s="8">
         <v>2</v>
       </c>
-      <c r="Y42" s="29"/>
+      <c r="Y42" s="27"/>
       <c r="Z42" s="12"/>
       <c r="AA42" s="13"/>
       <c r="AB42" s="12"/>
@@ -3830,7 +3886,7 @@
       <c r="AI42" s="8">
         <v>2</v>
       </c>
-      <c r="AJ42" s="29">
+      <c r="AJ42" s="27">
         <v>45421</v>
       </c>
       <c r="AK42" s="12" t="s">
@@ -3851,7 +3907,7 @@
       <c r="AU42" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AV42" s="29">
+      <c r="AV42" s="27">
         <v>45413</v>
       </c>
       <c r="AW42" s="12" t="s">
@@ -3874,7 +3930,7 @@
       <c r="A43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="29"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="12" t="s">
         <v>6</v>
       </c>
@@ -3887,7 +3943,7 @@
       <c r="M43" s="8">
         <v>3</v>
       </c>
-      <c r="N43" s="35">
+      <c r="N43" s="33">
         <v>45422</v>
       </c>
       <c r="O43" s="12" t="s">
@@ -3908,7 +3964,7 @@
       <c r="X43" s="8">
         <v>3</v>
       </c>
-      <c r="Y43" s="29"/>
+      <c r="Y43" s="27"/>
       <c r="Z43" s="12"/>
       <c r="AA43" s="13"/>
       <c r="AB43" s="12"/>
@@ -3917,7 +3973,7 @@
       <c r="AI43" s="8">
         <v>3</v>
       </c>
-      <c r="AJ43" s="29">
+      <c r="AJ43" s="27">
         <v>45423</v>
       </c>
       <c r="AK43" s="12" t="s">
@@ -3938,7 +3994,7 @@
       <c r="AU43" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AV43" s="29">
+      <c r="AV43" s="27">
         <v>45415</v>
       </c>
       <c r="AW43" s="12" t="s">
@@ -3953,7 +4009,7 @@
       <c r="AZ43" s="13">
         <v>2</v>
       </c>
-      <c r="BA43" s="34" t="s">
+      <c r="BA43" s="32" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3961,7 +4017,7 @@
       <c r="A44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="30"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="14" t="s">
         <v>12</v>
       </c>
@@ -3974,7 +4030,7 @@
       <c r="M44" s="8">
         <v>4</v>
       </c>
-      <c r="N44" s="35">
+      <c r="N44" s="33">
         <v>45424</v>
       </c>
       <c r="O44" s="12" t="s">
@@ -3995,7 +4051,7 @@
       <c r="X44" s="8">
         <v>4</v>
       </c>
-      <c r="Y44" s="29"/>
+      <c r="Y44" s="27"/>
       <c r="Z44" s="12"/>
       <c r="AA44" s="13"/>
       <c r="AB44" s="12"/>
@@ -4004,7 +4060,7 @@
       <c r="AI44" s="8">
         <v>4</v>
       </c>
-      <c r="AJ44" s="35">
+      <c r="AJ44" s="33">
         <v>45425</v>
       </c>
       <c r="AK44" s="12" t="s">
@@ -4025,7 +4081,7 @@
       <c r="AU44" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AV44" s="30">
+      <c r="AV44" s="28">
         <v>45417</v>
       </c>
       <c r="AW44" s="14" t="s">
@@ -4045,19 +4101,19 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N45" s="35">
+      <c r="N45" s="33">
         <v>45426</v>
       </c>
       <c r="O45" s="12" t="s">
@@ -4078,7 +4134,7 @@
       <c r="X45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Y45" s="29"/>
+      <c r="Y45" s="27"/>
       <c r="Z45" s="12"/>
       <c r="AA45" s="13"/>
       <c r="AB45" s="12"/>
@@ -4087,7 +4143,7 @@
       <c r="AI45" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AJ45" s="29">
+      <c r="AJ45" s="27">
         <v>45427</v>
       </c>
       <c r="AK45" s="12" t="s">
@@ -4105,36 +4161,42 @@
       <c r="AO45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AU45" s="44" t="s">
+      <c r="AU45" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="44"/>
-      <c r="AW45" s="44"/>
-      <c r="AX45" s="44"/>
-      <c r="AY45" s="44"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="44"/>
+      <c r="AV45" s="48"/>
+      <c r="AW45" s="48"/>
+      <c r="AX45" s="48"/>
+      <c r="AY45" s="48"/>
+      <c r="AZ45" s="48"/>
+      <c r="BA45" s="48"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N46" s="35">
+      <c r="N46" s="33">
         <v>45429</v>
       </c>
       <c r="O46" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P46" s="13"/>
+      <c r="P46" s="13">
+        <v>2</v>
+      </c>
       <c r="Q46" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="R46" s="13"/>
-      <c r="S46" s="16"/>
+      <c r="R46" s="13">
+        <v>1</v>
+      </c>
+      <c r="S46" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="X46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y46" s="29"/>
+      <c r="Y46" s="27"/>
       <c r="Z46" s="12"/>
       <c r="AA46" s="13"/>
       <c r="AB46" s="12"/>
@@ -4143,24 +4205,33 @@
       <c r="AI46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AJ46" s="29">
+      <c r="AJ46" s="27">
         <v>45429</v>
       </c>
       <c r="AK46" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AL46" s="13"/>
+      <c r="AL46" s="13">
+        <v>2</v>
+      </c>
       <c r="AM46" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="AN46" s="13"/>
-      <c r="AO46" s="16"/>
+      <c r="AN46" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="47" spans="1:54" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N47" s="36"/>
+      <c r="N47" s="34"/>
       <c r="O47" s="12" t="s">
         <v>2</v>
       </c>
@@ -4173,7 +4244,7 @@
       <c r="X47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y47" s="30"/>
+      <c r="Y47" s="28"/>
       <c r="Z47" s="14"/>
       <c r="AA47" s="15"/>
       <c r="AB47" s="14"/>
@@ -4182,7 +4253,7 @@
       <c r="AI47" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ47" s="30"/>
+      <c r="AJ47" s="28"/>
       <c r="AK47" s="14" t="s">
         <v>3</v>
       </c>
@@ -4194,45 +4265,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="54" t="s">
+      <c r="M48" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="56"/>
-      <c r="X48" s="44" t="s">
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="44"/>
+      <c r="X48" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AI48" s="44" t="s">
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="48"/>
+      <c r="AB48" s="48"/>
+      <c r="AC48" s="48"/>
+      <c r="AD48" s="48"/>
+      <c r="AI48" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="44"/>
-      <c r="AK48" s="44"/>
-      <c r="AL48" s="44"/>
-      <c r="AM48" s="44"/>
-      <c r="AN48" s="44"/>
-      <c r="AO48" s="44"/>
+      <c r="AJ48" s="48"/>
+      <c r="AK48" s="48"/>
+      <c r="AL48" s="48"/>
+      <c r="AM48" s="48"/>
+      <c r="AN48" s="48"/>
+      <c r="AO48" s="48"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4249,125 +4340,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
-          <xm:sqref>T30:T36 Q30:R36 O26</xm:sqref>
+          <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD76AFD4-08E3-4191-A5F9-6710E9D5776D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC78B20-AE5B-4BA0-BEFF-81596F2FDEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="103">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -704,13 +704,52 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,45 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,18 +1142,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="41"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1182,18 +1182,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="39" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="40"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1236,14 +1236,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1274,10 +1274,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1296,10 +1296,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1381,16 +1381,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:BB49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
-      <selection activeCell="AL10" sqref="AL10"/>
+      <selection activeCell="AL11" sqref="AL11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,124 +1447,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
-      <c r="Z1" s="50" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="52"/>
-      <c r="AF1" s="50" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="51"/>
-      <c r="AQ1" s="51"/>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="51"/>
-      <c r="AZ1" s="51"/>
-      <c r="BA1" s="52"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56"/>
-      <c r="M2" s="54" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="M2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="56"/>
-      <c r="AI2" s="54" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="AI2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="55"/>
-      <c r="AK2" s="55"/>
-      <c r="AL2" s="55"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="56"/>
-      <c r="AU2" s="54" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AU2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="55"/>
-      <c r="AX2" s="55"/>
-      <c r="AY2" s="55"/>
-      <c r="AZ2" s="55"/>
-      <c r="BA2" s="56"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="AI3" s="48" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="AI3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48"/>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48"/>
-      <c r="AU3" s="48" t="s">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AU3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="48"/>
-      <c r="AW3" s="48"/>
-      <c r="AX3" s="48"/>
-      <c r="AY3" s="48"/>
-      <c r="AZ3" s="48"/>
-      <c r="BA3" s="48"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1588,15 +1588,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="42" t="s">
+      <c r="M4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="44"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1926,11 +1926,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1976,11 +1976,11 @@
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="49" t="s">
+      <c r="AQ8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="49"/>
-      <c r="AS8" s="49"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2133,12 +2133,18 @@
       <c r="AK10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="AL10" s="13"/>
+      <c r="AL10" s="13">
+        <v>1</v>
+      </c>
       <c r="AM10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AN10" s="13"/>
-      <c r="AO10" s="16"/>
+      <c r="AN10" s="13">
+        <v>5</v>
+      </c>
+      <c r="AO10" s="16" t="s">
+        <v>85</v>
+      </c>
       <c r="AQ10" s="12"/>
       <c r="AU10" s="8" t="s">
         <v>26</v>
@@ -2201,7 +2207,9 @@
       <c r="AI11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AJ11" s="28"/>
+      <c r="AJ11" s="28">
+        <v>45432</v>
+      </c>
       <c r="AK11" s="14" t="s">
         <v>7</v>
       </c>
@@ -2227,15 +2235,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2250,67 +2258,67 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="48" t="s">
+      <c r="AI12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="48"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="48"/>
-      <c r="AN12" s="48"/>
-      <c r="AO12" s="48"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="48" t="s">
+      <c r="AU12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="48"/>
-      <c r="AW12" s="48"/>
-      <c r="AX12" s="48"/>
-      <c r="AY12" s="48"/>
-      <c r="AZ12" s="48"/>
-      <c r="BA12" s="48"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="42" t="s">
+      <c r="M13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="44"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="L14" s="53" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="L14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="AN14" s="49"/>
-      <c r="AO14" s="49"/>
-      <c r="AP14" s="49"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="48" t="s">
+      <c r="AU14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="48"/>
-      <c r="AW14" s="48"/>
-      <c r="AX14" s="48"/>
-      <c r="AY14" s="48"/>
-      <c r="AZ14" s="48"/>
-      <c r="BA14" s="48"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2532,19 +2540,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
+      <c r="I19" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="53" t="s">
+      <c r="AQ19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2674,52 +2682,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="48" t="s">
+      <c r="AU23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="48"/>
-      <c r="AW23" s="48"/>
-      <c r="AX23" s="48"/>
-      <c r="AY23" s="48"/>
-      <c r="AZ23" s="48"/>
-      <c r="BA23" s="48"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="48" t="s">
+      <c r="AU25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="48"/>
-      <c r="AW25" s="48"/>
-      <c r="AX25" s="48"/>
-      <c r="AY25" s="48"/>
-      <c r="AZ25" s="48"/>
-      <c r="BA25" s="48"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2743,24 +2751,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="53"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="49"/>
-      <c r="W26" s="49"/>
-      <c r="AE26" s="49"/>
-      <c r="AF26" s="49"/>
-      <c r="AG26" s="49"/>
-      <c r="AH26" s="49"/>
-      <c r="AI26" s="49"/>
-      <c r="AJ26" s="49"/>
-      <c r="AK26" s="49"/>
-      <c r="AL26" s="49"/>
-      <c r="AM26" s="57"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="51"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2854,26 +2862,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="42" t="s">
+      <c r="P28" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="44"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="57"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="48" t="s">
+      <c r="AF28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="48"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3009,16 +3017,16 @@
       <c r="G30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
+      <c r="I30" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
       </c>
-      <c r="Q30" s="58">
+      <c r="Q30" s="39">
         <v>45434</v>
       </c>
       <c r="R30" s="23" t="s">
@@ -3042,11 +3050,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="49"/>
-      <c r="AS30" s="49"/>
+      <c r="AQ30" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3099,7 +3107,7 @@
       <c r="P31" s="8">
         <v>2</v>
       </c>
-      <c r="Q31" s="59">
+      <c r="Q31" s="40">
         <v>45436</v>
       </c>
       <c r="R31" s="12" t="s">
@@ -3175,7 +3183,7 @@
       <c r="P32" s="8">
         <v>3</v>
       </c>
-      <c r="Q32" s="59">
+      <c r="Q32" s="40">
         <v>45438</v>
       </c>
       <c r="R32" s="12" t="s">
@@ -3244,7 +3252,7 @@
       <c r="P33" s="8">
         <v>4</v>
       </c>
-      <c r="Q33" s="59">
+      <c r="Q33" s="40">
         <v>45440</v>
       </c>
       <c r="R33" s="12" t="s">
@@ -3284,21 +3292,21 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="59"/>
+      <c r="Q34" s="40"/>
       <c r="R34" s="12" t="s">
         <v>6</v>
       </c>
@@ -3321,15 +3329,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="48" t="s">
+      <c r="AU34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="48"/>
-      <c r="AW34" s="48"/>
-      <c r="AX34" s="48"/>
-      <c r="AY34" s="48"/>
-      <c r="AZ34" s="48"/>
-      <c r="BA34" s="48"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3337,7 +3345,7 @@
       <c r="P35" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="59"/>
+      <c r="Q35" s="40"/>
       <c r="R35" s="12" t="s">
         <v>10</v>
       </c>
@@ -3362,25 +3370,25 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="48"/>
-      <c r="L36" s="53" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="L36" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Q36" s="60"/>
+      <c r="Q36" s="41"/>
       <c r="R36" s="12" t="s">
         <v>6</v>
       </c>
@@ -3401,21 +3409,21 @@
       <c r="AJ36" s="35"/>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="53" t="s">
+      <c r="AN36" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="49"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="48" t="s">
+      <c r="AU36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="48"/>
-      <c r="AW36" s="48"/>
-      <c r="AX36" s="48"/>
-      <c r="AY36" s="48"/>
-      <c r="AZ36" s="48"/>
-      <c r="BA36" s="48"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="45"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3440,31 +3448,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="45" t="s">
+      <c r="P37" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="46"/>
-      <c r="S37" s="46"/>
-      <c r="T37" s="46"/>
-      <c r="U37" s="46"/>
-      <c r="V37" s="47"/>
-      <c r="X37" s="53"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="49"/>
-      <c r="AC37" s="49"/>
-      <c r="AD37" s="57"/>
-      <c r="AF37" s="48" t="s">
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="60"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="51"/>
+      <c r="AF37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="48"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
-      <c r="AJ37" s="48"/>
-      <c r="AK37" s="48"/>
-      <c r="AL37" s="48"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3560,33 +3568,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="42" t="s">
+      <c r="M39" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="44"/>
-      <c r="X39" s="48" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="X39" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="48"/>
-      <c r="Z39" s="48"/>
-      <c r="AA39" s="48"/>
-      <c r="AB39" s="48"/>
-      <c r="AC39" s="48"/>
-      <c r="AD39" s="48"/>
-      <c r="AI39" s="48" t="s">
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AI39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="48"/>
-      <c r="AK39" s="48"/>
-      <c r="AL39" s="48"/>
-      <c r="AM39" s="48"/>
-      <c r="AN39" s="48"/>
-      <c r="AO39" s="48"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="45"/>
+      <c r="AN39" s="45"/>
+      <c r="AO39" s="45"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3744,11 +3752,11 @@
       <c r="G41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="49" t="s">
+      <c r="I41" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3804,11 +3812,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="53" t="s">
+      <c r="AQ41" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="49"/>
-      <c r="AS41" s="49"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="46"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4101,15 +4109,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4161,15 +4169,15 @@
       <c r="AO45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AU45" s="48" t="s">
+      <c r="AU45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="48"/>
-      <c r="AW45" s="48"/>
-      <c r="AX45" s="48"/>
-      <c r="AY45" s="48"/>
-      <c r="AZ45" s="48"/>
-      <c r="BA45" s="48"/>
+      <c r="AV45" s="45"/>
+      <c r="AW45" s="45"/>
+      <c r="AX45" s="45"/>
+      <c r="AY45" s="45"/>
+      <c r="AZ45" s="45"/>
+      <c r="BA45" s="45"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4265,49 +4273,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="42" t="s">
+      <c r="M48" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="43"/>
-      <c r="O48" s="43"/>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="44"/>
-      <c r="X48" s="48" t="s">
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="57"/>
+      <c r="X48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="48"/>
-      <c r="Z48" s="48"/>
-      <c r="AA48" s="48"/>
-      <c r="AB48" s="48"/>
-      <c r="AC48" s="48"/>
-      <c r="AD48" s="48"/>
-      <c r="AI48" s="48" t="s">
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AI48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="48"/>
-      <c r="AK48" s="48"/>
-      <c r="AL48" s="48"/>
-      <c r="AM48" s="48"/>
-      <c r="AN48" s="48"/>
-      <c r="AO48" s="48"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4324,30 +4344,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC78B20-AE5B-4BA0-BEFF-81596F2FDEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A2D81C-8D1E-46DA-9D85-F66FA68326CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="104">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>Panthers Win Series 4-2</t>
+  </si>
+  <si>
+    <t>Oilers Win Series 4-3</t>
   </si>
 </sst>
 </file>
@@ -713,14 +716,32 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -728,6 +749,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -742,33 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,18 +1145,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1182,18 +1185,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1212,7 +1215,9 @@
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1236,14 +1241,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1274,10 +1279,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1296,10 +1301,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1381,16 +1386,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1401,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z2" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11"/>
+    <sheetView tabSelected="1" topLeftCell="I15" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,124 +1452,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="Z1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="55"/>
+      <c r="AF1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="55"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="M2" s="48" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="M2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-      <c r="AI2" s="48" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="AI2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="50"/>
-      <c r="AU2" s="48" t="s">
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="59"/>
+      <c r="AU2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="50"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="59"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="AI3" s="45" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="AI3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1588,15 +1593,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="57"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1926,11 +1931,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1976,11 +1981,11 @@
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="46" t="s">
+      <c r="AQ8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2213,12 +2218,18 @@
       <c r="AK11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AL11" s="15"/>
+      <c r="AL11" s="15">
+        <v>3</v>
+      </c>
       <c r="AM11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="6"/>
+      <c r="AN11" s="15">
+        <v>2</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="AQ11" s="12"/>
       <c r="AU11" s="9" t="s">
         <v>28</v>
@@ -2235,15 +2246,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2258,67 +2269,69 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="45" t="s">
+      <c r="AI12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="45" t="s">
+      <c r="AU12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="L14" s="47" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="L14" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="AN14" s="46"/>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="AN14" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="45" t="s">
+      <c r="AU14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2540,19 +2553,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="I19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="47" t="s">
+      <c r="AQ19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2682,52 +2695,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="45" t="s">
+      <c r="AU23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="45" t="s">
+      <c r="AU25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2751,24 +2764,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="47"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="51"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="60"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2862,26 +2875,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="55" t="s">
+      <c r="P28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="57"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="47"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="45" t="s">
+      <c r="AF28" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3017,11 +3030,11 @@
       <c r="G30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
+      <c r="I30" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3043,18 +3056,24 @@
       <c r="AF30" s="7">
         <v>1</v>
       </c>
-      <c r="AG30" s="29"/>
-      <c r="AH30" s="23"/>
+      <c r="AG30" s="29">
+        <v>45435</v>
+      </c>
+      <c r="AH30" s="23" t="s">
+        <v>7</v>
+      </c>
       <c r="AI30" s="24"/>
-      <c r="AJ30" s="23"/>
+      <c r="AJ30" s="23" t="s">
+        <v>5</v>
+      </c>
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="46"/>
-      <c r="AS30" s="46"/>
+      <c r="AQ30" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3124,10 +3143,16 @@
       <c r="AF31" s="8">
         <v>2</v>
       </c>
-      <c r="AG31" s="27"/>
-      <c r="AH31" s="12"/>
+      <c r="AG31" s="27">
+        <v>45437</v>
+      </c>
+      <c r="AH31" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="AI31" s="13"/>
-      <c r="AJ31" s="12"/>
+      <c r="AJ31" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="AK31" s="13"/>
       <c r="AL31" s="16"/>
       <c r="AN31" s="12"/>
@@ -3200,7 +3225,9 @@
       <c r="AF32" s="8">
         <v>3</v>
       </c>
-      <c r="AG32" s="27"/>
+      <c r="AG32" s="27">
+        <v>45439</v>
+      </c>
       <c r="AH32" s="12"/>
       <c r="AI32" s="13"/>
       <c r="AJ32" s="12"/>
@@ -3269,8 +3296,12 @@
       <c r="AF33" s="8">
         <v>4</v>
       </c>
-      <c r="AG33" s="33"/>
-      <c r="AH33" s="12"/>
+      <c r="AG33" s="33">
+        <v>45441</v>
+      </c>
+      <c r="AH33" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="AI33" s="13"/>
       <c r="AJ33" s="12"/>
       <c r="AK33" s="13"/>
@@ -3292,15 +3323,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3324,20 +3355,22 @@
       <c r="AG34" s="27"/>
       <c r="AH34" s="12"/>
       <c r="AI34" s="13"/>
-      <c r="AJ34" s="12"/>
+      <c r="AJ34" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="AK34" s="13"/>
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="45" t="s">
+      <c r="AU34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3361,7 +3394,9 @@
         <v>26</v>
       </c>
       <c r="AG35" s="27"/>
-      <c r="AH35" s="12"/>
+      <c r="AH35" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="AI35" s="13"/>
       <c r="AJ35" s="12"/>
       <c r="AK35" s="13"/>
@@ -3370,20 +3405,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="L36" s="47" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="L36" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3406,24 +3441,26 @@
       <c r="AG36" s="34"/>
       <c r="AH36" s="35"/>
       <c r="AI36" s="36"/>
-      <c r="AJ36" s="35"/>
+      <c r="AJ36" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="47" t="s">
+      <c r="AN36" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="52"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="45" t="s">
+      <c r="AU36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="45"/>
-      <c r="AW36" s="45"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="45"/>
-      <c r="BA36" s="45"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="51"/>
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3448,31 +3485,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="58" t="s">
+      <c r="P37" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="60"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="51"/>
-      <c r="AF37" s="45" t="s">
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="50"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="60"/>
+      <c r="AF37" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3568,33 +3605,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57"/>
-      <c r="X39" s="45" t="s">
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="47"/>
+      <c r="X39" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AI39" s="45" t="s">
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AI39" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="45"/>
-      <c r="AK39" s="45"/>
-      <c r="AL39" s="45"/>
-      <c r="AM39" s="45"/>
-      <c r="AN39" s="45"/>
-      <c r="AO39" s="45"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3752,11 +3789,11 @@
       <c r="G41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="46" t="s">
+      <c r="I41" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3812,11 +3849,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="47" t="s">
+      <c r="AQ41" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="46"/>
-      <c r="AS41" s="46"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4109,15 +4146,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4169,15 +4206,15 @@
       <c r="AO45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AU45" s="45" t="s">
+      <c r="AU45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="45"/>
-      <c r="AW45" s="45"/>
-      <c r="AX45" s="45"/>
-      <c r="AY45" s="45"/>
-      <c r="AZ45" s="45"/>
-      <c r="BA45" s="45"/>
+      <c r="AV45" s="51"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="51"/>
+      <c r="AY45" s="51"/>
+      <c r="AZ45" s="51"/>
+      <c r="BA45" s="51"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4273,45 +4310,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="55" t="s">
+      <c r="M48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="57"/>
-      <c r="X48" s="45" t="s">
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="47"/>
+      <c r="X48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AI48" s="45" t="s">
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AI48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="45"/>
-      <c r="AO48" s="45"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4328,34 +4385,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A2D81C-8D1E-46DA-9D85-F66FA68326CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348492A-9D6A-49C3-BA0B-91B0CEC69F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="104">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -716,13 +716,43 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,36 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,18 +1145,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1185,18 +1185,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1241,14 +1241,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1279,10 +1279,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1301,10 +1301,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1386,16 +1386,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I15" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="V15" workbookViewId="0">
+      <selection activeCell="AI30" sqref="AI30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1427,9 @@
     <col min="18" max="18" width="20.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="23.85546875" style="1" customWidth="1"/>
     <col min="20" max="20" width="23.42578125" style="1" customWidth="1"/>
-    <col min="21" max="23" width="9.140625" style="1"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="21.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
     <col min="24" max="24" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="28" width="21.42578125" style="1" customWidth="1"/>
     <col min="29" max="29" width="9.140625" style="1"/>
@@ -1452,124 +1454,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55"/>
-      <c r="Z1" s="53" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="55"/>
-      <c r="AF1" s="53" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="55"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="M2" s="57" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="M2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
-      <c r="AI2" s="57" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="AI2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="59"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AU2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="59"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="AI3" s="51" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="AI3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="51" t="s">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AU3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1593,15 +1595,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1931,11 +1933,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1981,11 +1983,11 @@
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="52" t="s">
+      <c r="AQ8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2246,15 +2248,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2269,69 +2271,69 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="51" t="s">
+      <c r="AI12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="51" t="s">
+      <c r="AU12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="L14" s="56" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="L14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="AN14" s="52" t="s">
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="AN14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="51" t="s">
+      <c r="AU14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2553,19 +2555,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="I19" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="56" t="s">
+      <c r="AQ19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2695,52 +2697,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="51" t="s">
+      <c r="AU23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="51" t="s">
+      <c r="AU25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2764,24 +2766,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="60"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="51"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2875,26 +2877,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="45" t="s">
+      <c r="P28" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="47"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="57"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="51" t="s">
+      <c r="AF28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3030,11 +3032,11 @@
       <c r="G30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="I30" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3045,12 +3047,18 @@
       <c r="R30" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="S30" s="24"/>
+      <c r="S30" s="24">
+        <v>3</v>
+      </c>
       <c r="T30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="U30" s="24"/>
-      <c r="V30" s="25"/>
+      <c r="U30" s="24">
+        <v>0</v>
+      </c>
+      <c r="V30" s="25" t="s">
+        <v>53</v>
+      </c>
       <c r="X30" s="12"/>
       <c r="AD30" s="13"/>
       <c r="AF30" s="7">
@@ -3069,11 +3077,11 @@
       <c r="AK30" s="24"/>
       <c r="AL30" s="25"/>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
+      <c r="AQ30" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3323,15 +3331,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3362,15 +3370,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="51" t="s">
+      <c r="AU34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3405,20 +3413,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="L36" s="56" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="L36" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3446,21 +3454,21 @@
       </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="56" t="s">
+      <c r="AN36" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="51" t="s">
+      <c r="AU36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="51"/>
-      <c r="AZ36" s="51"/>
-      <c r="BA36" s="51"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="45"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3485,31 +3493,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="48" t="s">
+      <c r="P37" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="50"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="60"/>
-      <c r="AF37" s="51" t="s">
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="60"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="51"/>
+      <c r="AF37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3605,33 +3613,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="47"/>
-      <c r="X39" s="51" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="X39" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AI39" s="51" t="s">
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AI39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="45"/>
+      <c r="AN39" s="45"/>
+      <c r="AO39" s="45"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3789,11 +3797,11 @@
       <c r="G41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3849,11 +3857,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="56" t="s">
+      <c r="AQ41" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="52"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="46"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4146,15 +4154,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4206,15 +4214,15 @@
       <c r="AO45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AU45" s="51" t="s">
+      <c r="AU45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="51"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="51"/>
-      <c r="AY45" s="51"/>
-      <c r="AZ45" s="51"/>
-      <c r="BA45" s="51"/>
+      <c r="AV45" s="45"/>
+      <c r="AW45" s="45"/>
+      <c r="AX45" s="45"/>
+      <c r="AY45" s="45"/>
+      <c r="AZ45" s="45"/>
+      <c r="BA45" s="45"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4310,49 +4318,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="45" t="s">
+      <c r="M48" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="47"/>
-      <c r="X48" s="51" t="s">
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="57"/>
+      <c r="X48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AI48" s="51" t="s">
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AI48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="51"/>
-      <c r="AK48" s="51"/>
-      <c r="AL48" s="51"/>
-      <c r="AM48" s="51"/>
-      <c r="AN48" s="51"/>
-      <c r="AO48" s="51"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4369,30 +4389,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C348492A-9D6A-49C3-BA0B-91B0CEC69F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="104">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -343,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -716,14 +715,32 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,6 +748,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,33 +771,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1052,7 +1051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1145,18 +1144,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1185,18 +1184,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1241,14 +1240,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1279,10 +1278,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1301,10 +1300,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1386,16 +1385,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1403,11 +1402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V15" workbookViewId="0">
-      <selection activeCell="AI30" sqref="AI30"/>
+    <sheetView tabSelected="1" topLeftCell="O15" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1438,7 @@
     <col min="34" max="34" width="22.85546875" style="1" customWidth="1"/>
     <col min="35" max="36" width="21.7109375" style="1" customWidth="1"/>
     <col min="37" max="37" width="22.28515625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="9.140625" style="1"/>
+    <col min="38" max="38" width="17.140625" style="1" customWidth="1"/>
     <col min="39" max="39" width="22.140625" style="1" customWidth="1"/>
     <col min="40" max="40" width="9.140625" style="1"/>
     <col min="41" max="41" width="22.140625" style="1" customWidth="1"/>
@@ -1454,124 +1453,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="Z1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="55"/>
+      <c r="AF1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="55"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="M2" s="48" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="M2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-      <c r="AI2" s="48" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="AI2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="50"/>
-      <c r="AU2" s="48" t="s">
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="59"/>
+      <c r="AU2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="50"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="59"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="AI3" s="45" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="AI3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1595,15 +1594,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="57"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1933,11 +1932,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1983,11 +1982,11 @@
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="46" t="s">
+      <c r="AQ8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2248,15 +2247,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2271,69 +2270,69 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="45" t="s">
+      <c r="AI12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="45" t="s">
+      <c r="AU12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="L14" s="47" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="L14" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="AN14" s="46" t="s">
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="AN14" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="45" t="s">
+      <c r="AU14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2555,19 +2554,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="I19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="47" t="s">
+      <c r="AQ19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2697,52 +2696,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="45" t="s">
+      <c r="AU23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="45" t="s">
+      <c r="AU25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2766,24 +2765,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="47"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="51"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="60"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2877,26 +2876,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="55" t="s">
+      <c r="P28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="57"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="47"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="45" t="s">
+      <c r="AF28" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3032,11 +3031,11 @@
       <c r="G30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
+      <c r="I30" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3070,18 +3069,27 @@
       <c r="AH30" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="AI30" s="24"/>
+      <c r="AI30" s="24">
+        <v>3</v>
+      </c>
       <c r="AJ30" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AK30" s="24"/>
-      <c r="AL30" s="25"/>
+      <c r="AK30" s="24">
+        <v>2</v>
+      </c>
+      <c r="AL30" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM30" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="46"/>
-      <c r="AS30" s="46"/>
+      <c r="AQ30" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3331,15 +3339,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3370,15 +3378,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="45" t="s">
+      <c r="AU34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3413,20 +3421,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="L36" s="47" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="L36" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3454,21 +3462,21 @@
       </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="47" t="s">
+      <c r="AN36" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="52"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="45" t="s">
+      <c r="AU36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="45"/>
-      <c r="AW36" s="45"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="45"/>
-      <c r="BA36" s="45"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="51"/>
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3493,31 +3501,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="58" t="s">
+      <c r="P37" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="60"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="51"/>
-      <c r="AF37" s="45" t="s">
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="50"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="60"/>
+      <c r="AF37" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3613,33 +3621,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57"/>
-      <c r="X39" s="45" t="s">
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="47"/>
+      <c r="X39" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AI39" s="45" t="s">
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AI39" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="45"/>
-      <c r="AK39" s="45"/>
-      <c r="AL39" s="45"/>
-      <c r="AM39" s="45"/>
-      <c r="AN39" s="45"/>
-      <c r="AO39" s="45"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3797,11 +3805,11 @@
       <c r="G41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="46" t="s">
+      <c r="I41" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3857,11 +3865,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="47" t="s">
+      <c r="AQ41" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="46"/>
-      <c r="AS41" s="46"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4154,15 +4162,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4214,15 +4222,15 @@
       <c r="AO45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AU45" s="45" t="s">
+      <c r="AU45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="45"/>
-      <c r="AW45" s="45"/>
-      <c r="AX45" s="45"/>
-      <c r="AY45" s="45"/>
-      <c r="AZ45" s="45"/>
-      <c r="BA45" s="45"/>
+      <c r="AV45" s="51"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="51"/>
+      <c r="AY45" s="51"/>
+      <c r="AZ45" s="51"/>
+      <c r="BA45" s="51"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4318,45 +4326,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="55" t="s">
+      <c r="M48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="57"/>
-      <c r="X48" s="45" t="s">
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="47"/>
+      <c r="X48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AI48" s="45" t="s">
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AI48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="45"/>
-      <c r="AO48" s="45"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4373,125 +4401,105 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LunchProjects\GitHub\NHLStats\2024\Playoffs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5431E4-3174-4DD3-9089-49CC7424BCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matchups" sheetId="3" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="104">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -342,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
@@ -715,13 +716,43 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -741,36 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1051,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1144,18 +1145,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1184,18 +1185,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1240,14 +1241,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1278,10 +1279,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1300,10 +1301,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1385,16 +1386,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1402,11 +1403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O15" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="W15" workbookViewId="0">
+      <selection activeCell="AI31" sqref="AI31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,124 +1454,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55"/>
-      <c r="Z1" s="53" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="55"/>
-      <c r="AF1" s="53" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="55"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="M2" s="57" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="M2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
-      <c r="AI2" s="57" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="AI2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="59"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AU2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="59"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="AI3" s="51" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="AI3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="51" t="s">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AU3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1594,15 +1595,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1932,11 +1933,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1982,11 +1983,11 @@
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="52" t="s">
+      <c r="AQ8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2247,15 +2248,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2270,69 +2271,69 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="51" t="s">
+      <c r="AI12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="51" t="s">
+      <c r="AU12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="L14" s="56" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="L14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="AN14" s="52" t="s">
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="AN14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="51" t="s">
+      <c r="AU14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2554,19 +2555,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="I19" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="56" t="s">
+      <c r="AQ19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2696,52 +2697,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="51" t="s">
+      <c r="AU23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="51" t="s">
+      <c r="AU25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2765,24 +2766,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="60"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="51"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2876,26 +2877,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="45" t="s">
+      <c r="P28" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="47"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="57"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="51" t="s">
+      <c r="AF28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3031,11 +3032,11 @@
       <c r="G30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="I30" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3085,11 +3086,11 @@
         <v>79</v>
       </c>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
+      <c r="AQ30" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3148,12 +3149,18 @@
       <c r="R31" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="S31" s="13"/>
+      <c r="S31" s="13">
+        <v>1</v>
+      </c>
       <c r="T31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="U31" s="13"/>
-      <c r="V31" s="16"/>
+      <c r="U31" s="13">
+        <v>2</v>
+      </c>
+      <c r="V31" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="X31" s="12"/>
       <c r="AD31" s="13"/>
       <c r="AF31" s="8">
@@ -3339,15 +3346,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3378,15 +3385,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="51" t="s">
+      <c r="AU34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3421,20 +3428,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="L36" s="56" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="L36" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3462,21 +3469,21 @@
       </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="56" t="s">
+      <c r="AN36" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="51" t="s">
+      <c r="AU36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="51"/>
-      <c r="AZ36" s="51"/>
-      <c r="BA36" s="51"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="45"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3501,31 +3508,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="48" t="s">
+      <c r="P37" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="50"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="60"/>
-      <c r="AF37" s="51" t="s">
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="60"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="51"/>
+      <c r="AF37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3621,33 +3628,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="47"/>
-      <c r="X39" s="51" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="X39" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AI39" s="51" t="s">
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AI39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="45"/>
+      <c r="AN39" s="45"/>
+      <c r="AO39" s="45"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3805,11 +3812,11 @@
       <c r="G41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3865,11 +3872,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="56" t="s">
+      <c r="AQ41" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="52"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="46"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4162,15 +4169,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4222,15 +4229,15 @@
       <c r="AO45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AU45" s="51" t="s">
+      <c r="AU45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="51"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="51"/>
-      <c r="AY45" s="51"/>
-      <c r="AZ45" s="51"/>
-      <c r="BA45" s="51"/>
+      <c r="AV45" s="45"/>
+      <c r="AW45" s="45"/>
+      <c r="AX45" s="45"/>
+      <c r="AY45" s="45"/>
+      <c r="AZ45" s="45"/>
+      <c r="BA45" s="45"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4326,49 +4333,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="45" t="s">
+      <c r="M48" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="47"/>
-      <c r="X48" s="51" t="s">
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="57"/>
+      <c r="X48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AI48" s="51" t="s">
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AI48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="51"/>
-      <c r="AK48" s="51"/>
-      <c r="AL48" s="51"/>
-      <c r="AM48" s="51"/>
-      <c r="AN48" s="51"/>
-      <c r="AO48" s="51"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4385,121 +4404,109 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$14:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>C5:C11 E5:E11 I8:K8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$20:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>C16:C22 E16:E22 I19:K19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$23:$A$24</xm:f>
           </x14:formula1>
           <xm:sqref>C27:C33 E27:E33 I30:K30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
             <xm:f>Matchups!$A$17:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C38:C44 E38:E44 I41:K41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000004000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$14:$C$15</xm:f>
           </x14:formula1>
           <xm:sqref>L14:N14 Q6:Q12 O6:O12</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000005000000}">
           <x14:formula1>
             <xm:f>Matchups!$C$17:$C$18</xm:f>
           </x14:formula1>
           <xm:sqref>L36:N36 Q41:Q47 O41:O47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000006000000}">
           <x14:formula1>
             <xm:f>Matchups!$E$14:$E$15</xm:f>
           </x14:formula1>
           <xm:sqref>T30:T36 O26 R30:R36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000007000000}">
           <x14:formula1>
             <xm:f>Matchups!$F$14:$F$15</xm:f>
           </x14:formula1>
           <xm:sqref>AE26:AM26 AJ30:AJ36 AH30:AH36</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000008000000}">
           <x14:formula1>
             <xm:f>Matchups!$G$13:$G$14</xm:f>
           </x14:formula1>
           <xm:sqref>X37:AD37 Z41:Z47 AB41:AB47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000009000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$14:$B$15</xm:f>
           </x14:formula1>
           <xm:sqref>AW5:AW11 AY5:AY11 AQ8:AS8</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$20:$B$21</xm:f>
           </x14:formula1>
           <xm:sqref>AW16:AW22 AY16:AY22 AQ19:AS19</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000B000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$23:$B$24</xm:f>
           </x14:formula1>
           <xm:sqref>AW27:AW33 AY27:AY33 AQ30:AS30</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000C000000}">
           <x14:formula1>
             <xm:f>Matchups!$B$17:$B$18</xm:f>
           </x14:formula1>
           <xm:sqref>AW38:AW44 AY38:AY44 AQ41:AS41</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000D000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$14:$D$15</xm:f>
           </x14:formula1>
           <xm:sqref>AN14:AP14 AK5:AK11 AM5:AM11</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000E000000}">
           <x14:formula1>
             <xm:f>Matchups!$D$17:$D$18</xm:f>
           </x14:formula1>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5431E4-3174-4DD3-9089-49CC7424BCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707AB291-2E66-4CD4-AD47-AFEABD8FCA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="104">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -716,14 +716,32 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,6 +749,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -745,33 +772,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,18 +1145,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="42"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1185,18 +1185,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="43" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="43"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1241,14 +1241,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="43"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1279,10 +1279,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="44"/>
+      <c r="B19" s="43"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1301,10 +1301,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="44"/>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1386,16 +1386,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1406,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W15" workbookViewId="0">
-      <selection activeCell="AI31" sqref="AI31"/>
+    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,124 +1454,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="54"/>
-      <c r="Z1" s="52" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="55"/>
+      <c r="Z1" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="53"/>
-      <c r="AB1" s="54"/>
-      <c r="AF1" s="52" t="s">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="55"/>
+      <c r="AF1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="53"/>
-      <c r="AH1" s="53"/>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="53"/>
-      <c r="AM1" s="53"/>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="53"/>
-      <c r="AU1" s="53"/>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="53"/>
-      <c r="AZ1" s="53"/>
-      <c r="BA1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="55"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="50"/>
-      <c r="M2" s="48" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="M2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
-      <c r="AI2" s="48" t="s">
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="59"/>
+      <c r="AI2" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="50"/>
-      <c r="AU2" s="48" t="s">
+      <c r="AJ2" s="58"/>
+      <c r="AK2" s="58"/>
+      <c r="AL2" s="58"/>
+      <c r="AM2" s="58"/>
+      <c r="AN2" s="58"/>
+      <c r="AO2" s="59"/>
+      <c r="AU2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="49"/>
-      <c r="AW2" s="49"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="49"/>
-      <c r="AZ2" s="49"/>
-      <c r="BA2" s="50"/>
+      <c r="AV2" s="58"/>
+      <c r="AW2" s="58"/>
+      <c r="AX2" s="58"/>
+      <c r="AY2" s="58"/>
+      <c r="AZ2" s="58"/>
+      <c r="BA2" s="59"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="AI3" s="45" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="AI3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AU3" s="45" t="s">
+      <c r="AJ3" s="51"/>
+      <c r="AK3" s="51"/>
+      <c r="AL3" s="51"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="51"/>
+      <c r="AO3" s="51"/>
+      <c r="AU3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="45"/>
-      <c r="AX3" s="45"/>
-      <c r="AY3" s="45"/>
-      <c r="AZ3" s="45"/>
-      <c r="BA3" s="45"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1595,15 +1595,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="55" t="s">
+      <c r="M4" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="57"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="47"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1933,11 +1933,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="46" t="s">
+      <c r="I8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1983,11 +1983,11 @@
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="46" t="s">
+      <c r="AQ8" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2248,15 +2248,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2271,69 +2271,69 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="45" t="s">
+      <c r="AI12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="45"/>
-      <c r="AK12" s="45"/>
-      <c r="AL12" s="45"/>
-      <c r="AM12" s="45"/>
-      <c r="AN12" s="45"/>
-      <c r="AO12" s="45"/>
+      <c r="AJ12" s="51"/>
+      <c r="AK12" s="51"/>
+      <c r="AL12" s="51"/>
+      <c r="AM12" s="51"/>
+      <c r="AN12" s="51"/>
+      <c r="AO12" s="51"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="45" t="s">
+      <c r="AU12" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="45"/>
-      <c r="AW12" s="45"/>
-      <c r="AX12" s="45"/>
-      <c r="AY12" s="45"/>
-      <c r="AZ12" s="45"/>
-      <c r="BA12" s="45"/>
+      <c r="AV12" s="51"/>
+      <c r="AW12" s="51"/>
+      <c r="AX12" s="51"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="51"/>
+      <c r="BA12" s="51"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="57"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="47"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="L14" s="47" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="L14" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="AN14" s="46" t="s">
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="AN14" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AO14" s="46"/>
-      <c r="AP14" s="46"/>
+      <c r="AO14" s="52"/>
+      <c r="AP14" s="52"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="45" t="s">
+      <c r="AU14" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="45"/>
-      <c r="AW14" s="45"/>
-      <c r="AX14" s="45"/>
-      <c r="AY14" s="45"/>
-      <c r="AZ14" s="45"/>
-      <c r="BA14" s="45"/>
+      <c r="AV14" s="51"/>
+      <c r="AW14" s="51"/>
+      <c r="AX14" s="51"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="51"/>
+      <c r="BA14" s="51"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2555,19 +2555,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="I19" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="47" t="s">
+      <c r="AQ19" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="46"/>
-      <c r="AS19" s="46"/>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="52"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2697,52 +2697,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="45" t="s">
+      <c r="AU23" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="45"/>
-      <c r="AW23" s="45"/>
-      <c r="AX23" s="45"/>
-      <c r="AY23" s="45"/>
-      <c r="AZ23" s="45"/>
-      <c r="BA23" s="45"/>
+      <c r="AV23" s="51"/>
+      <c r="AW23" s="51"/>
+      <c r="AX23" s="51"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="45" t="s">
+      <c r="AU25" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="45"/>
-      <c r="AW25" s="45"/>
-      <c r="AX25" s="45"/>
-      <c r="AY25" s="45"/>
-      <c r="AZ25" s="45"/>
-      <c r="BA25" s="45"/>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51"/>
+      <c r="AY25" s="51"/>
+      <c r="AZ25" s="51"/>
+      <c r="BA25" s="51"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2766,24 +2766,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="47"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="46"/>
-      <c r="W26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="46"/>
-      <c r="AH26" s="46"/>
-      <c r="AI26" s="46"/>
-      <c r="AJ26" s="46"/>
-      <c r="AK26" s="46"/>
-      <c r="AL26" s="46"/>
-      <c r="AM26" s="51"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
+      <c r="R26" s="52"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="AE26" s="52"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="52"/>
+      <c r="AH26" s="52"/>
+      <c r="AI26" s="52"/>
+      <c r="AJ26" s="52"/>
+      <c r="AK26" s="52"/>
+      <c r="AL26" s="52"/>
+      <c r="AM26" s="60"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2877,26 +2877,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="55" t="s">
+      <c r="P28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="57"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="47"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="45" t="s">
+      <c r="AF28" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="45"/>
-      <c r="AH28" s="45"/>
-      <c r="AI28" s="45"/>
-      <c r="AJ28" s="45"/>
-      <c r="AK28" s="45"/>
-      <c r="AL28" s="45"/>
+      <c r="AG28" s="51"/>
+      <c r="AH28" s="51"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3032,11 +3032,11 @@
       <c r="G30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
+      <c r="I30" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3086,11 +3086,11 @@
         <v>79</v>
       </c>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="46"/>
-      <c r="AS30" s="46"/>
+      <c r="AQ30" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="52"/>
+      <c r="AS30" s="52"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3172,12 +3172,18 @@
       <c r="AH31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AI31" s="13"/>
+      <c r="AI31" s="13">
+        <v>1</v>
+      </c>
       <c r="AJ31" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="16"/>
+      <c r="AK31" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL31" s="16" t="s">
+        <v>56</v>
+      </c>
       <c r="AN31" s="12"/>
       <c r="AQ31" s="10"/>
       <c r="AR31" s="17"/>
@@ -3346,15 +3352,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3385,15 +3391,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="45" t="s">
+      <c r="AU34" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="45"/>
-      <c r="AW34" s="45"/>
-      <c r="AX34" s="45"/>
-      <c r="AY34" s="45"/>
-      <c r="AZ34" s="45"/>
-      <c r="BA34" s="45"/>
+      <c r="AV34" s="51"/>
+      <c r="AW34" s="51"/>
+      <c r="AX34" s="51"/>
+      <c r="AY34" s="51"/>
+      <c r="AZ34" s="51"/>
+      <c r="BA34" s="51"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3428,20 +3434,20 @@
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="L36" s="47" t="s">
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="L36" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="46"/>
-      <c r="N36" s="46"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3469,21 +3475,21 @@
       </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="47" t="s">
+      <c r="AN36" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AO36" s="46"/>
-      <c r="AP36" s="46"/>
+      <c r="AO36" s="52"/>
+      <c r="AP36" s="52"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="45" t="s">
+      <c r="AU36" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="45"/>
-      <c r="AW36" s="45"/>
-      <c r="AX36" s="45"/>
-      <c r="AY36" s="45"/>
-      <c r="AZ36" s="45"/>
-      <c r="BA36" s="45"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="51"/>
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3508,31 +3514,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="58" t="s">
+      <c r="P37" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="60"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="46"/>
-      <c r="Z37" s="46"/>
-      <c r="AA37" s="46"/>
-      <c r="AB37" s="46"/>
-      <c r="AC37" s="46"/>
-      <c r="AD37" s="51"/>
-      <c r="AF37" s="45" t="s">
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="50"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="52"/>
+      <c r="Z37" s="52"/>
+      <c r="AA37" s="52"/>
+      <c r="AB37" s="52"/>
+      <c r="AC37" s="52"/>
+      <c r="AD37" s="60"/>
+      <c r="AF37" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="45"/>
-      <c r="AH37" s="45"/>
-      <c r="AI37" s="45"/>
-      <c r="AJ37" s="45"/>
-      <c r="AK37" s="45"/>
-      <c r="AL37" s="45"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3628,33 +3634,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="55" t="s">
+      <c r="M39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="57"/>
-      <c r="X39" s="45" t="s">
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="47"/>
+      <c r="X39" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="45"/>
-      <c r="Z39" s="45"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="45"/>
-      <c r="AC39" s="45"/>
-      <c r="AD39" s="45"/>
-      <c r="AI39" s="45" t="s">
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AI39" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="45"/>
-      <c r="AK39" s="45"/>
-      <c r="AL39" s="45"/>
-      <c r="AM39" s="45"/>
-      <c r="AN39" s="45"/>
-      <c r="AO39" s="45"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3812,11 +3818,11 @@
       <c r="G41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="46" t="s">
+      <c r="I41" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3872,11 +3878,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="47" t="s">
+      <c r="AQ41" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="46"/>
-      <c r="AS41" s="46"/>
+      <c r="AR41" s="52"/>
+      <c r="AS41" s="52"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4169,15 +4175,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="45"/>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4229,15 +4235,15 @@
       <c r="AO45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AU45" s="45" t="s">
+      <c r="AU45" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="45"/>
-      <c r="AW45" s="45"/>
-      <c r="AX45" s="45"/>
-      <c r="AY45" s="45"/>
-      <c r="AZ45" s="45"/>
-      <c r="BA45" s="45"/>
+      <c r="AV45" s="51"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="51"/>
+      <c r="AY45" s="51"/>
+      <c r="AZ45" s="51"/>
+      <c r="BA45" s="51"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4333,45 +4339,65 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="55" t="s">
+      <c r="M48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="Q48" s="56"/>
-      <c r="R48" s="56"/>
-      <c r="S48" s="57"/>
-      <c r="X48" s="45" t="s">
+      <c r="N48" s="46"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="47"/>
+      <c r="X48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="45"/>
-      <c r="Z48" s="45"/>
-      <c r="AA48" s="45"/>
-      <c r="AB48" s="45"/>
-      <c r="AC48" s="45"/>
-      <c r="AD48" s="45"/>
-      <c r="AI48" s="45" t="s">
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AI48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="45"/>
-      <c r="AK48" s="45"/>
-      <c r="AL48" s="45"/>
-      <c r="AM48" s="45"/>
-      <c r="AN48" s="45"/>
-      <c r="AO48" s="45"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="X37:AD37"/>
+    <mergeCell ref="AE26:AM26"/>
+    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="X39:AD39"/>
+    <mergeCell ref="X48:AD48"/>
+    <mergeCell ref="AF1:BA1"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AI3:AO3"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="AI39:AO39"/>
+    <mergeCell ref="AU25:BA25"/>
+    <mergeCell ref="AI48:AO48"/>
+    <mergeCell ref="AN14:AP14"/>
+    <mergeCell ref="AN36:AP36"/>
+    <mergeCell ref="AQ8:AS8"/>
+    <mergeCell ref="AQ19:AS19"/>
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="O26:W26"/>
     <mergeCell ref="I41:K41"/>
@@ -4388,34 +4414,14 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="A25:G25"/>
-    <mergeCell ref="X37:AD37"/>
-    <mergeCell ref="AE26:AM26"/>
-    <mergeCell ref="Z1:AB1"/>
-    <mergeCell ref="X39:AD39"/>
-    <mergeCell ref="X48:AD48"/>
-    <mergeCell ref="AF1:BA1"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AI3:AO3"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI39:AO39"/>
-    <mergeCell ref="AU25:BA25"/>
-    <mergeCell ref="AI48:AO48"/>
-    <mergeCell ref="AN14:AP14"/>
-    <mergeCell ref="AN36:AP36"/>
-    <mergeCell ref="AQ8:AS8"/>
-    <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\NHLStats\2024\Playoffs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{707AB291-2E66-4CD4-AD47-AFEABD8FCA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918ED5B8-6C58-4C41-8BFE-A4083BE7D482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="105">
   <si>
     <t>Eastern Conference Playoff Teams</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>Oilers Win Series 4-3</t>
+  </si>
+  <si>
+    <t>Rangers Lead 2-1</t>
   </si>
 </sst>
 </file>
@@ -716,13 +719,43 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,36 +775,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,18 +1148,18 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="4" t="s">
         <v>40</v>
       </c>
@@ -1185,18 +1188,18 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="42" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="43"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1241,14 +1244,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="44"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -1279,10 +1282,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="44"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -1301,10 +1304,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="44"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1386,16 +1389,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1406,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J15" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="X15" workbookViewId="0">
+      <selection activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,124 +1457,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="55"/>
-      <c r="Z1" s="53" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="54"/>
+      <c r="Z1" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="54"/>
-      <c r="AB1" s="55"/>
-      <c r="AF1" s="53" t="s">
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="54"/>
+      <c r="AF1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="54"/>
-      <c r="AI1" s="54"/>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="54"/>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="54"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="54"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="54"/>
-      <c r="AV1" s="54"/>
-      <c r="AW1" s="54"/>
-      <c r="AX1" s="54"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="54"/>
-      <c r="BA1" s="55"/>
+      <c r="AG1" s="53"/>
+      <c r="AH1" s="53"/>
+      <c r="AI1" s="53"/>
+      <c r="AJ1" s="53"/>
+      <c r="AK1" s="53"/>
+      <c r="AL1" s="53"/>
+      <c r="AM1" s="53"/>
+      <c r="AN1" s="53"/>
+      <c r="AO1" s="53"/>
+      <c r="AP1" s="53"/>
+      <c r="AQ1" s="53"/>
+      <c r="AR1" s="53"/>
+      <c r="AS1" s="53"/>
+      <c r="AT1" s="53"/>
+      <c r="AU1" s="53"/>
+      <c r="AV1" s="53"/>
+      <c r="AW1" s="53"/>
+      <c r="AX1" s="53"/>
+      <c r="AY1" s="53"/>
+      <c r="AZ1" s="53"/>
+      <c r="BA1" s="54"/>
     </row>
     <row r="2" spans="1:54" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
-      <c r="M2" s="57" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="50"/>
+      <c r="M2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="59"/>
-      <c r="AI2" s="57" t="s">
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="50"/>
+      <c r="AI2" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" s="58"/>
-      <c r="AK2" s="58"/>
-      <c r="AL2" s="58"/>
-      <c r="AM2" s="58"/>
-      <c r="AN2" s="58"/>
-      <c r="AO2" s="59"/>
-      <c r="AU2" s="57" t="s">
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="50"/>
+      <c r="AU2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="AV2" s="58"/>
-      <c r="AW2" s="58"/>
-      <c r="AX2" s="58"/>
-      <c r="AY2" s="58"/>
-      <c r="AZ2" s="58"/>
-      <c r="BA2" s="59"/>
+      <c r="AV2" s="49"/>
+      <c r="AW2" s="49"/>
+      <c r="AX2" s="49"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="49"/>
+      <c r="BA2" s="50"/>
     </row>
     <row r="3" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="AI3" s="51" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="AI3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="AJ3" s="51"/>
-      <c r="AK3" s="51"/>
-      <c r="AL3" s="51"/>
-      <c r="AM3" s="51"/>
-      <c r="AN3" s="51"/>
-      <c r="AO3" s="51"/>
-      <c r="AU3" s="51" t="s">
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AU3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="45"/>
+      <c r="AX3" s="45"/>
+      <c r="AY3" s="45"/>
+      <c r="AZ3" s="45"/>
+      <c r="BA3" s="45"/>
     </row>
     <row r="4" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1595,15 +1598,15 @@
       <c r="G4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="45" t="s">
+      <c r="M4" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="47"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
       <c r="AI4" s="3" t="s">
         <v>18</v>
       </c>
@@ -1933,11 +1936,11 @@
       <c r="G8" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
       <c r="M8" s="8">
         <v>3</v>
       </c>
@@ -1983,11 +1986,11 @@
       <c r="AO8" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AQ8" s="52" t="s">
+      <c r="AQ8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
       <c r="AU8" s="38">
         <v>4</v>
       </c>
@@ -2248,15 +2251,15 @@
       <c r="BA11" s="6"/>
     </row>
     <row r="12" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="L12" s="12"/>
       <c r="M12" s="8" t="s">
         <v>28</v>
@@ -2271,69 +2274,69 @@
       </c>
       <c r="R12" s="13"/>
       <c r="S12" s="16"/>
-      <c r="AI12" s="51" t="s">
+      <c r="AI12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ12" s="51"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="51"/>
-      <c r="AM12" s="51"/>
-      <c r="AN12" s="51"/>
-      <c r="AO12" s="51"/>
+      <c r="AJ12" s="45"/>
+      <c r="AK12" s="45"/>
+      <c r="AL12" s="45"/>
+      <c r="AM12" s="45"/>
+      <c r="AN12" s="45"/>
+      <c r="AO12" s="45"/>
       <c r="AQ12" s="12"/>
-      <c r="AU12" s="51" t="s">
+      <c r="AU12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV12" s="51"/>
-      <c r="AW12" s="51"/>
-      <c r="AX12" s="51"/>
-      <c r="AY12" s="51"/>
-      <c r="AZ12" s="51"/>
-      <c r="BA12" s="51"/>
+      <c r="AV12" s="45"/>
+      <c r="AW12" s="45"/>
+      <c r="AX12" s="45"/>
+      <c r="AY12" s="45"/>
+      <c r="AZ12" s="45"/>
+      <c r="BA12" s="45"/>
     </row>
     <row r="13" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L13" s="12"/>
-      <c r="M13" s="45" t="s">
+      <c r="M13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="47"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="57"/>
       <c r="AQ13" s="12"/>
     </row>
     <row r="14" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="L14" s="56" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="L14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="AN14" s="52" t="s">
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="AN14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AO14" s="52"/>
-      <c r="AP14" s="52"/>
+      <c r="AO14" s="46"/>
+      <c r="AP14" s="46"/>
       <c r="AQ14" s="12"/>
-      <c r="AU14" s="51" t="s">
+      <c r="AU14" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="AV14" s="51"/>
-      <c r="AW14" s="51"/>
-      <c r="AX14" s="51"/>
-      <c r="AY14" s="51"/>
-      <c r="AZ14" s="51"/>
-      <c r="BA14" s="51"/>
+      <c r="AV14" s="45"/>
+      <c r="AW14" s="45"/>
+      <c r="AX14" s="45"/>
+      <c r="AY14" s="45"/>
+      <c r="AZ14" s="45"/>
+      <c r="BA14" s="45"/>
     </row>
     <row r="15" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -2555,19 +2558,19 @@
       <c r="H19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="I19" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
+      <c r="I19" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="12"/>
       <c r="O19" s="12"/>
       <c r="AN19" s="12"/>
-      <c r="AQ19" s="56" t="s">
+      <c r="AQ19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="AR19" s="52"/>
-      <c r="AS19" s="52"/>
+      <c r="AR19" s="46"/>
+      <c r="AS19" s="46"/>
       <c r="AU19" s="38">
         <v>4</v>
       </c>
@@ -2697,52 +2700,52 @@
       <c r="BA22" s="6"/>
     </row>
     <row r="23" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="O23" s="12"/>
       <c r="AN23" s="12"/>
-      <c r="AU23" s="51" t="s">
+      <c r="AU23" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV23" s="51"/>
-      <c r="AW23" s="51"/>
-      <c r="AX23" s="51"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
+      <c r="AV23" s="45"/>
+      <c r="AW23" s="45"/>
+      <c r="AX23" s="45"/>
+      <c r="AY23" s="45"/>
+      <c r="AZ23" s="45"/>
+      <c r="BA23" s="45"/>
     </row>
     <row r="24" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O24" s="12"/>
       <c r="AN24" s="12"/>
     </row>
     <row r="25" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
       <c r="O25" s="12"/>
       <c r="AN25" s="12"/>
-      <c r="AU25" s="51" t="s">
+      <c r="AU25" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51"/>
-      <c r="AY25" s="51"/>
-      <c r="AZ25" s="51"/>
-      <c r="BA25" s="51"/>
+      <c r="AV25" s="45"/>
+      <c r="AW25" s="45"/>
+      <c r="AX25" s="45"/>
+      <c r="AY25" s="45"/>
+      <c r="AZ25" s="45"/>
+      <c r="BA25" s="45"/>
     </row>
     <row r="26" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
@@ -2766,24 +2769,24 @@
       <c r="G26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-      <c r="R26" s="52"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="52"/>
-      <c r="AH26" s="52"/>
-      <c r="AI26" s="52"/>
-      <c r="AJ26" s="52"/>
-      <c r="AK26" s="52"/>
-      <c r="AL26" s="52"/>
-      <c r="AM26" s="60"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="46"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="AE26" s="46"/>
+      <c r="AF26" s="46"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
+      <c r="AJ26" s="46"/>
+      <c r="AK26" s="46"/>
+      <c r="AL26" s="46"/>
+      <c r="AM26" s="51"/>
       <c r="AU26" s="20" t="s">
         <v>18</v>
       </c>
@@ -2877,26 +2880,26 @@
         <v>56</v>
       </c>
       <c r="O28" s="12"/>
-      <c r="P28" s="45" t="s">
+      <c r="P28" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="47"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="57"/>
       <c r="X28" s="12"/>
       <c r="AD28" s="13"/>
-      <c r="AF28" s="51" t="s">
+      <c r="AF28" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="AG28" s="51"/>
-      <c r="AH28" s="51"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
+      <c r="AG28" s="45"/>
+      <c r="AH28" s="45"/>
+      <c r="AI28" s="45"/>
+      <c r="AJ28" s="45"/>
+      <c r="AK28" s="45"/>
+      <c r="AL28" s="45"/>
       <c r="AN28" s="12"/>
       <c r="AU28" s="8">
         <v>2</v>
@@ -3032,11 +3035,11 @@
       <c r="G30" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I30" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
+      <c r="I30" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
       <c r="O30" s="12"/>
       <c r="P30" s="7">
         <v>1</v>
@@ -3086,11 +3089,11 @@
         <v>79</v>
       </c>
       <c r="AN30" s="12"/>
-      <c r="AQ30" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR30" s="52"/>
-      <c r="AS30" s="52"/>
+      <c r="AQ30" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR30" s="46"/>
+      <c r="AS30" s="46"/>
       <c r="AU30" s="38">
         <v>4</v>
       </c>
@@ -3243,12 +3246,18 @@
       <c r="R32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S32" s="13"/>
+      <c r="S32" s="13">
+        <v>5</v>
+      </c>
       <c r="T32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="U32" s="13"/>
-      <c r="V32" s="16"/>
+      <c r="U32" s="13">
+        <v>4</v>
+      </c>
+      <c r="V32" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="X32" s="12"/>
       <c r="AD32" s="13"/>
       <c r="AF32" s="8">
@@ -3257,9 +3266,13 @@
       <c r="AG32" s="27">
         <v>45439</v>
       </c>
-      <c r="AH32" s="12"/>
+      <c r="AH32" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="AI32" s="13"/>
-      <c r="AJ32" s="12"/>
+      <c r="AJ32" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="AK32" s="13"/>
       <c r="AL32" s="16"/>
       <c r="AN32" s="12"/>
@@ -3329,10 +3342,12 @@
         <v>45441</v>
       </c>
       <c r="AH33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="12"/>
       <c r="AK33" s="13"/>
       <c r="AL33" s="16"/>
       <c r="AN33" s="12"/>
@@ -3352,15 +3367,15 @@
       <c r="BA33" s="6"/>
     </row>
     <row r="34" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
       <c r="L34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="8" t="s">
@@ -3382,7 +3397,9 @@
         <v>27</v>
       </c>
       <c r="AG34" s="27"/>
-      <c r="AH34" s="12"/>
+      <c r="AH34" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="AI34" s="13"/>
       <c r="AJ34" s="12" t="s">
         <v>5</v>
@@ -3391,15 +3408,15 @@
       <c r="AL34" s="16"/>
       <c r="AN34" s="12"/>
       <c r="AQ34" s="12"/>
-      <c r="AU34" s="51" t="s">
+      <c r="AU34" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV34" s="51"/>
-      <c r="AW34" s="51"/>
-      <c r="AX34" s="51"/>
-      <c r="AY34" s="51"/>
-      <c r="AZ34" s="51"/>
-      <c r="BA34" s="51"/>
+      <c r="AV34" s="45"/>
+      <c r="AW34" s="45"/>
+      <c r="AX34" s="45"/>
+      <c r="AY34" s="45"/>
+      <c r="AZ34" s="45"/>
+      <c r="BA34" s="45"/>
     </row>
     <row r="35" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L35" s="12"/>
@@ -3424,30 +3441,32 @@
       </c>
       <c r="AG35" s="27"/>
       <c r="AH35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="12"/>
       <c r="AK35" s="13"/>
       <c r="AL35" s="16"/>
       <c r="AN35" s="12"/>
       <c r="AQ35" s="12"/>
     </row>
     <row r="36" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="L36" s="56" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="45"/>
+      <c r="L36" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
       <c r="O36" s="12"/>
       <c r="P36" s="8" t="s">
         <v>28</v>
@@ -3468,28 +3487,30 @@
         <v>28</v>
       </c>
       <c r="AG36" s="34"/>
-      <c r="AH36" s="35"/>
+      <c r="AH36" s="35" t="s">
+        <v>7</v>
+      </c>
       <c r="AI36" s="36"/>
       <c r="AJ36" s="35" t="s">
         <v>5</v>
       </c>
       <c r="AK36" s="36"/>
       <c r="AL36" s="37"/>
-      <c r="AN36" s="56" t="s">
+      <c r="AN36" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AO36" s="52"/>
-      <c r="AP36" s="52"/>
+      <c r="AO36" s="46"/>
+      <c r="AP36" s="46"/>
       <c r="AQ36" s="12"/>
-      <c r="AU36" s="51" t="s">
+      <c r="AU36" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="AV36" s="51"/>
-      <c r="AW36" s="51"/>
-      <c r="AX36" s="51"/>
-      <c r="AY36" s="51"/>
-      <c r="AZ36" s="51"/>
-      <c r="BA36" s="51"/>
+      <c r="AV36" s="45"/>
+      <c r="AW36" s="45"/>
+      <c r="AX36" s="45"/>
+      <c r="AY36" s="45"/>
+      <c r="AZ36" s="45"/>
+      <c r="BA36" s="45"/>
     </row>
     <row r="37" spans="1:54" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
@@ -3514,31 +3535,31 @@
         <v>25</v>
       </c>
       <c r="L37" s="12"/>
-      <c r="P37" s="48" t="s">
+      <c r="P37" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="50"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="52"/>
-      <c r="Z37" s="52"/>
-      <c r="AA37" s="52"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="60"/>
-      <c r="AF37" s="51" t="s">
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="60"/>
+      <c r="X37" s="47"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="51"/>
+      <c r="AF37" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AG37" s="51"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="51"/>
-      <c r="AJ37" s="51"/>
-      <c r="AK37" s="51"/>
-      <c r="AL37" s="51"/>
+      <c r="AG37" s="45"/>
+      <c r="AH37" s="45"/>
+      <c r="AI37" s="45"/>
+      <c r="AJ37" s="45"/>
+      <c r="AK37" s="45"/>
+      <c r="AL37" s="45"/>
       <c r="AQ37" s="12"/>
       <c r="AU37" s="3" t="s">
         <v>18</v>
@@ -3634,33 +3655,33 @@
         <v>59</v>
       </c>
       <c r="L39" s="12"/>
-      <c r="M39" s="45" t="s">
+      <c r="M39" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="46"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="47"/>
-      <c r="X39" s="51" t="s">
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="57"/>
+      <c r="X39" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="51"/>
-      <c r="AC39" s="51"/>
-      <c r="AD39" s="51"/>
-      <c r="AI39" s="51" t="s">
+      <c r="Y39" s="45"/>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="45"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="45"/>
+      <c r="AI39" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="51"/>
-      <c r="AL39" s="51"/>
-      <c r="AM39" s="51"/>
-      <c r="AN39" s="51"/>
-      <c r="AO39" s="51"/>
+      <c r="AJ39" s="45"/>
+      <c r="AK39" s="45"/>
+      <c r="AL39" s="45"/>
+      <c r="AM39" s="45"/>
+      <c r="AN39" s="45"/>
+      <c r="AO39" s="45"/>
       <c r="AQ39" s="12"/>
       <c r="AU39" s="8">
         <v>2</v>
@@ -3818,11 +3839,11 @@
       <c r="G41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="I41" s="52" t="s">
+      <c r="I41" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="46"/>
       <c r="L41" s="12"/>
       <c r="M41" s="7">
         <v>1</v>
@@ -3878,11 +3899,11 @@
       <c r="AP41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AQ41" s="56" t="s">
+      <c r="AQ41" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="AR41" s="52"/>
-      <c r="AS41" s="52"/>
+      <c r="AR41" s="46"/>
+      <c r="AS41" s="46"/>
       <c r="AU41" s="8">
         <v>4</v>
       </c>
@@ -4175,15 +4196,15 @@
       </c>
     </row>
     <row r="45" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="51" t="s">
+      <c r="A45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B45" s="51"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
       <c r="M45" s="8" t="s">
         <v>27</v>
       </c>
@@ -4235,15 +4256,15 @@
       <c r="AO45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="AU45" s="51" t="s">
+      <c r="AU45" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AV45" s="51"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="51"/>
-      <c r="AY45" s="51"/>
-      <c r="AZ45" s="51"/>
-      <c r="BA45" s="51"/>
+      <c r="AV45" s="45"/>
+      <c r="AW45" s="45"/>
+      <c r="AX45" s="45"/>
+      <c r="AY45" s="45"/>
+      <c r="AZ45" s="45"/>
+      <c r="BA45" s="45"/>
     </row>
     <row r="46" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="M46" s="8" t="s">
@@ -4339,49 +4360,61 @@
       <c r="AO47" s="6"/>
     </row>
     <row r="48" spans="1:54" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="45" t="s">
+      <c r="M48" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="N48" s="46"/>
-      <c r="O48" s="46"/>
-      <c r="P48" s="46"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="47"/>
-      <c r="X48" s="51" t="s">
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="57"/>
+      <c r="X48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="Y48" s="51"/>
-      <c r="Z48" s="51"/>
-      <c r="AA48" s="51"/>
-      <c r="AB48" s="51"/>
-      <c r="AC48" s="51"/>
-      <c r="AD48" s="51"/>
-      <c r="AI48" s="51" t="s">
+      <c r="Y48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="45"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="45"/>
+      <c r="AI48" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AJ48" s="51"/>
-      <c r="AK48" s="51"/>
-      <c r="AL48" s="51"/>
-      <c r="AM48" s="51"/>
-      <c r="AN48" s="51"/>
-      <c r="AO48" s="51"/>
+      <c r="AJ48" s="45"/>
+      <c r="AK48" s="45"/>
+      <c r="AL48" s="45"/>
+      <c r="AM48" s="45"/>
+      <c r="AN48" s="45"/>
+      <c r="AO48" s="45"/>
     </row>
     <row r="49" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="AU45:BA45"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="AF37:AL37"/>
-    <mergeCell ref="AQ30:AS30"/>
-    <mergeCell ref="AQ41:AS41"/>
-    <mergeCell ref="AU34:BA34"/>
-    <mergeCell ref="AU36:BA36"/>
-    <mergeCell ref="AU2:BA2"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AU12:BA12"/>
-    <mergeCell ref="AU14:BA14"/>
-    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O26:W26"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="M4:S4"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="A25:G25"/>
     <mergeCell ref="X37:AD37"/>
     <mergeCell ref="AE26:AM26"/>
     <mergeCell ref="Z1:AB1"/>
@@ -4398,30 +4431,18 @@
     <mergeCell ref="AN36:AP36"/>
     <mergeCell ref="AQ8:AS8"/>
     <mergeCell ref="AQ19:AS19"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="O26:W26"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="M4:S4"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AU12:BA12"/>
+    <mergeCell ref="AU14:BA14"/>
+    <mergeCell ref="AU23:BA23"/>
+    <mergeCell ref="AU45:BA45"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="AF37:AL37"/>
+    <mergeCell ref="AQ30:AS30"/>
+    <mergeCell ref="AQ41:AS41"/>
+    <mergeCell ref="AU34:BA34"/>
+    <mergeCell ref="AU36:BA36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/2024/Playoffs/Brackets.xlsx
+++ b/2024/Playoffs/Brackets.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="ht